--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -648,10 +648,10 @@
         <v>30000</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M4" t="n">
         <v>125</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L5" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>185</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>100</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44259</v>
+        <v>44350</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="K8" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="L8" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M8" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>7750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K10" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K11" t="n">
         <v>80</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44329</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="K12" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44252</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>50000</v>
       </c>
       <c r="K13" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L13" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M13" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L14" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M14" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44322</v>
+        <v>44364</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L16" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44293</v>
+        <v>44336</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>44000</v>
+        <v>20000</v>
       </c>
       <c r="K17" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="L17" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44293</v>
+        <v>44160</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30000</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>140</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>150</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>145</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44293</v>
+        <v>44286</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="K19" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L19" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="M19" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44335</v>
+        <v>44286</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K20" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44335</v>
+        <v>44266</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L21" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44167</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="K22" t="n">
-        <v>15500</v>
+        <v>120</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>130</v>
       </c>
       <c r="M22" t="n">
-        <v>15750</v>
+        <v>125</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44279</v>
+        <v>44308</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="K23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M23" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44279</v>
+        <v>44308</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K24" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="L24" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M24" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>26000</v>
+        <v>50000</v>
       </c>
       <c r="K25" t="n">
+        <v>80</v>
+      </c>
+      <c r="L25" t="n">
         <v>100</v>
       </c>
-      <c r="L25" t="n">
-        <v>150</v>
-      </c>
       <c r="M25" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="K26" t="n">
         <v>50</v>
       </c>
       <c r="L26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44308</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K27" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44308</v>
+        <v>44181</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>40000</v>
+        <v>900</v>
       </c>
       <c r="K28" t="n">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="L28" t="n">
-        <v>60</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>10500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44356</v>
+        <v>44231</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="K29" t="n">
-        <v>7500</v>
+        <v>200</v>
       </c>
       <c r="L29" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
-        <v>7750</v>
+        <v>250</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="Q29" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44356</v>
+        <v>44230</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="K30" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="L30" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44356</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,25 +2580,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K31" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44280</v>
+        <v>44245</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K32" t="n">
         <v>200</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44175</v>
+        <v>44245</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>80000</v>
+        <v>28000</v>
       </c>
       <c r="K33" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L33" t="n">
         <v>180</v>
       </c>
       <c r="M33" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44384</v>
+        <v>44328</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>700</v>
+        <v>100000</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>12500</v>
+        <v>90</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44384</v>
+        <v>44328</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L35" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="M35" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44363</v>
+        <v>44343</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1200</v>
+        <v>60000</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>120</v>
       </c>
       <c r="M36" t="n">
-        <v>9000</v>
+        <v>110</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Q36" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44343</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L37" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44293</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K38" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L38" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M38" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44385</v>
+        <v>44293</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,29 +3156,29 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K39" t="n">
-        <v>11500</v>
+        <v>140</v>
       </c>
       <c r="L39" t="n">
-        <v>12000</v>
+        <v>150</v>
       </c>
       <c r="M39" t="n">
-        <v>11750</v>
+        <v>145</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="Q39" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K40" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="L40" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="M40" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="K41" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="L41" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M41" t="n">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44237</v>
+        <v>44406</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>80000</v>
+        <v>1100</v>
       </c>
       <c r="K42" t="n">
-        <v>250</v>
+        <v>19000</v>
       </c>
       <c r="L42" t="n">
-        <v>280</v>
+        <v>20000</v>
       </c>
       <c r="M42" t="n">
-        <v>265</v>
+        <v>19500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44273</v>
+        <v>44385</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>24000</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L43" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>215</v>
+        <v>11750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44377</v>
+        <v>44252</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M44" t="n">
-        <v>13500</v>
+        <v>210</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q44" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44321</v>
+        <v>44252</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K45" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M45" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44321</v>
+        <v>44371</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,36 +3665,36 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>32000</v>
+        <v>1200</v>
       </c>
       <c r="K46" t="n">
-        <v>50</v>
+        <v>12500</v>
       </c>
       <c r="L46" t="n">
-        <v>70</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q46" t="n">
         <v>60</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44370</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K47" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44336</v>
+        <v>44259</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="K48" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="L48" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44371</v>
+        <v>44224</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1200</v>
+        <v>80000</v>
       </c>
       <c r="K51" t="n">
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="L51" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M51" t="n">
-        <v>12750</v>
+        <v>275</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="Q51" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44238</v>
+        <v>44384</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>60000</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44238</v>
+        <v>44384</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K53" t="n">
         <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M53" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44314</v>
+        <v>44168</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K54" t="n">
-        <v>80</v>
+        <v>16000</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>16500</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>16250</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="K55" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44364</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,24 +4385,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="M56" t="n">
-        <v>9000</v>
+        <v>60</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="Q56" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44224</v>
+        <v>44272</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K57" t="n">
+        <v>200</v>
+      </c>
+      <c r="L57" t="n">
         <v>250</v>
       </c>
-      <c r="L57" t="n">
-        <v>300</v>
-      </c>
       <c r="M57" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K58" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="L58" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M58" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44231</v>
+        <v>44321</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>120000</v>
+        <v>32000</v>
       </c>
       <c r="K59" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44391</v>
+        <v>44335</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K60" t="n">
-        <v>13000</v>
+        <v>80</v>
       </c>
       <c r="L60" t="n">
-        <v>14000</v>
+        <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>13500</v>
+        <v>90</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q60" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44350</v>
+        <v>44210</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="K62" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="L62" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L63" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,26 +4956,26 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="K64" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
         <v>90</v>
       </c>
-      <c r="M64" t="n">
-        <v>80</v>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M65" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44294</v>
+        <v>44244</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>36000</v>
+        <v>110000</v>
       </c>
       <c r="K66" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="M66" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K67" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="L67" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M67" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>28000</v>
+        <v>110000</v>
       </c>
       <c r="K68" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M68" t="n">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44181</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>900</v>
+        <v>80000</v>
       </c>
       <c r="K69" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L69" t="n">
-        <v>11000</v>
+        <v>280</v>
       </c>
       <c r="M69" t="n">
-        <v>10500</v>
+        <v>265</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44307</v>
+        <v>44273</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M70" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K71" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44161</v>
+        <v>44294</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>800</v>
+        <v>36000</v>
       </c>
       <c r="K72" t="n">
-        <v>18500</v>
+        <v>120</v>
       </c>
       <c r="L72" t="n">
-        <v>19000</v>
+        <v>140</v>
       </c>
       <c r="M72" t="n">
-        <v>18750</v>
+        <v>130</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="Q72" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44160</v>
+        <v>44315</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1100</v>
+        <v>44000</v>
       </c>
       <c r="K73" t="n">
-        <v>17000</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="M73" t="n">
-        <v>17500</v>
+        <v>110</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="Q73" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K74" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L74" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="M74" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44301</v>
+        <v>44391</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>24000</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L75" t="n">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>13500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44301</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="K76" t="n">
+        <v>80</v>
+      </c>
+      <c r="L76" t="n">
         <v>100</v>
       </c>
-      <c r="L76" t="n">
-        <v>150</v>
-      </c>
       <c r="M76" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L77" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M77" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="L78" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M78" t="n">
-        <v>12500</v>
+        <v>18750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="Q78" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44230</v>
+        <v>44175</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K79" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L79" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M79" t="n">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K80" t="n">
         <v>200</v>
       </c>
       <c r="L80" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M80" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44286</v>
+        <v>44279</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K81" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L81" t="n">
         <v>200</v>
       </c>
       <c r="M81" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K82" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L82" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44244</v>
+        <v>44314</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K83" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L83" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="M83" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44343</v>
+        <v>44167</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>60000</v>
+        <v>2400</v>
       </c>
       <c r="K84" t="n">
-        <v>100</v>
+        <v>15500</v>
       </c>
       <c r="L84" t="n">
-        <v>120</v>
+        <v>16000</v>
       </c>
       <c r="M84" t="n">
-        <v>110</v>
+        <v>15750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44343</v>
+        <v>44238</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K85" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="L85" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="M85" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K86" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="L86" t="n">
-        <v>16500</v>
+        <v>250</v>
       </c>
       <c r="M86" t="n">
-        <v>16250</v>
+        <v>225</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,32 +501,32 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>90000</v>
+        <v>900</v>
       </c>
       <c r="K2" t="n">
-        <v>130</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>150</v>
       </c>
-      <c r="M2" t="n">
-        <v>140</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>140</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,11 +569,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K3" t="n">
         <v>80</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>36000</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>140</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>130</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K7" t="n">
         <v>100</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="K8" t="n">
         <v>70</v>
       </c>
       <c r="L8" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44259</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="K9" t="n">
-        <v>7500</v>
+        <v>230</v>
       </c>
       <c r="L9" t="n">
-        <v>8000</v>
+        <v>250</v>
       </c>
       <c r="M9" t="n">
-        <v>7750</v>
+        <v>240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100000</v>
+        <v>700</v>
       </c>
       <c r="K10" t="n">
-        <v>130</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>140</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>40000</v>
       </c>
       <c r="K11" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K12" t="n">
+        <v>80</v>
+      </c>
+      <c r="L12" t="n">
         <v>100</v>
       </c>
-      <c r="L12" t="n">
-        <v>120</v>
-      </c>
       <c r="M12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K13" t="n">
         <v>70</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44280</v>
+        <v>44349</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="M14" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>75</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44336</v>
+        <v>44329</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K16" t="n">
         <v>80</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44336</v>
+        <v>44329</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L17" t="n">
         <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44160</v>
+        <v>44364</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44286</v>
+        <v>44258</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M19" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K20" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>175</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44266</v>
+        <v>44231</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="K21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="M21" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44224</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K22" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L22" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="M22" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44308</v>
+        <v>44230</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>26000</v>
+        <v>110000</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M23" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L24" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44308</v>
+        <v>44322</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K25" t="n">
         <v>80</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44308</v>
+        <v>44322</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,17 +2229,17 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K26" t="n">
         <v>50</v>
       </c>
       <c r="L26" t="n">
+        <v>70</v>
+      </c>
+      <c r="M26" t="n">
         <v>60</v>
       </c>
-      <c r="M26" t="n">
-        <v>55</v>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44363</v>
+        <v>44293</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1200</v>
+        <v>44000</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="M27" t="n">
-        <v>9000</v>
+        <v>190</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q27" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44181</v>
+        <v>44293</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>900</v>
+        <v>30000</v>
       </c>
       <c r="K28" t="n">
-        <v>10000</v>
+        <v>140</v>
       </c>
       <c r="L28" t="n">
-        <v>11000</v>
+        <v>150</v>
       </c>
       <c r="M28" t="n">
-        <v>10500</v>
+        <v>145</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q28" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44231</v>
+        <v>44293</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="K29" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L29" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44230</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K30" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L30" t="n">
         <v>300</v>
       </c>
       <c r="M30" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>30000</v>
       </c>
       <c r="K31" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L31" t="n">
         <v>250</v>
       </c>
       <c r="M31" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44245</v>
+        <v>44406</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>32000</v>
+        <v>1100</v>
       </c>
       <c r="K32" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>230</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>215</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44245</v>
+        <v>44385</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,29 +2724,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>28000</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>160</v>
+        <v>11500</v>
       </c>
       <c r="L33" t="n">
-        <v>180</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>170</v>
+        <v>11750</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44328</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100000</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44328</v>
+        <v>44245</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="K35" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L35" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44343</v>
+        <v>44245</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,25 +2940,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L36" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M36" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44343</v>
+        <v>44321</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>50000</v>
       </c>
       <c r="K37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44293</v>
+        <v>44321</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="K38" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M38" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K39" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M39" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>50000</v>
       </c>
       <c r="K40" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M40" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44209</v>
+        <v>44161</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K41" t="n">
-        <v>230</v>
+        <v>18500</v>
       </c>
       <c r="L41" t="n">
-        <v>250</v>
+        <v>19000</v>
       </c>
       <c r="M41" t="n">
-        <v>240</v>
+        <v>18750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="K42" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="M42" t="n">
-        <v>19500</v>
+        <v>125</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="Q42" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44385</v>
+        <v>44307</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K43" t="n">
-        <v>11500</v>
+        <v>80</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="M43" t="n">
-        <v>11750</v>
+        <v>90</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,13 +3528,13 @@
         <v>50000</v>
       </c>
       <c r="K44" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L44" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K45" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L45" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="M45" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44371</v>
+        <v>44328</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="K46" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q46" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44370</v>
+        <v>44328</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,24 +3737,24 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>60</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="Q47" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44259</v>
+        <v>44370</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>32000</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>240</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L49" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M49" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L50" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M50" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44224</v>
+        <v>44167</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80000</v>
+        <v>2400</v>
       </c>
       <c r="K51" t="n">
-        <v>250</v>
+        <v>15500</v>
       </c>
       <c r="L51" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M51" t="n">
-        <v>275</v>
+        <v>15750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44384</v>
+        <v>44210</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>80000</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>170</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M52" t="n">
-        <v>12500</v>
+        <v>185</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="Q52" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44384</v>
+        <v>44266</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L53" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="M53" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44168</v>
+        <v>44266</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K54" t="n">
-        <v>16000</v>
+        <v>120</v>
       </c>
       <c r="L54" t="n">
-        <v>16500</v>
+        <v>130</v>
       </c>
       <c r="M54" t="n">
-        <v>16250</v>
+        <v>125</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="Q54" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="K56" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L56" t="n">
         <v>70</v>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44272</v>
+        <v>44343</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M57" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44321</v>
+        <v>44343</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>50000</v>
       </c>
       <c r="K58" t="n">
+        <v>70</v>
+      </c>
+      <c r="L58" t="n">
         <v>80</v>
       </c>
-      <c r="L58" t="n">
-        <v>100</v>
-      </c>
       <c r="M58" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44321</v>
+        <v>44280</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K59" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L59" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80000</v>
+        <v>26000</v>
       </c>
       <c r="K60" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M60" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K61" t="n">
         <v>50</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44210</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K62" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K63" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="M63" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K64" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M64" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K65" t="n">
+        <v>80</v>
+      </c>
+      <c r="L65" t="n">
         <v>100</v>
       </c>
-      <c r="L65" t="n">
-        <v>150</v>
-      </c>
       <c r="M65" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="K66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M66" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K67" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L67" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M67" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44252</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K68" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L68" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M68" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44168</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="K69" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="L69" t="n">
-        <v>280</v>
+        <v>16500</v>
       </c>
       <c r="M69" t="n">
-        <v>265</v>
+        <v>16250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44273</v>
+        <v>44371</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>24000</v>
+        <v>1200</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>12500</v>
       </c>
       <c r="L70" t="n">
-        <v>230</v>
+        <v>13000</v>
       </c>
       <c r="M70" t="n">
-        <v>215</v>
+        <v>12750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44294</v>
+        <v>44279</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K71" t="n">
         <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M71" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44294</v>
+        <v>44279</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>36000</v>
+        <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L72" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M72" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44315</v>
+        <v>44363</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>44000</v>
+        <v>1200</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="L73" t="n">
-        <v>120</v>
+        <v>10000</v>
       </c>
       <c r="M73" t="n">
-        <v>110</v>
+        <v>9000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="K74" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L74" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44391</v>
+        <v>44286</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="K75" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="M75" t="n">
-        <v>13500</v>
+        <v>215</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q75" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44286</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="K76" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M76" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44329</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K77" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="L77" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M77" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44161</v>
+        <v>44356</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K78" t="n">
-        <v>18500</v>
+        <v>7500</v>
       </c>
       <c r="L78" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M78" t="n">
-        <v>18750</v>
+        <v>7750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="K79" t="n">
+        <v>130</v>
+      </c>
+      <c r="L79" t="n">
         <v>150</v>
       </c>
-      <c r="L79" t="n">
-        <v>180</v>
-      </c>
       <c r="M79" t="n">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44279</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="K80" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44279</v>
+        <v>44160</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>180</v>
+        <v>17000</v>
       </c>
       <c r="L81" t="n">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="M81" t="n">
-        <v>190</v>
+        <v>17500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44314</v>
+        <v>44175</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K82" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L82" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="K83" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="L83" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M83" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44167</v>
+        <v>44357</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,24 +6401,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2400</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
-        <v>15500</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>15750</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="K85" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44238</v>
+        <v>44244</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6552,13 +6552,13 @@
         <v>30000</v>
       </c>
       <c r="K86" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="L86" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M86" t="n">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44329</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>900</v>
+        <v>60000</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>10500</v>
+        <v>90</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44329</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44335</v>
+        <v>44259</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="L4" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44294</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30000</v>
+        <v>900</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>220</v>
+        <v>11000</v>
       </c>
       <c r="M5" t="n">
-        <v>210</v>
+        <v>10500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>36000</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>120</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>140</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>130</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K8" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L8" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44259</v>
+        <v>44279</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1008,13 +1008,13 @@
         <v>32000</v>
       </c>
       <c r="K9" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L9" t="n">
         <v>250</v>
       </c>
       <c r="M9" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44384</v>
+        <v>44279</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>190</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44384</v>
+        <v>44237</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M11" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44314</v>
+        <v>44237</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K12" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44314</v>
+        <v>44160</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,32 +1293,32 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="K13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q13" t="n">
         <v>70</v>
-      </c>
-      <c r="L13" t="n">
-        <v>80</v>
-      </c>
-      <c r="M13" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44349</v>
+        <v>44371</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>110</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44349</v>
+        <v>44167</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1433,36 +1433,36 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50000</v>
+        <v>2400</v>
       </c>
       <c r="K15" t="n">
+        <v>15500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15750</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q15" t="n">
         <v>70</v>
-      </c>
-      <c r="L15" t="n">
-        <v>80</v>
-      </c>
-      <c r="M15" t="n">
-        <v>75</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44329</v>
+        <v>44238</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1512,13 +1512,13 @@
         <v>60000</v>
       </c>
       <c r="K16" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44329</v>
+        <v>44238</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L17" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44364</v>
+        <v>44272</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>225</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44258</v>
+        <v>44210</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="L19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44175</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>165</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="Q20" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44224</v>
+        <v>44245</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110000</v>
+        <v>28000</v>
       </c>
       <c r="K23" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L23" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44272</v>
+        <v>44230</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L24" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M24" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44322</v>
+        <v>44370</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60000</v>
+        <v>1100</v>
       </c>
       <c r="K25" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44322</v>
+        <v>44244</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K26" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L26" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44293</v>
+        <v>44244</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K27" t="n">
+        <v>160</v>
+      </c>
+      <c r="L27" t="n">
         <v>180</v>
       </c>
-      <c r="L27" t="n">
-        <v>200</v>
-      </c>
       <c r="M27" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44293</v>
+        <v>44336</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K28" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="L28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44293</v>
+        <v>44336</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K29" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L29" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="M29" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>44308</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60000</v>
+        <v>26000</v>
       </c>
       <c r="K30" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44238</v>
+        <v>44308</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K31" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L31" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M31" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44406</v>
+        <v>44308</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>80</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>90</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44385</v>
+        <v>44308</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>40000</v>
       </c>
       <c r="K33" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>60</v>
       </c>
       <c r="M33" t="n">
-        <v>11750</v>
+        <v>55</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="Q33" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>90</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44245</v>
+        <v>44322</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L35" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="M35" t="n">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44245</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>28000</v>
+        <v>80000</v>
       </c>
       <c r="K36" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="L36" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44321</v>
+        <v>44315</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44321</v>
+        <v>44315</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K38" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="K39" t="n">
+        <v>180</v>
+      </c>
+      <c r="L39" t="n">
         <v>200</v>
       </c>
-      <c r="L39" t="n">
-        <v>220</v>
-      </c>
       <c r="M39" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L40" t="n">
         <v>150</v>
       </c>
       <c r="M40" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44161</v>
+        <v>44293</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K41" t="n">
-        <v>18500</v>
+        <v>120</v>
       </c>
       <c r="L41" t="n">
-        <v>19000</v>
+        <v>140</v>
       </c>
       <c r="M41" t="n">
-        <v>18750</v>
+        <v>130</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44307</v>
+        <v>44343</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K42" t="n">
         <v>100</v>
       </c>
       <c r="L42" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M42" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44307</v>
+        <v>44343</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>50000</v>
       </c>
       <c r="K43" t="n">
+        <v>70</v>
+      </c>
+      <c r="L43" t="n">
         <v>80</v>
       </c>
-      <c r="L43" t="n">
-        <v>100</v>
-      </c>
       <c r="M43" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44336</v>
+        <v>44209</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K44" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M44" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44336</v>
+        <v>44294</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K45" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="K46" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M46" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,36 +3737,36 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K47" t="n">
-        <v>50</v>
+        <v>7500</v>
       </c>
       <c r="L47" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q47" t="n">
         <v>60</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1100</v>
+        <v>100000</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>130</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M48" t="n">
-        <v>12500</v>
+        <v>140</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q48" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44237</v>
+        <v>44356</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K49" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L49" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="K50" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L50" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="M50" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K51" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="L51" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M51" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q51" t="n">
         <v>70</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44210</v>
+        <v>44161</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K52" t="n">
-        <v>170</v>
+        <v>18500</v>
       </c>
       <c r="L52" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="M52" t="n">
-        <v>185</v>
+        <v>18750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44266</v>
+        <v>44280</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4176,13 +4176,13 @@
         <v>30000</v>
       </c>
       <c r="K53" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M53" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44266</v>
+        <v>44391</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="K54" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>125</v>
+        <v>13500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L55" t="n">
         <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44350</v>
+        <v>44335</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="K56" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>70</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44343</v>
+        <v>44231</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M57" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44343</v>
+        <v>44258</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K58" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="L58" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="M58" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K59" t="n">
         <v>200</v>
       </c>
       <c r="L59" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M59" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="K60" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L60" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M60" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="K61" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L61" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
         <v>50000</v>
       </c>
       <c r="K62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="K63" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,25 +4956,25 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K64" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L64" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M64" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K65" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L66" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M66" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44252</v>
+        <v>44385</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>50000</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L67" t="n">
-        <v>220</v>
+        <v>12000</v>
       </c>
       <c r="M67" t="n">
-        <v>210</v>
+        <v>11750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44252</v>
+        <v>44377</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="K68" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L68" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="M68" t="n">
-        <v>155</v>
+        <v>13500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44168</v>
+        <v>44307</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K69" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
-        <v>16500</v>
+        <v>150</v>
       </c>
       <c r="M69" t="n">
-        <v>16250</v>
+        <v>125</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44371</v>
+        <v>44307</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K70" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L70" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M70" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q70" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44279</v>
+        <v>44384</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>32000</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L71" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>225</v>
+        <v>12500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44279</v>
+        <v>44384</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K72" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M72" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44273</v>
+        <v>44301</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K74" t="n">
+        <v>150</v>
+      </c>
+      <c r="L74" t="n">
         <v>200</v>
       </c>
-      <c r="L74" t="n">
-        <v>230</v>
-      </c>
       <c r="M74" t="n">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44286</v>
+        <v>44301</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L75" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M75" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44286</v>
+        <v>44301</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="K76" t="n">
+        <v>100</v>
+      </c>
+      <c r="L76" t="n">
         <v>150</v>
       </c>
-      <c r="L76" t="n">
-        <v>200</v>
-      </c>
       <c r="M76" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44357</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="K77" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="L77" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M77" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,24 +5969,24 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="K78" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="L78" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>7750</v>
+        <v>90</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44356</v>
+        <v>44328</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6048,13 +6048,13 @@
         <v>100000</v>
       </c>
       <c r="K79" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L79" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44356</v>
+        <v>44328</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44160</v>
+        <v>44321</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K81" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>17500</v>
+        <v>90</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44175</v>
+        <v>44321</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K82" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M82" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K83" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K84" t="n">
+        <v>70</v>
+      </c>
+      <c r="L84" t="n">
         <v>80</v>
       </c>
-      <c r="L84" t="n">
-        <v>100</v>
-      </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>110000</v>
+        <v>36000</v>
       </c>
       <c r="K85" t="n">
         <v>200</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K86" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L86" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M86" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L59" t="n">
-        <v>220</v>
+        <v>40000</v>
       </c>
       <c r="M59" t="n">
-        <v>210</v>
+        <v>39500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>210</v>
+        <v>564</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K60" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L60" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M60" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>40000</v>
       </c>
       <c r="K61" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L61" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="M61" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L62" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M62" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K63" t="n">
         <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K64" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M64" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L65" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,24 +5177,24 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="K67" t="n">
-        <v>11500</v>
+        <v>70</v>
       </c>
       <c r="L67" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M67" t="n">
-        <v>11750</v>
+        <v>70</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="Q67" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L68" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M68" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q68" t="n">
         <v>60</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="L69" t="n">
-        <v>150</v>
+        <v>14000</v>
       </c>
       <c r="M69" t="n">
-        <v>125</v>
+        <v>13500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K70" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M70" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44384</v>
+        <v>44307</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M71" t="n">
-        <v>12500</v>
+        <v>90</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q71" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L72" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M72" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1200</v>
+        <v>40000</v>
       </c>
       <c r="K73" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="M73" t="n">
-        <v>9000</v>
+        <v>210</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q73" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,32 +5685,32 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>150</v>
       </c>
-      <c r="L74" t="n">
-        <v>200</v>
-      </c>
-      <c r="M74" t="n">
-        <v>175</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>175</v>
-      </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K75" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K76" t="n">
+        <v>80</v>
+      </c>
+      <c r="L76" t="n">
         <v>100</v>
       </c>
-      <c r="L76" t="n">
-        <v>150</v>
-      </c>
       <c r="M76" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="K77" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>150</v>
       </c>
       <c r="M77" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K78" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L78" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,11 +6041,11 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K79" t="n">
         <v>80</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K80" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L82" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K84" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="K85" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L85" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="M85" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6540,43 +6540,115 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>36000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>200</v>
+      </c>
+      <c r="L86" t="n">
+        <v>230</v>
+      </c>
+      <c r="M86" t="n">
+        <v>215</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>Dulce o Americano</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J86" t="n">
+      <c r="J87" t="n">
         <v>32000</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K87" t="n">
         <v>150</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L87" t="n">
         <v>200</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M87" t="n">
         <v>175</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
         <v>175</v>
       </c>
-      <c r="Q86" t="n">
-        <v>1</v>
-      </c>
-      <c r="R86" t="inlineStr">
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44272</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L18" t="n">
-        <v>250</v>
+        <v>40000</v>
       </c>
       <c r="M18" t="n">
-        <v>225</v>
+        <v>39500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K19" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M19" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1800,13 +1800,13 @@
         <v>80000</v>
       </c>
       <c r="K20" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L20" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44364</v>
+        <v>44175</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>9000</v>
+        <v>165</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q21" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44245</v>
+        <v>44364</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K23" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L23" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110000</v>
+        <v>28000</v>
       </c>
       <c r="K24" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="L24" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="M24" t="n">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44370</v>
+        <v>44230</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1100</v>
+        <v>110000</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>275</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="Q25" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>110000</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>230</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>215</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K27" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L27" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44336</v>
+        <v>44244</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K28" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L29" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,25 +2508,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L30" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M30" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>50</v>
+        <v>40000</v>
       </c>
       <c r="L31" t="n">
+        <v>41000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>40500</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>579</v>
+      </c>
+      <c r="Q31" t="n">
         <v>70</v>
-      </c>
-      <c r="M31" t="n">
-        <v>60</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50000</v>
+        <v>26000</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,17 +2733,17 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K33" t="n">
         <v>50</v>
       </c>
       <c r="L33" t="n">
+        <v>70</v>
+      </c>
+      <c r="M33" t="n">
         <v>60</v>
       </c>
-      <c r="M33" t="n">
-        <v>55</v>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K34" t="n">
         <v>80</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K35" t="n">
         <v>50</v>
       </c>
       <c r="L35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44322</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="K36" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="L36" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M36" t="n">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L37" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K38" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="L38" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>44000</v>
       </c>
       <c r="K39" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="M39" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K40" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="L40" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M40" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K41" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L41" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M41" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M42" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>50000</v>
       </c>
       <c r="K43" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L43" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M43" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44209</v>
+        <v>44343</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="K44" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M44" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44294</v>
+        <v>44343</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L45" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="M45" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="K46" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L46" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M46" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K47" t="n">
-        <v>7500</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>220</v>
       </c>
       <c r="M47" t="n">
-        <v>7750</v>
+        <v>210</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="Q47" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,17 +3813,17 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="K48" t="n">
+        <v>120</v>
+      </c>
+      <c r="L48" t="n">
+        <v>140</v>
+      </c>
+      <c r="M48" t="n">
         <v>130</v>
       </c>
-      <c r="L48" t="n">
-        <v>150</v>
-      </c>
-      <c r="M48" t="n">
-        <v>140</v>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,24 +3881,24 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K49" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>7750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44273</v>
+        <v>44356</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="K50" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="L50" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M50" t="n">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44168</v>
+        <v>44356</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K51" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="L51" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>16250</v>
+        <v>90</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44161</v>
+        <v>44273</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>800</v>
+        <v>24000</v>
       </c>
       <c r="K52" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="L52" t="n">
-        <v>19000</v>
+        <v>230</v>
       </c>
       <c r="M52" t="n">
-        <v>18750</v>
+        <v>215</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44280</v>
+        <v>44168</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="L53" t="n">
-        <v>230</v>
+        <v>16500</v>
       </c>
       <c r="M53" t="n">
-        <v>215</v>
+        <v>16250</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44391</v>
+        <v>44161</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M54" t="n">
-        <v>13500</v>
+        <v>18750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="Q54" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44335</v>
+        <v>44280</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,36 +4385,36 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>50</v>
+        <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>70</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q56" t="n">
         <v>60</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="K57" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L57" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44258</v>
+        <v>44335</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K58" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M58" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="K59" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L59" t="n">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="M59" t="n">
-        <v>39500</v>
+        <v>250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>564</v>
+        <v>250</v>
       </c>
       <c r="Q59" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K60" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L60" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M60" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
+        <v>500</v>
+      </c>
+      <c r="K61" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L61" t="n">
         <v>40000</v>
       </c>
-      <c r="K61" t="n">
-        <v>150</v>
-      </c>
-      <c r="L61" t="n">
-        <v>160</v>
-      </c>
       <c r="M61" t="n">
-        <v>155</v>
+        <v>39500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>155</v>
+        <v>564</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K62" t="n">
         <v>200</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L63" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M63" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L64" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5040,13 +5040,13 @@
         <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M65" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K66" t="n">
         <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="K67" t="n">
         <v>70</v>
       </c>
       <c r="L67" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K68" t="n">
-        <v>11500</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>11750</v>
+        <v>100</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="Q68" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44377</v>
+        <v>44350</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,24 +5321,24 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="K69" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="L69" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M69" t="n">
-        <v>13500</v>
+        <v>70</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="Q69" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44307</v>
+        <v>44385</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L70" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L71" t="n">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="M71" t="n">
-        <v>90</v>
+        <v>13500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44384</v>
+        <v>44307</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>30000</v>
       </c>
       <c r="K72" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M72" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q72" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44384</v>
+        <v>44307</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K73" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L73" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="Q74" t="n">
         <v>60</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44301</v>
+        <v>44384</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K75" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M75" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>24000</v>
+        <v>1200</v>
       </c>
       <c r="K76" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M76" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K77" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M77" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>90000</v>
+        <v>24000</v>
       </c>
       <c r="K78" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L78" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K79" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K82" t="n">
         <v>80</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="K83" t="n">
         <v>50</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
         <v>80</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100000</v>
+        <v>32000</v>
       </c>
       <c r="K85" t="n">
+        <v>50</v>
+      </c>
+      <c r="L85" t="n">
         <v>70</v>
       </c>
-      <c r="L85" t="n">
-        <v>80</v>
-      </c>
       <c r="M85" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44286</v>
+        <v>44314</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="K86" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L86" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,58 +6597,202 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>70</v>
+      </c>
+      <c r="L87" t="n">
+        <v>80</v>
+      </c>
+      <c r="M87" t="n">
+        <v>75</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>36000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>200</v>
+      </c>
+      <c r="L88" t="n">
+        <v>230</v>
+      </c>
+      <c r="M88" t="n">
+        <v>215</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Dulce o Americano</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J87" t="n">
+      <c r="J89" t="n">
         <v>32000</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K89" t="n">
         <v>150</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L89" t="n">
         <v>200</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M89" t="n">
         <v>175</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
         <v>175</v>
       </c>
-      <c r="Q87" t="n">
-        <v>1</v>
-      </c>
-      <c r="R87" t="inlineStr">
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44329</v>
+        <v>44497</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>60000</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>39000</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>39500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>564</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44329</v>
+        <v>44349</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44259</v>
+        <v>44349</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K4" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="L4" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="M4" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44230</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>900</v>
+        <v>110000</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="M5" t="n">
-        <v>10500</v>
+        <v>275</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L7" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K8" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M8" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44279</v>
+        <v>44258</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K9" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L9" t="n">
         <v>250</v>
       </c>
       <c r="M9" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44279</v>
+        <v>44475</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>180</v>
+        <v>39000</v>
       </c>
       <c r="L10" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="M10" t="n">
-        <v>190</v>
+        <v>39500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>190</v>
+        <v>564</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44237</v>
+        <v>44363</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110000</v>
+        <v>1200</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>325</v>
+        <v>9000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,21 +1217,21 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K12" t="n">
+        <v>200</v>
+      </c>
+      <c r="L12" t="n">
+        <v>300</v>
+      </c>
+      <c r="M12" t="n">
         <v>250</v>
       </c>
-      <c r="L12" t="n">
-        <v>280</v>
-      </c>
-      <c r="M12" t="n">
-        <v>265</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44160</v>
+        <v>44391</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44371</v>
+        <v>44364</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>9000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44252</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2400</v>
+        <v>50000</v>
       </c>
       <c r="K15" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>16000</v>
+        <v>220</v>
       </c>
       <c r="M15" t="n">
-        <v>15750</v>
+        <v>210</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q15" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44238</v>
+        <v>44252</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K16" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L16" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M17" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44497</v>
+        <v>44237</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K18" t="n">
-        <v>39000</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>40000</v>
+        <v>280</v>
       </c>
       <c r="M18" t="n">
-        <v>39500</v>
+        <v>265</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>564</v>
+        <v>265</v>
       </c>
       <c r="Q18" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44272</v>
+        <v>44209</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
         <v>250</v>
       </c>
       <c r="M19" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44210</v>
+        <v>44322</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="K20" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44175</v>
+        <v>44322</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K21" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L21" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M21" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
-        <v>9000</v>
+        <v>210</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q22" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44245</v>
+        <v>44300</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M23" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44245</v>
+        <v>44167</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,29 +2076,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>28000</v>
+        <v>2400</v>
       </c>
       <c r="K24" t="n">
-        <v>160</v>
+        <v>15500</v>
       </c>
       <c r="L24" t="n">
-        <v>180</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>170</v>
+        <v>15750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K25" t="n">
         <v>250</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44370</v>
+        <v>44483</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>41000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>40500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>208</v>
+        <v>579</v>
       </c>
       <c r="Q26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44244</v>
+        <v>44259</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>110000</v>
+        <v>32000</v>
       </c>
       <c r="K27" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L27" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K28" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L28" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44336</v>
+        <v>44245</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="K29" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44336</v>
+        <v>44210</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,25 +2508,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="K30" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="L30" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44483</v>
+        <v>44161</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>40000</v>
+        <v>18500</v>
       </c>
       <c r="L31" t="n">
-        <v>41000</v>
+        <v>19000</v>
       </c>
       <c r="M31" t="n">
-        <v>40500</v>
+        <v>18750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>579</v>
+        <v>268</v>
       </c>
       <c r="Q31" t="n">
         <v>70</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>26000</v>
+        <v>50000</v>
       </c>
       <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="L32" t="n">
         <v>100</v>
       </c>
-      <c r="L32" t="n">
-        <v>150</v>
-      </c>
       <c r="M32" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,13 +2736,13 @@
         <v>20000</v>
       </c>
       <c r="K33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L33" t="n">
         <v>70</v>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44308</v>
+        <v>44266</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K34" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44308</v>
+        <v>44266</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
         <v>40000</v>
       </c>
       <c r="K35" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L35" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44322</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2952,13 +2952,13 @@
         <v>60000</v>
       </c>
       <c r="K36" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="L36" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44322</v>
+        <v>44238</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3024,13 +3024,13 @@
         <v>30000</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44377</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L38" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M38" t="n">
-        <v>275</v>
+        <v>13500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="K39" t="n">
+        <v>80</v>
+      </c>
+      <c r="L39" t="n">
         <v>100</v>
       </c>
-      <c r="L39" t="n">
-        <v>120</v>
-      </c>
       <c r="M39" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>50000</v>
       </c>
       <c r="K40" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" t="n">
         <v>70</v>
       </c>
-      <c r="L40" t="n">
-        <v>90</v>
-      </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44293</v>
+        <v>44160</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>44000</v>
+        <v>1100</v>
       </c>
       <c r="K41" t="n">
-        <v>180</v>
+        <v>17000</v>
       </c>
       <c r="L41" t="n">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="M41" t="n">
-        <v>190</v>
+        <v>17500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K42" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="L42" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M42" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K43" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L43" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="M43" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K44" t="n">
         <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="K45" t="n">
         <v>70</v>
       </c>
       <c r="L45" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44209</v>
+        <v>44272</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K46" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L46" t="n">
         <v>250</v>
       </c>
       <c r="M46" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44356</v>
+        <v>44385</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M49" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="Q49" t="n">
         <v>60</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>100000</v>
+        <v>26000</v>
       </c>
       <c r="K50" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>150</v>
       </c>
       <c r="M50" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K51" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M51" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44273</v>
+        <v>44308</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="K52" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L52" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44168</v>
+        <v>44308</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,24 +4169,24 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K53" t="n">
-        <v>16000</v>
+        <v>50</v>
       </c>
       <c r="L53" t="n">
-        <v>16500</v>
+        <v>60</v>
       </c>
       <c r="M53" t="n">
-        <v>16250</v>
+        <v>55</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="Q53" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44161</v>
+        <v>44315</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>800</v>
+        <v>44000</v>
       </c>
       <c r="K54" t="n">
-        <v>18500</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>19000</v>
+        <v>120</v>
       </c>
       <c r="M54" t="n">
-        <v>18750</v>
+        <v>110</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="Q54" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44280</v>
+        <v>44315</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K55" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L55" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="M55" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44391</v>
+        <v>44371</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K56" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L56" t="n">
         <v>13000</v>
       </c>
-      <c r="L56" t="n">
-        <v>14000</v>
-      </c>
       <c r="M56" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="Q56" t="n">
         <v>60</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="K57" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M57" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4536,13 +4536,13 @@
         <v>50000</v>
       </c>
       <c r="K58" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L58" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44231</v>
+        <v>44329</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="K59" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L59" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44258</v>
+        <v>44329</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K60" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="L60" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M60" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44475</v>
+        <v>44279</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>500</v>
+        <v>32000</v>
       </c>
       <c r="K61" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L61" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="M61" t="n">
-        <v>39500</v>
+        <v>225</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>564</v>
+        <v>225</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44252</v>
+        <v>44279</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4824,13 +4824,13 @@
         <v>50000</v>
       </c>
       <c r="K62" t="n">
+        <v>180</v>
+      </c>
+      <c r="L62" t="n">
         <v>200</v>
       </c>
-      <c r="L62" t="n">
-        <v>220</v>
-      </c>
       <c r="M62" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K63" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L63" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M63" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="K64" t="n">
+        <v>180</v>
+      </c>
+      <c r="L64" t="n">
         <v>200</v>
       </c>
-      <c r="L64" t="n">
-        <v>220</v>
-      </c>
       <c r="M64" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L65" t="n">
         <v>150</v>
       </c>
       <c r="M65" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44349</v>
+        <v>44293</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L66" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M66" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,24 +5177,24 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="K67" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="L67" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="M67" t="n">
-        <v>75</v>
+        <v>7750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="K69" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L69" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L70" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M70" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q70" t="n">
         <v>60</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K71" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>13500</v>
+        <v>210</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q71" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44307</v>
+        <v>44343</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K72" t="n">
         <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M72" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44307</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
         <v>50000</v>
       </c>
       <c r="K73" t="n">
+        <v>70</v>
+      </c>
+      <c r="L73" t="n">
         <v>80</v>
       </c>
-      <c r="L73" t="n">
-        <v>100</v>
-      </c>
       <c r="M73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44384</v>
+        <v>44370</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="n">
         <v>12000</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44384</v>
+        <v>44168</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="L75" t="n">
-        <v>220</v>
+        <v>16500</v>
       </c>
       <c r="M75" t="n">
-        <v>210</v>
+        <v>16250</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44363</v>
+        <v>44175</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>80000</v>
       </c>
       <c r="K76" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="M76" t="n">
-        <v>9000</v>
+        <v>165</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q76" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M77" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="K78" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,32 +6045,32 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>70000</v>
+        <v>900</v>
       </c>
       <c r="K79" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="L79" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M79" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
         <v>150</v>
       </c>
-      <c r="M79" t="n">
-        <v>125</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>125</v>
-      </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44357</v>
+        <v>44328</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="K80" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44357</v>
+        <v>44328</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K82" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K84" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44321</v>
+        <v>44244</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>32000</v>
+        <v>110000</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44314</v>
+        <v>44244</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K86" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L86" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M87" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44286</v>
+        <v>44307</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>36000</v>
+        <v>50000</v>
       </c>
       <c r="K88" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="K89" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L89" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M89" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44230</v>
+        <v>44503</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>110000</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="L5" t="n">
-        <v>300</v>
+        <v>40000</v>
       </c>
       <c r="M5" t="n">
-        <v>275</v>
+        <v>39500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>275</v>
+        <v>564</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44230</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>110000</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>250</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>275</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44321</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K7" t="n">
-        <v>80</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L8" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44258</v>
+        <v>44321</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K9" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="L9" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M9" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="K10" t="n">
-        <v>39000</v>
+        <v>230</v>
       </c>
       <c r="L10" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="M10" t="n">
-        <v>39500</v>
+        <v>240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>564</v>
+        <v>240</v>
       </c>
       <c r="Q10" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44363</v>
+        <v>44475</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>39000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M11" t="n">
-        <v>9000</v>
+        <v>39500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>564</v>
       </c>
       <c r="Q11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44231</v>
+        <v>44363</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120000</v>
+        <v>1200</v>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>120000</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44364</v>
+        <v>44391</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44252</v>
+        <v>44364</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>220</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>210</v>
+        <v>9000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L16" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M16" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44237</v>
+        <v>44252</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K17" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L17" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M18" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L19" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M19" t="n">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44322</v>
+        <v>44209</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K20" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L22" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="M22" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44300</v>
+        <v>44489</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50000</v>
+        <v>800</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="L23" t="n">
-        <v>150</v>
+        <v>42000</v>
       </c>
       <c r="M23" t="n">
-        <v>125</v>
+        <v>41000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>125</v>
+        <v>586</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44167</v>
+        <v>44300</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="K24" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
-        <v>15750</v>
+        <v>210</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q24" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44300</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K25" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M25" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="K26" t="n">
-        <v>40000</v>
+        <v>15500</v>
       </c>
       <c r="L26" t="n">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>40500</v>
+        <v>15750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>579</v>
+        <v>225</v>
       </c>
       <c r="Q26" t="n">
         <v>70</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44259</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="K27" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L27" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M27" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44245</v>
+        <v>44483</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L28" t="n">
-        <v>230</v>
+        <v>41000</v>
       </c>
       <c r="M28" t="n">
-        <v>215</v>
+        <v>40500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>215</v>
+        <v>579</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44245</v>
+        <v>44259</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K29" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L29" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44210</v>
+        <v>44245</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K30" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L30" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
+        <v>28000</v>
       </c>
       <c r="K31" t="n">
-        <v>18500</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>19000</v>
+        <v>180</v>
       </c>
       <c r="M31" t="n">
-        <v>18750</v>
+        <v>170</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="Q31" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44336</v>
+        <v>44210</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44336</v>
+        <v>44161</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,36 +2729,36 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
+        <v>18500</v>
+      </c>
+      <c r="L33" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>18750</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>268</v>
+      </c>
+      <c r="Q33" t="n">
         <v>70</v>
-      </c>
-      <c r="L33" t="n">
-        <v>70</v>
-      </c>
-      <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44266</v>
+        <v>44336</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K34" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44266</v>
+        <v>44336</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K35" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L35" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M35" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K36" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="L36" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K37" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L37" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="M37" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44377</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44335</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K39" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44335</v>
+        <v>44377</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3233,36 +3233,36 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>50</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>70</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q40" t="n">
         <v>60</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1100</v>
+        <v>80000</v>
       </c>
       <c r="K41" t="n">
-        <v>17000</v>
+        <v>80</v>
       </c>
       <c r="L41" t="n">
-        <v>18000</v>
+        <v>100</v>
       </c>
       <c r="M41" t="n">
-        <v>17500</v>
+        <v>90</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q41" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K42" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M42" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44314</v>
+        <v>44160</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,32 +3453,32 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="K43" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q43" t="n">
         <v>70</v>
-      </c>
-      <c r="L43" t="n">
-        <v>80</v>
-      </c>
-      <c r="M43" t="n">
-        <v>75</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44350</v>
+        <v>44314</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L44" t="n">
         <v>100</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44350</v>
+        <v>44314</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="K45" t="n">
         <v>70</v>
       </c>
       <c r="L45" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3672,13 +3672,13 @@
         <v>30000</v>
       </c>
       <c r="K46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44294</v>
+        <v>44350</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="K47" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L47" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="M47" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44294</v>
+        <v>44272</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K48" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L48" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M48" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K49" t="n">
-        <v>11500</v>
+        <v>200</v>
       </c>
       <c r="L49" t="n">
-        <v>12000</v>
+        <v>220</v>
       </c>
       <c r="M49" t="n">
-        <v>11750</v>
+        <v>210</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q49" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44294</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L50" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M50" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,41 +4020,41 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>50</v>
+        <v>11500</v>
       </c>
       <c r="L51" t="n">
-        <v>70</v>
+        <v>12000</v>
       </c>
       <c r="M51" t="n">
+        <v>11750</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q51" t="n">
         <v>60</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50000</v>
+        <v>26000</v>
       </c>
       <c r="K52" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,17 +4173,17 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K53" t="n">
         <v>50</v>
       </c>
       <c r="L53" t="n">
+        <v>70</v>
+      </c>
+      <c r="M53" t="n">
         <v>60</v>
       </c>
-      <c r="M53" t="n">
-        <v>55</v>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="K54" t="n">
+        <v>80</v>
+      </c>
+      <c r="L54" t="n">
         <v>100</v>
       </c>
-      <c r="L54" t="n">
-        <v>120</v>
-      </c>
       <c r="M54" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K55" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44371</v>
+        <v>44315</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1200</v>
+        <v>44000</v>
       </c>
       <c r="K56" t="n">
-        <v>12500</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="M56" t="n">
-        <v>12750</v>
+        <v>110</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="Q56" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44357</v>
+        <v>44315</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K57" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L57" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M57" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44357</v>
+        <v>44371</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,24 +4529,24 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K58" t="n">
-        <v>80</v>
+        <v>12500</v>
       </c>
       <c r="L58" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>90</v>
+        <v>12750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44329</v>
+        <v>44490</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L59" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M59" t="n">
-        <v>90</v>
+        <v>41000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="K60" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="L60" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M60" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K61" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L61" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K62" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="L62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44329</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K63" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L63" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="M63" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44293</v>
+        <v>44279</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="K64" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L64" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M64" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44293</v>
+        <v>44279</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L65" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M65" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44293</v>
+        <v>44280</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K66" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="M66" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44356</v>
+        <v>44476</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K67" t="n">
-        <v>7500</v>
+        <v>41000</v>
       </c>
       <c r="L67" t="n">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="M67" t="n">
-        <v>7750</v>
+        <v>41500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>129</v>
+        <v>593</v>
       </c>
       <c r="Q67" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44356</v>
+        <v>44482</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100000</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>130</v>
+        <v>41000</v>
       </c>
       <c r="L68" t="n">
-        <v>150</v>
+        <v>42000</v>
       </c>
       <c r="M68" t="n">
-        <v>140</v>
+        <v>41500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>140</v>
+        <v>593</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="K69" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M69" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44384</v>
+        <v>44293</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>30000</v>
       </c>
       <c r="K70" t="n">
-        <v>12000</v>
+        <v>140</v>
       </c>
       <c r="L70" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M70" t="n">
-        <v>12500</v>
+        <v>145</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="Q70" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44384</v>
+        <v>44293</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L71" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M71" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44343</v>
+        <v>44356</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="L72" t="n">
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="M72" t="n">
-        <v>110</v>
+        <v>7750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44356</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K73" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="L73" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M73" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,24 +5681,24 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K74" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="L74" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M74" t="n">
-        <v>12500</v>
+        <v>90</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q74" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L75" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M75" t="n">
-        <v>16250</v>
+        <v>12500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44175</v>
+        <v>44384</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K76" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L76" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M76" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44286</v>
+        <v>44343</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="M77" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44286</v>
+        <v>44343</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K78" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L78" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M78" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44181</v>
+        <v>44370</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L79" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M79" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="Q79" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44328</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>16000</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>16500</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>16250</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44328</v>
+        <v>44175</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L81" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K82" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M82" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44301</v>
+        <v>44286</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,32 +6405,32 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>70000</v>
+        <v>900</v>
       </c>
       <c r="K84" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="L84" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M84" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
         <v>150</v>
       </c>
-      <c r="M84" t="n">
-        <v>125</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>125</v>
-      </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="K85" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44244</v>
+        <v>44328</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K86" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M86" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6624,13 +6624,13 @@
         <v>30000</v>
       </c>
       <c r="K87" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L87" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M87" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,16 +6684,16 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="K88" t="n">
         <v>80</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44273</v>
+        <v>44301</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>24000</v>
+        <v>70000</v>
       </c>
       <c r="K89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M89" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,12 +6787,372 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>110000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>200</v>
+      </c>
+      <c r="L90" t="n">
+        <v>230</v>
+      </c>
+      <c r="M90" t="n">
+        <v>215</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>30000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>160</v>
+      </c>
+      <c r="L91" t="n">
+        <v>180</v>
+      </c>
+      <c r="M91" t="n">
+        <v>170</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>30000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>100</v>
+      </c>
+      <c r="L92" t="n">
+        <v>150</v>
+      </c>
+      <c r="M92" t="n">
+        <v>125</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>50000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>80</v>
+      </c>
+      <c r="L93" t="n">
+        <v>100</v>
+      </c>
+      <c r="M93" t="n">
+        <v>90</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>200</v>
+      </c>
+      <c r="L94" t="n">
+        <v>230</v>
+      </c>
+      <c r="M94" t="n">
+        <v>215</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K75" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="L75" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M75" t="n">
-        <v>12500</v>
+        <v>38000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="Q75" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L76" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M76" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M77" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K78" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M78" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,24 +6041,24 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K79" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="L79" t="n">
-        <v>13000</v>
+        <v>80</v>
       </c>
       <c r="M79" t="n">
-        <v>12500</v>
+        <v>75</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Q79" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>16250</v>
+        <v>12500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="K81" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="L81" t="n">
-        <v>180</v>
+        <v>16500</v>
       </c>
       <c r="M81" t="n">
-        <v>165</v>
+        <v>16250</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="K82" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L82" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K83" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L83" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M83" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>900</v>
+        <v>32000</v>
       </c>
       <c r="K84" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="L84" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="M84" t="n">
-        <v>10500</v>
+        <v>175</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q84" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100000</v>
+        <v>900</v>
       </c>
       <c r="K85" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="L85" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>10500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L86" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K87" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M87" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K88" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K89" t="n">
+        <v>80</v>
+      </c>
+      <c r="L89" t="n">
         <v>100</v>
       </c>
-      <c r="L89" t="n">
-        <v>150</v>
-      </c>
       <c r="M89" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="K90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M90" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K91" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L91" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M91" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L92" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M92" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M93" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L94" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M94" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,12 +7147,84 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>200</v>
+      </c>
+      <c r="L95" t="n">
+        <v>230</v>
+      </c>
+      <c r="M95" t="n">
+        <v>215</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>60000</v>
+        <v>1100</v>
       </c>
       <c r="K62" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K63" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L63" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,25 +4956,25 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="K64" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L64" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M64" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K65" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L65" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M65" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K66" t="n">
+        <v>180</v>
+      </c>
+      <c r="L66" t="n">
         <v>200</v>
       </c>
-      <c r="L66" t="n">
-        <v>230</v>
-      </c>
       <c r="M66" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K67" t="n">
-        <v>41000</v>
+        <v>200</v>
       </c>
       <c r="L67" t="n">
-        <v>42000</v>
+        <v>230</v>
       </c>
       <c r="M67" t="n">
-        <v>41500</v>
+        <v>215</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="Q67" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
         <v>41000</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>44000</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
-        <v>180</v>
+        <v>41000</v>
       </c>
       <c r="L69" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M69" t="n">
-        <v>190</v>
+        <v>41500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>190</v>
+        <v>593</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K70" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L70" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M70" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K71" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L71" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M71" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>7500</v>
+        <v>120</v>
       </c>
       <c r="L72" t="n">
-        <v>8000</v>
+        <v>140</v>
       </c>
       <c r="M72" t="n">
-        <v>7750</v>
+        <v>130</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q72" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K73" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="L73" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="M73" t="n">
-        <v>140</v>
+        <v>7750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K74" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L74" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M74" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44504</v>
+        <v>44356</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,24 +5753,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1200</v>
+        <v>40000</v>
       </c>
       <c r="K75" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="L75" t="n">
-        <v>39000</v>
+        <v>100</v>
       </c>
       <c r="M75" t="n">
-        <v>38000</v>
+        <v>90</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K76" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="L76" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M76" t="n">
-        <v>12500</v>
+        <v>38000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="Q76" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L77" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M77" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M78" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M79" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="L80" t="n">
-        <v>13000</v>
+        <v>80</v>
       </c>
       <c r="M80" t="n">
-        <v>12500</v>
+        <v>75</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Q80" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L81" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M81" t="n">
-        <v>16250</v>
+        <v>12500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="K82" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="L82" t="n">
-        <v>180</v>
+        <v>16500</v>
       </c>
       <c r="M82" t="n">
-        <v>165</v>
+        <v>16250</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="K83" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L83" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M83" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K84" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L84" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M84" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>900</v>
+        <v>32000</v>
       </c>
       <c r="K85" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="L85" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>175</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q85" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>100000</v>
+        <v>900</v>
       </c>
       <c r="K86" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="L86" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>10500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K88" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M88" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K89" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K90" t="n">
+        <v>80</v>
+      </c>
+      <c r="L90" t="n">
         <v>100</v>
       </c>
-      <c r="L90" t="n">
-        <v>150</v>
-      </c>
       <c r="M90" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="K91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M91" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K92" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L92" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M92" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
         <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L93" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M93" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M94" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L95" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M95" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,12 +7219,84 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Choclero</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>200</v>
+      </c>
+      <c r="L96" t="n">
+        <v>230</v>
+      </c>
+      <c r="M96" t="n">
+        <v>215</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44497</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>120000</v>
       </c>
       <c r="K2" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="M2" t="n">
-        <v>39500</v>
+        <v>250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>564</v>
+        <v>250</v>
       </c>
       <c r="Q2" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44349</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44349</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="K4" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L4" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44503</v>
+        <v>44371</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K5" t="n">
-        <v>39000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>39500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>564</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44230</v>
+        <v>44503</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110000</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="L6" t="n">
-        <v>300</v>
+        <v>40000</v>
       </c>
       <c r="M6" t="n">
-        <v>275</v>
+        <v>39500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>275</v>
+        <v>564</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44490</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>41000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>325</v>
+        <v>586</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44321</v>
+        <v>44258</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K8" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44321</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="K9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44258</v>
+        <v>44343</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K10" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="L10" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="M10" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44475</v>
+        <v>44160</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K11" t="n">
-        <v>39000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>39500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>564</v>
+        <v>250</v>
       </c>
       <c r="Q11" t="n">
         <v>70</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44363</v>
+        <v>44476</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>8000</v>
+        <v>41000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="M12" t="n">
-        <v>9000</v>
+        <v>41500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>150</v>
+        <v>593</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L13" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K15" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="Q15" t="n">
         <v>60</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K16" t="n">
         <v>200</v>
       </c>
       <c r="L16" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M16" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44252</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>155</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44237</v>
+        <v>44314</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K18" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L18" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44237</v>
+        <v>44314</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="L19" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="M19" t="n">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44209</v>
+        <v>44230</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="K20" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M20" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44322</v>
+        <v>44266</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K21" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44322</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L22" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44489</v>
+        <v>44224</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>80000</v>
       </c>
       <c r="K23" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M23" t="n">
-        <v>41000</v>
+        <v>275</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>586</v>
+        <v>275</v>
       </c>
       <c r="Q23" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44300</v>
+        <v>44286</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="K24" t="n">
         <v>200</v>
       </c>
       <c r="L24" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44300</v>
+        <v>44286</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L25" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44167</v>
+        <v>44335</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2400</v>
+        <v>80000</v>
       </c>
       <c r="K26" t="n">
-        <v>15500</v>
+        <v>80</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>15750</v>
+        <v>90</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44224</v>
+        <v>44335</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,25 +2292,25 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K27" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,17 +2373,17 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
         <v>40000</v>
       </c>
       <c r="L28" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M28" t="n">
         <v>41000</v>
       </c>
-      <c r="M28" t="n">
-        <v>40500</v>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>$/malla 70 unidades</t>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="Q28" t="n">
         <v>70</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44259</v>
+        <v>44497</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>230</v>
+        <v>39000</v>
       </c>
       <c r="L29" t="n">
-        <v>250</v>
+        <v>40000</v>
       </c>
       <c r="M29" t="n">
-        <v>240</v>
+        <v>39500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>240</v>
+        <v>564</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44245</v>
+        <v>44482</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>32000</v>
+        <v>700</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L30" t="n">
-        <v>230</v>
+        <v>42000</v>
       </c>
       <c r="M30" t="n">
-        <v>215</v>
+        <v>41500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44273</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="K31" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L31" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M31" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44210</v>
+        <v>44328</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="K32" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44161</v>
+        <v>44328</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>60000</v>
       </c>
       <c r="K33" t="n">
-        <v>18500</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
-        <v>19000</v>
+        <v>70</v>
       </c>
       <c r="M33" t="n">
-        <v>18750</v>
+        <v>60</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="Q33" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44336</v>
+        <v>44175</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K34" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44336</v>
+        <v>44168</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,36 +2873,36 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K35" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M35" t="n">
+        <v>16250</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>232</v>
+      </c>
+      <c r="Q35" t="n">
         <v>70</v>
-      </c>
-      <c r="L35" t="n">
-        <v>70</v>
-      </c>
-      <c r="M35" t="n">
-        <v>70</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44266</v>
+        <v>44475</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
-        <v>120</v>
+        <v>39000</v>
       </c>
       <c r="L36" t="n">
-        <v>130</v>
+        <v>40000</v>
       </c>
       <c r="M36" t="n">
-        <v>125</v>
+        <v>39500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>125</v>
+        <v>564</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44266</v>
+        <v>44483</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
+        <v>600</v>
+      </c>
+      <c r="K37" t="n">
         <v>40000</v>
       </c>
-      <c r="K37" t="n">
-        <v>120</v>
-      </c>
       <c r="L37" t="n">
-        <v>130</v>
+        <v>41000</v>
       </c>
       <c r="M37" t="n">
-        <v>125</v>
+        <v>40500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>125</v>
+        <v>579</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44238</v>
+        <v>44357</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="K38" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="L38" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44357</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L39" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M39" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44377</v>
+        <v>44244</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>110000</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="M40" t="n">
-        <v>13500</v>
+        <v>215</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q40" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44335</v>
+        <v>44244</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K41" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44335</v>
+        <v>44252</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>50000</v>
       </c>
       <c r="K42" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L42" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44160</v>
+        <v>44252</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K43" t="n">
-        <v>17000</v>
+        <v>150</v>
       </c>
       <c r="L43" t="n">
-        <v>18000</v>
+        <v>160</v>
       </c>
       <c r="M43" t="n">
-        <v>17500</v>
+        <v>155</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="Q43" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44314</v>
+        <v>44167</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>40000</v>
+        <v>2400</v>
       </c>
       <c r="K44" t="n">
-        <v>80</v>
+        <v>15500</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="M44" t="n">
-        <v>90</v>
+        <v>15750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44314</v>
+        <v>44293</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="K45" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L45" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M45" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44350</v>
+        <v>44293</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>30000</v>
       </c>
       <c r="K46" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44350</v>
+        <v>44293</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="K47" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L47" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44272</v>
+        <v>44308</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="K48" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M48" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L49" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="M49" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>36000</v>
+        <v>50000</v>
       </c>
       <c r="K50" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L50" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M50" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44385</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>40000</v>
       </c>
       <c r="K51" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L51" t="n">
-        <v>12000</v>
+        <v>60</v>
       </c>
       <c r="M51" t="n">
-        <v>11750</v>
+        <v>55</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="Q51" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>26000</v>
+        <v>50000</v>
       </c>
       <c r="K52" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" t="n">
         <v>100</v>
       </c>
-      <c r="L52" t="n">
-        <v>150</v>
-      </c>
       <c r="M52" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44308</v>
+        <v>44321</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="K53" t="n">
         <v>50</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M55" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L56" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="M56" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,25 +4452,25 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>50000</v>
       </c>
       <c r="K57" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44371</v>
+        <v>44209</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="K58" t="n">
-        <v>12500</v>
+        <v>230</v>
       </c>
       <c r="L58" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M58" t="n">
-        <v>12750</v>
+        <v>240</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="Q58" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44490</v>
+        <v>44237</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1000</v>
+        <v>110000</v>
       </c>
       <c r="K59" t="n">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="L59" t="n">
-        <v>42000</v>
+        <v>350</v>
       </c>
       <c r="M59" t="n">
-        <v>41000</v>
+        <v>325</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>586</v>
+        <v>325</v>
       </c>
       <c r="Q59" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44357</v>
+        <v>44237</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="K60" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="L60" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,24 +4745,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="K61" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>7750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44510</v>
+        <v>44356</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1100</v>
+        <v>100000</v>
       </c>
       <c r="K62" t="n">
-        <v>28000</v>
+        <v>130</v>
       </c>
       <c r="L62" t="n">
-        <v>30000</v>
+        <v>150</v>
       </c>
       <c r="M62" t="n">
-        <v>29000</v>
+        <v>140</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>414</v>
+        <v>140</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,11 +4889,11 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K63" t="n">
         <v>80</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44329</v>
+        <v>44245</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,25 +4956,25 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K64" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L64" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M64" t="n">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44279</v>
+        <v>44245</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="K65" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="L65" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M65" t="n">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K66" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="L66" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M66" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44280</v>
+        <v>44406</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>30000</v>
+        <v>1100</v>
       </c>
       <c r="K67" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="L67" t="n">
-        <v>230</v>
+        <v>20000</v>
       </c>
       <c r="M67" t="n">
-        <v>215</v>
+        <v>19500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44476</v>
+        <v>44363</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K68" t="n">
-        <v>41000</v>
+        <v>8000</v>
       </c>
       <c r="L68" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="M68" t="n">
-        <v>41500</v>
+        <v>9000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>593</v>
+        <v>150</v>
       </c>
       <c r="Q68" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44482</v>
+        <v>44336</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K69" t="n">
-        <v>41000</v>
+        <v>80</v>
       </c>
       <c r="L69" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>41500</v>
+        <v>90</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>593</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44293</v>
+        <v>44336</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>44000</v>
+        <v>20000</v>
       </c>
       <c r="K70" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="L70" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M70" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44293</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K71" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L71" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M71" t="n">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K72" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L72" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M72" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44356</v>
+        <v>44301</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K73" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="L73" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>7750</v>
+        <v>90</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q73" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44356</v>
+        <v>44301</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="K74" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>150</v>
       </c>
       <c r="M74" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44356</v>
+        <v>44279</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K75" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K76" t="n">
-        <v>37000</v>
+        <v>180</v>
       </c>
       <c r="L76" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M76" t="n">
-        <v>38000</v>
+        <v>190</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="Q76" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K77" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="L77" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M77" t="n">
-        <v>12500</v>
+        <v>38000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="Q77" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K79" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L79" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M79" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>50000</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>70</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>75</v>
+        <v>12500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44370</v>
+        <v>44384</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K81" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L81" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M81" t="n">
-        <v>12500</v>
+        <v>210</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q81" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44168</v>
+        <v>44329</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K82" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="L82" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>16250</v>
+        <v>90</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44175</v>
+        <v>44329</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K83" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="L83" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M83" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K84" t="n">
         <v>200</v>
       </c>
       <c r="L84" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M84" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44286</v>
+        <v>44315</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="K85" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="M85" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44181</v>
+        <v>44315</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>900</v>
+        <v>50000</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L86" t="n">
-        <v>11000</v>
+        <v>90</v>
       </c>
       <c r="M86" t="n">
-        <v>10500</v>
+        <v>80</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="K87" t="n">
         <v>80</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44301</v>
+        <v>44510</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K89" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L89" t="n">
         <v>30000</v>
       </c>
-      <c r="K89" t="n">
-        <v>150</v>
-      </c>
-      <c r="L89" t="n">
-        <v>200</v>
-      </c>
       <c r="M89" t="n">
-        <v>175</v>
+        <v>29000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>175</v>
+        <v>414</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44301</v>
+        <v>44161</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>24000</v>
+        <v>800</v>
       </c>
       <c r="K90" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M90" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44301</v>
+        <v>44517</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>70000</v>
+        <v>1100</v>
       </c>
       <c r="K91" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="L91" t="n">
-        <v>150</v>
+        <v>22000</v>
       </c>
       <c r="M91" t="n">
-        <v>125</v>
+        <v>21000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44244</v>
+        <v>44238</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K92" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M92" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44244</v>
+        <v>44238</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7056,13 +7056,13 @@
         <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M93" t="n">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44307</v>
+        <v>44391</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>150</v>
+        <v>14000</v>
       </c>
       <c r="M94" t="n">
-        <v>125</v>
+        <v>13500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>50000</v>
+        <v>900</v>
       </c>
       <c r="K95" t="n">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="L95" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="M95" t="n">
-        <v>90</v>
+        <v>10500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K96" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M96" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,12 +7291,84 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>50000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>80</v>
+      </c>
+      <c r="L97" t="n">
+        <v>100</v>
+      </c>
+      <c r="M97" t="n">
+        <v>90</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44210</v>
+        <v>44524</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>80000</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>170</v>
+        <v>19000</v>
       </c>
       <c r="L71" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="M71" t="n">
-        <v>185</v>
+        <v>19500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K72" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L72" t="n">
         <v>200</v>
       </c>
       <c r="M72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K73" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M73" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K74" t="n">
+        <v>80</v>
+      </c>
+      <c r="L74" t="n">
         <v>100</v>
       </c>
-      <c r="L74" t="n">
-        <v>150</v>
-      </c>
       <c r="M74" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M75" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K76" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L76" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M76" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K77" t="n">
-        <v>37000</v>
+        <v>180</v>
       </c>
       <c r="L77" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M77" t="n">
-        <v>38000</v>
+        <v>190</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="Q77" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="n">
-        <v>100</v>
+        <v>37000</v>
       </c>
       <c r="L78" t="n">
-        <v>100</v>
+        <v>39000</v>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>38000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>100</v>
+        <v>543</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>25000</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="L80" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="M80" t="n">
-        <v>12500</v>
+        <v>70</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="Q80" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L81" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M81" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K82" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K84" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L84" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M84" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44315</v>
+        <v>44272</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M85" t="n">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K86" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M86" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,17 +6621,17 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K87" t="n">
+        <v>70</v>
+      </c>
+      <c r="L87" t="n">
+        <v>90</v>
+      </c>
+      <c r="M87" t="n">
         <v>80</v>
       </c>
-      <c r="L87" t="n">
-        <v>100</v>
-      </c>
-      <c r="M87" t="n">
-        <v>90</v>
-      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K88" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="K89" t="n">
-        <v>28000</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="M89" t="n">
-        <v>29000</v>
+        <v>60</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>414</v>
+        <v>60</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K90" t="n">
-        <v>18500</v>
+        <v>28000</v>
       </c>
       <c r="L90" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M90" t="n">
-        <v>18750</v>
+        <v>29000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="Q90" t="n">
         <v>70</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="L91" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M91" t="n">
-        <v>21000</v>
+        <v>18750</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Q91" t="n">
         <v>70</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>60000</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="L92" t="n">
-        <v>300</v>
+        <v>22000</v>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>21000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7006,7 +7006,7 @@
         <v>300</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L93" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M93" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L94" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M94" t="n">
-        <v>13500</v>
+        <v>225</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7150,7 +7150,7 @@
         <v>225</v>
       </c>
       <c r="Q94" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44181</v>
+        <v>44391</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,32 +7269,32 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>30000</v>
+        <v>900</v>
       </c>
       <c r="K96" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="L96" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M96" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
         <v>150</v>
       </c>
-      <c r="M96" t="n">
-        <v>125</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>125</v>
-      </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K97" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M97" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,12 +7363,84 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>50000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>80</v>
+      </c>
+      <c r="L98" t="n">
+        <v>100</v>
+      </c>
+      <c r="M98" t="n">
+        <v>90</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44475</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L2" t="n">
-        <v>300</v>
+        <v>40000</v>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>39500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44161</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>18500</v>
       </c>
       <c r="L3" t="n">
-        <v>220</v>
+        <v>19000</v>
       </c>
       <c r="M3" t="n">
-        <v>210</v>
+        <v>18750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L4" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M4" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44371</v>
+        <v>44391</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="Q5" t="n">
         <v>60</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K6" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L6" t="n">
         <v>39000</v>
       </c>
-      <c r="L6" t="n">
-        <v>40000</v>
-      </c>
       <c r="M6" t="n">
-        <v>39500</v>
+        <v>38000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="Q6" t="n">
         <v>70</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44490</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K7" t="n">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="L7" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>41000</v>
+        <v>175</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>586</v>
+        <v>175</v>
       </c>
       <c r="Q7" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44258</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K8" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="L8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44343</v>
+        <v>44279</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K10" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L10" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="M10" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44160</v>
+        <v>44279</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>180</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>190</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="Q11" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44476</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K12" t="n">
-        <v>41000</v>
+        <v>100</v>
       </c>
       <c r="L12" t="n">
-        <v>42000</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>41500</v>
+        <v>110</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>593</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44364</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>75</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44385</v>
+        <v>44356</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K14" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M14" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44370</v>
+        <v>44356</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1100</v>
+        <v>100000</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>130</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>140</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="Q15" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44280</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K16" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L16" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>210</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q17" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44314</v>
+        <v>44294</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="K18" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44314</v>
+        <v>44175</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="K19" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L19" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44230</v>
+        <v>44238</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
         <v>300</v>
       </c>
       <c r="M20" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44266</v>
+        <v>44238</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>30000</v>
       </c>
       <c r="K21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M21" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44364</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="n">
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="L22" t="n">
-        <v>130</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>125</v>
+        <v>9000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44224</v>
+        <v>44329</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="K23" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="L23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M23" t="n">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44286</v>
+        <v>44329</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="K24" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="M24" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44286</v>
+        <v>44266</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L25" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M25" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44335</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K26" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44335</v>
+        <v>44482</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,36 +2297,36 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50000</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
+        <v>41000</v>
       </c>
       <c r="L27" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q27" t="n">
         <v>70</v>
-      </c>
-      <c r="M27" t="n">
-        <v>60</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
         <v>40000</v>
       </c>
       <c r="L28" t="n">
-        <v>42000</v>
+        <v>41000</v>
       </c>
       <c r="M28" t="n">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="Q28" t="n">
         <v>70</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44497</v>
+        <v>44524</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2448,13 +2448,13 @@
         <v>600</v>
       </c>
       <c r="K29" t="n">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>39500</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>564</v>
+        <v>279</v>
       </c>
       <c r="Q29" t="n">
         <v>70</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44482</v>
+        <v>44385</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>41000</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>41500</v>
+        <v>11750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>593</v>
+        <v>196</v>
       </c>
       <c r="Q30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K31" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L31" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44328</v>
+        <v>44349</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44328</v>
+        <v>44349</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44175</v>
+        <v>44321</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K34" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44168</v>
+        <v>44321</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,24 +2873,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="K35" t="n">
-        <v>16000</v>
+        <v>50</v>
       </c>
       <c r="L35" t="n">
-        <v>16500</v>
+        <v>70</v>
       </c>
       <c r="M35" t="n">
-        <v>16250</v>
+        <v>60</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="Q35" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44475</v>
+        <v>44517</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>39000</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M36" t="n">
-        <v>39500</v>
+        <v>21000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>564</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>70</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44483</v>
+        <v>44328</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>100000</v>
       </c>
       <c r="K37" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L37" t="n">
-        <v>41000</v>
+        <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>40500</v>
+        <v>90</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>579</v>
+        <v>90</v>
       </c>
       <c r="Q37" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44357</v>
+        <v>44328</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="K38" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M38" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44357</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K39" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44244</v>
+        <v>44308</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110000</v>
+        <v>26000</v>
       </c>
       <c r="K40" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M40" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44244</v>
+        <v>44308</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K41" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M41" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3384,13 +3384,13 @@
         <v>50000</v>
       </c>
       <c r="K42" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L42" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M42" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3456,13 +3456,13 @@
         <v>40000</v>
       </c>
       <c r="K43" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L43" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="M43" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44167</v>
+        <v>44293</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2400</v>
+        <v>44000</v>
       </c>
       <c r="K44" t="n">
-        <v>15500</v>
+        <v>180</v>
       </c>
       <c r="L44" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="M44" t="n">
-        <v>15750</v>
+        <v>190</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="Q44" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K45" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L45" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M45" t="n">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K46" t="n">
+        <v>120</v>
+      </c>
+      <c r="L46" t="n">
         <v>140</v>
       </c>
-      <c r="L46" t="n">
-        <v>150</v>
-      </c>
       <c r="M46" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44293</v>
+        <v>44336</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>50000</v>
       </c>
       <c r="K47" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L47" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M47" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L48" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M48" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K49" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L49" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K50" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44510</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>40000</v>
+        <v>1100</v>
       </c>
       <c r="K51" t="n">
-        <v>50</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>60</v>
+        <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>29000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44321</v>
+        <v>44245</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K52" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44321</v>
+        <v>44245</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="K53" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="L53" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>70000</v>
+        <v>1200</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>120</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>110</v>
+        <v>9000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44349</v>
+        <v>44476</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,36 +4313,36 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q55" t="n">
         <v>70</v>
-      </c>
-      <c r="L55" t="n">
-        <v>80</v>
-      </c>
-      <c r="M55" t="n">
-        <v>75</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44300</v>
+        <v>44503</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L56" t="n">
         <v>40000</v>
       </c>
-      <c r="K56" t="n">
-        <v>200</v>
-      </c>
-      <c r="L56" t="n">
-        <v>220</v>
-      </c>
       <c r="M56" t="n">
-        <v>210</v>
+        <v>39500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>210</v>
+        <v>564</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44300</v>
+        <v>44371</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,29 +4452,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>12500</v>
       </c>
       <c r="L57" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="M57" t="n">
-        <v>125</v>
+        <v>12750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="K58" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L58" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M58" t="n">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K59" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L59" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M59" t="n">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44237</v>
+        <v>44406</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80000</v>
+        <v>1100</v>
       </c>
       <c r="K60" t="n">
-        <v>250</v>
+        <v>19000</v>
       </c>
       <c r="L60" t="n">
-        <v>280</v>
+        <v>20000</v>
       </c>
       <c r="M60" t="n">
-        <v>265</v>
+        <v>19500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="K61" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M61" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="Q61" t="n">
         <v>60</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K62" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L62" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M62" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44356</v>
+        <v>44210</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K63" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44245</v>
+        <v>44315</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="K64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="M64" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44245</v>
+        <v>44315</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L65" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M65" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44259</v>
+        <v>44370</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>32000</v>
+        <v>1100</v>
       </c>
       <c r="K66" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="L66" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M66" t="n">
-        <v>240</v>
+        <v>12500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44406</v>
+        <v>44168</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K67" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L67" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="M67" t="n">
-        <v>19500</v>
+        <v>16250</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="Q67" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44363</v>
+        <v>44322</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1200</v>
+        <v>60000</v>
       </c>
       <c r="K68" t="n">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="L68" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Q68" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44336</v>
+        <v>44322</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K69" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M69" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="K70" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44524</v>
+        <v>44357</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>90000</v>
       </c>
       <c r="K71" t="n">
-        <v>19000</v>
+        <v>130</v>
       </c>
       <c r="L71" t="n">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="M71" t="n">
-        <v>19500</v>
+        <v>140</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="Q71" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44210</v>
+        <v>44357</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M72" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44301</v>
+        <v>44489</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K73" t="n">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="L73" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M73" t="n">
-        <v>175</v>
+        <v>41000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>175</v>
+        <v>586</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44301</v>
+        <v>44244</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>24000</v>
+        <v>110000</v>
       </c>
       <c r="K74" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L74" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M74" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44301</v>
+        <v>44244</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L75" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M75" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44279</v>
+        <v>44259</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5832,13 +5832,13 @@
         <v>32000</v>
       </c>
       <c r="K76" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L76" t="n">
         <v>250</v>
       </c>
       <c r="M76" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44279</v>
+        <v>44377</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K77" t="n">
-        <v>180</v>
+        <v>13000</v>
       </c>
       <c r="L77" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M77" t="n">
-        <v>190</v>
+        <v>13500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44504</v>
+        <v>44280</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="K78" t="n">
-        <v>37000</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>39000</v>
+        <v>230</v>
       </c>
       <c r="M78" t="n">
-        <v>38000</v>
+        <v>215</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>543</v>
+        <v>215</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L79" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="K80" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44384</v>
+        <v>44497</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="L81" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M81" t="n">
-        <v>12500</v>
+        <v>39500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>208</v>
+        <v>564</v>
       </c>
       <c r="Q81" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44384</v>
+        <v>44286</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="K82" t="n">
         <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M82" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44329</v>
+        <v>44286</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44329</v>
+        <v>44307</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K84" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M84" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44272</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K85" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44315</v>
+        <v>44230</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>44000</v>
+        <v>110000</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L86" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M86" t="n">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44315</v>
+        <v>44160</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,32 +6621,32 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K87" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L87" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M87" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q87" t="n">
         <v>70</v>
-      </c>
-      <c r="L87" t="n">
-        <v>90</v>
-      </c>
-      <c r="M87" t="n">
-        <v>80</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44322</v>
+        <v>44273</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="K88" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>30000</v>
       </c>
       <c r="K89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44510</v>
+        <v>44350</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,24 +6833,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1100</v>
+        <v>25000</v>
       </c>
       <c r="K90" t="n">
-        <v>28000</v>
+        <v>70</v>
       </c>
       <c r="L90" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="M90" t="n">
-        <v>29000</v>
+        <v>70</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>414</v>
+        <v>70</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K91" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L91" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M91" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q91" t="n">
         <v>70</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44517</v>
+        <v>44181</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K92" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M92" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q92" t="n">
         <v>70</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44238</v>
+        <v>44335</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K93" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L93" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44238</v>
+        <v>44335</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L94" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M94" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44391</v>
+        <v>44314</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K95" t="n">
-        <v>13000</v>
+        <v>80</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>100</v>
       </c>
       <c r="M95" t="n">
-        <v>13500</v>
+        <v>90</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q95" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44181</v>
+        <v>44314</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>900</v>
+        <v>100000</v>
       </c>
       <c r="K96" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L96" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="M96" t="n">
-        <v>10500</v>
+        <v>75</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q96" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44307</v>
+        <v>44224</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L97" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M97" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44307</v>
+        <v>44490</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L98" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M98" t="n">
-        <v>90</v>
+        <v>41000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="K2" t="n">
-        <v>39000</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
-        <v>40000</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>39500</v>
+        <v>90</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>564</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44161</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K3" t="n">
-        <v>18500</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>19000</v>
+        <v>70</v>
       </c>
       <c r="M3" t="n">
-        <v>18750</v>
+        <v>60</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44209</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100000</v>
+        <v>1200</v>
       </c>
       <c r="K4" t="n">
-        <v>230</v>
+        <v>37000</v>
       </c>
       <c r="L4" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="M4" t="n">
-        <v>240</v>
+        <v>38000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>240</v>
+        <v>543</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44391</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>150</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>125</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44504</v>
+        <v>44307</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K6" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="L6" t="n">
-        <v>39000</v>
+        <v>100</v>
       </c>
       <c r="M6" t="n">
-        <v>38000</v>
+        <v>90</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44279</v>
+        <v>44230</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>32000</v>
+        <v>110000</v>
       </c>
       <c r="K10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M10" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44279</v>
+        <v>44314</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K11" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="L11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L12" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M12" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44503</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1289,36 +1289,36 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>564</v>
+      </c>
+      <c r="Q13" t="n">
         <v>70</v>
-      </c>
-      <c r="L13" t="n">
-        <v>80</v>
-      </c>
-      <c r="M13" t="n">
-        <v>75</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44356</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="Q14" t="n">
         <v>60</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="K15" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="L15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K16" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L17" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M17" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44294</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>36000</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>120</v>
+        <v>39000</v>
       </c>
       <c r="L18" t="n">
-        <v>140</v>
+        <v>40000</v>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>39500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>130</v>
+        <v>564</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44175</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="K19" t="n">
-        <v>150</v>
+        <v>7500</v>
       </c>
       <c r="L19" t="n">
-        <v>180</v>
+        <v>8000</v>
       </c>
       <c r="M19" t="n">
-        <v>165</v>
+        <v>7750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44238</v>
+        <v>44356</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="L20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44238</v>
+        <v>44356</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L21" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44364</v>
+        <v>44244</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>110000</v>
       </c>
       <c r="K22" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q22" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44329</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L23" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44266</v>
+        <v>44336</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K25" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L25" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M25" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44343</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
         <v>120</v>
       </c>
-      <c r="L26" t="n">
-        <v>130</v>
-      </c>
       <c r="M26" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44482</v>
+        <v>44343</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,24 +2297,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K27" t="n">
-        <v>41000</v>
+        <v>70</v>
       </c>
       <c r="L27" t="n">
-        <v>42000</v>
+        <v>80</v>
       </c>
       <c r="M27" t="n">
-        <v>41500</v>
+        <v>75</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>593</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44483</v>
+        <v>44245</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="K28" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L28" t="n">
-        <v>41000</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>40500</v>
+        <v>215</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>579</v>
+        <v>215</v>
       </c>
       <c r="Q28" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>600</v>
+        <v>28000</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>160</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>180</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>170</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="Q29" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44385</v>
+        <v>44524</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="Q30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44363</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K31" t="n">
-        <v>230</v>
+        <v>8000</v>
       </c>
       <c r="L31" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>240</v>
+        <v>9000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44349</v>
+        <v>44406</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>70000</v>
+        <v>1100</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>110</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44349</v>
+        <v>44517</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,36 +2729,36 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K33" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21000</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q33" t="n">
         <v>70</v>
-      </c>
-      <c r="L33" t="n">
-        <v>80</v>
-      </c>
-      <c r="M33" t="n">
-        <v>75</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44321</v>
+        <v>44300</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K34" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44321</v>
+        <v>44300</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44517</v>
+        <v>44384</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="Q36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44328</v>
+        <v>44384</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K37" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K38" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L38" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44294</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L39" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="M39" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>26000</v>
+        <v>44000</v>
       </c>
       <c r="K40" t="n">
         <v>100</v>
       </c>
       <c r="L40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M40" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K41" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="K42" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>41000</v>
       </c>
       <c r="M42" t="n">
-        <v>90</v>
+        <v>40500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>90</v>
+        <v>579</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44308</v>
+        <v>44237</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,25 +3444,25 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K43" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L43" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44293</v>
+        <v>44237</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="K44" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L44" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M44" t="n">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44293</v>
+        <v>44252</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K45" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M45" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44293</v>
+        <v>44252</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L46" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M46" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K47" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K48" t="n">
         <v>70</v>
       </c>
       <c r="L48" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44252</v>
+        <v>44181</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50000</v>
+        <v>900</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>220</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>210</v>
+        <v>10500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44252</v>
+        <v>44482</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
-        <v>150</v>
+        <v>41000</v>
       </c>
       <c r="L50" t="n">
-        <v>160</v>
+        <v>42000</v>
       </c>
       <c r="M50" t="n">
-        <v>155</v>
+        <v>41500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>155</v>
+        <v>593</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44510</v>
+        <v>44273</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="K51" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="L51" t="n">
-        <v>30000</v>
+        <v>230</v>
       </c>
       <c r="M51" t="n">
-        <v>29000</v>
+        <v>215</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>414</v>
+        <v>215</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44245</v>
+        <v>44364</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K52" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44245</v>
+        <v>44280</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="K53" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M53" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44363</v>
+        <v>44209</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>230</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="M54" t="n">
-        <v>9000</v>
+        <v>240</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="Q54" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44476</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
-        <v>41000</v>
+        <v>120</v>
       </c>
       <c r="L55" t="n">
-        <v>42000</v>
+        <v>130</v>
       </c>
       <c r="M55" t="n">
-        <v>41500</v>
+        <v>125</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>593</v>
+        <v>125</v>
       </c>
       <c r="Q55" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44503</v>
+        <v>44266</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K56" t="n">
-        <v>39000</v>
+        <v>120</v>
       </c>
       <c r="L56" t="n">
-        <v>40000</v>
+        <v>130</v>
       </c>
       <c r="M56" t="n">
-        <v>39500</v>
+        <v>125</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>564</v>
+        <v>125</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L57" t="n">
         <v>13000</v>
       </c>
       <c r="M57" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q57" t="n">
         <v>60</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44237</v>
+        <v>44475</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>110000</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>300</v>
+        <v>39000</v>
       </c>
       <c r="L58" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="M58" t="n">
-        <v>325</v>
+        <v>39500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>325</v>
+        <v>564</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44237</v>
+        <v>44489</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
-        <v>250</v>
+        <v>40000</v>
       </c>
       <c r="L59" t="n">
-        <v>280</v>
+        <v>42000</v>
       </c>
       <c r="M59" t="n">
-        <v>265</v>
+        <v>41000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>265</v>
+        <v>586</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44406</v>
+        <v>44210</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1100</v>
+        <v>80000</v>
       </c>
       <c r="K60" t="n">
-        <v>19000</v>
+        <v>170</v>
       </c>
       <c r="L60" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="M60" t="n">
-        <v>19500</v>
+        <v>185</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>325</v>
+        <v>185</v>
       </c>
       <c r="Q60" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>41000</v>
       </c>
       <c r="L61" t="n">
-        <v>13000</v>
+        <v>42000</v>
       </c>
       <c r="M61" t="n">
-        <v>12500</v>
+        <v>41500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>208</v>
+        <v>593</v>
       </c>
       <c r="Q61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44384</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K62" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="L62" t="n">
-        <v>220</v>
+        <v>16500</v>
       </c>
       <c r="M62" t="n">
-        <v>210</v>
+        <v>16250</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80000</v>
+        <v>2400</v>
       </c>
       <c r="K63" t="n">
-        <v>170</v>
+        <v>15500</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="M63" t="n">
-        <v>185</v>
+        <v>15750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44315</v>
+        <v>44161</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>44000</v>
+        <v>800</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>18500</v>
       </c>
       <c r="L64" t="n">
-        <v>120</v>
+        <v>19000</v>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>18750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44315</v>
+        <v>44328</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,17 +5037,17 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K65" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L65" t="n">
+        <v>100</v>
+      </c>
+      <c r="M65" t="n">
         <v>90</v>
       </c>
-      <c r="M65" t="n">
-        <v>80</v>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44370</v>
+        <v>44328</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,24 +5105,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K66" t="n">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="M66" t="n">
-        <v>12500</v>
+        <v>60</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="Q66" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K67" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L67" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="M67" t="n">
-        <v>16250</v>
+        <v>17500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q67" t="n">
         <v>70</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44322</v>
+        <v>44231</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="K68" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M68" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44322</v>
+        <v>44490</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,36 +5321,36 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="n">
-        <v>50</v>
+        <v>40000</v>
       </c>
       <c r="L69" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>41000</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>586</v>
+      </c>
+      <c r="Q69" t="n">
         <v>70</v>
-      </c>
-      <c r="M69" t="n">
-        <v>60</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44231</v>
+        <v>44259</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>120000</v>
+        <v>32000</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L70" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44357</v>
+        <v>44286</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>90000</v>
+        <v>36000</v>
       </c>
       <c r="K71" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M71" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44357</v>
+        <v>44286</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K72" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M72" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44489</v>
+        <v>44279</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K73" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M73" t="n">
-        <v>41000</v>
+        <v>225</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q73" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44244</v>
+        <v>44279</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K74" t="n">
+        <v>180</v>
+      </c>
+      <c r="L74" t="n">
         <v>200</v>
       </c>
-      <c r="L74" t="n">
-        <v>230</v>
-      </c>
       <c r="M74" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44244</v>
+        <v>44322</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K75" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L75" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M75" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44259</v>
+        <v>44322</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K76" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="L76" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M76" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44377</v>
+        <v>44391</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
         <v>13000</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44280</v>
+        <v>44510</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L78" t="n">
         <v>30000</v>
       </c>
-      <c r="K78" t="n">
-        <v>200</v>
-      </c>
-      <c r="L78" t="n">
-        <v>230</v>
-      </c>
       <c r="M78" t="n">
-        <v>215</v>
+        <v>29000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K79" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L79" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M80" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44497</v>
+        <v>44385</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>39000</v>
+        <v>11500</v>
       </c>
       <c r="L81" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M81" t="n">
-        <v>39500</v>
+        <v>11750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>564</v>
+        <v>196</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44286</v>
+        <v>44308</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="K82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44286</v>
+        <v>44308</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="K83" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M83" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
+        <v>80</v>
+      </c>
+      <c r="L84" t="n">
         <v>100</v>
       </c>
-      <c r="L84" t="n">
-        <v>150</v>
-      </c>
       <c r="M84" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K85" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L85" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44230</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>110000</v>
+        <v>30000</v>
       </c>
       <c r="K86" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44160</v>
+        <v>44350</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,24 +6617,24 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1100</v>
+        <v>25000</v>
       </c>
       <c r="K87" t="n">
-        <v>17000</v>
+        <v>70</v>
       </c>
       <c r="L87" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M87" t="n">
-        <v>17500</v>
+        <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q87" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44273</v>
+        <v>44238</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="K88" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L88" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M88" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44350</v>
+        <v>44238</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>30000</v>
       </c>
       <c r="K89" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44350</v>
+        <v>44175</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="K90" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L90" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M90" t="n">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44167</v>
+        <v>44258</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K91" t="n">
-        <v>15500</v>
+        <v>230</v>
       </c>
       <c r="L91" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M91" t="n">
-        <v>15750</v>
+        <v>240</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q91" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44181</v>
+        <v>44224</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>900</v>
+        <v>80000</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>275</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44335</v>
+        <v>44329</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="K93" t="n">
         <v>80</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44335</v>
+        <v>44329</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L94" t="n">
         <v>70</v>
       </c>
       <c r="M94" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="K95" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M95" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K96" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L96" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44224</v>
+        <v>44371</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>80000</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L97" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M97" t="n">
-        <v>275</v>
+        <v>12750</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K98" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L98" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M98" t="n">
-        <v>41000</v>
+        <v>225</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44314</v>
+        <v>44545</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K11" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44503</v>
+        <v>44314</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="K13" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L13" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="M13" t="n">
-        <v>39500</v>
+        <v>75</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>564</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44503</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,17 +1368,17 @@
         <v>1000</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>39500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44293</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>44000</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>180</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>190</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K16" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M16" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K17" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44497</v>
+        <v>44293</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K18" t="n">
-        <v>39000</v>
+        <v>120</v>
       </c>
       <c r="L18" t="n">
-        <v>40000</v>
+        <v>140</v>
       </c>
       <c r="M18" t="n">
-        <v>39500</v>
+        <v>130</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>564</v>
+        <v>130</v>
       </c>
       <c r="Q18" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44497</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>7500</v>
+        <v>39000</v>
       </c>
       <c r="L19" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="M19" t="n">
-        <v>7750</v>
+        <v>39500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>129</v>
+        <v>564</v>
       </c>
       <c r="Q19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K20" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="L20" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="M20" t="n">
-        <v>140</v>
+        <v>7750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K21" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44244</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L22" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M22" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K23" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L23" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44336</v>
+        <v>44244</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L25" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L26" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M26" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K27" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M27" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K28" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L28" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="M28" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K29" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L29" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>28000</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>160</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>180</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>170</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="Q30" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44363</v>
+        <v>44524</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M31" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="Q31" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="n">
         <v>60</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44517</v>
+        <v>44406</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2736,17 +2736,17 @@
         <v>1100</v>
       </c>
       <c r="K33" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L33" t="n">
         <v>20000</v>
       </c>
-      <c r="L33" t="n">
-        <v>22000</v>
-      </c>
       <c r="M33" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q33" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>40000</v>
+        <v>1100</v>
       </c>
       <c r="K34" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="L34" t="n">
-        <v>220</v>
+        <v>22000</v>
       </c>
       <c r="M34" t="n">
-        <v>210</v>
+        <v>21000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M35" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q36" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K38" t="n">
         <v>200</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K39" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M39" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L40" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M40" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K41" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44483</v>
+        <v>44315</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K42" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="L42" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="M42" t="n">
-        <v>40500</v>
+        <v>80</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Q42" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44237</v>
+        <v>44483</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
-        <v>300</v>
+        <v>40000</v>
       </c>
       <c r="L43" t="n">
-        <v>350</v>
+        <v>41000</v>
       </c>
       <c r="M43" t="n">
-        <v>325</v>
+        <v>40500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>325</v>
+        <v>579</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L44" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L45" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M45" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K46" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L46" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M46" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L47" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M47" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K48" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M48" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,24 +3881,24 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>900</v>
+        <v>50000</v>
       </c>
       <c r="K49" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L49" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="M49" t="n">
-        <v>10500</v>
+        <v>75</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q49" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K50" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>42000</v>
+        <v>11000</v>
       </c>
       <c r="M50" t="n">
-        <v>41500</v>
+        <v>10500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>593</v>
+        <v>150</v>
       </c>
       <c r="Q50" t="n">
         <v>70</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L51" t="n">
-        <v>230</v>
+        <v>42000</v>
       </c>
       <c r="M51" t="n">
-        <v>215</v>
+        <v>41500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1000</v>
+        <v>24000</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M52" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q52" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44280</v>
+        <v>44364</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K54" t="n">
+        <v>200</v>
+      </c>
+      <c r="L54" t="n">
         <v>230</v>
       </c>
-      <c r="L54" t="n">
-        <v>250</v>
-      </c>
       <c r="M54" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K55" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L55" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M55" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K56" t="n">
         <v>120</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44370</v>
+        <v>44266</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K57" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="L57" t="n">
-        <v>13000</v>
+        <v>130</v>
       </c>
       <c r="M57" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q57" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>39500</v>
+        <v>12500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="Q58" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L59" t="n">
         <v>40000</v>
       </c>
-      <c r="L59" t="n">
-        <v>42000</v>
-      </c>
       <c r="M59" t="n">
-        <v>41000</v>
+        <v>39500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="Q59" t="n">
         <v>70</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="L60" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M60" t="n">
-        <v>185</v>
+        <v>41000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>185</v>
+        <v>586</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K61" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="L61" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M61" t="n">
-        <v>41500</v>
+        <v>185</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K62" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L62" t="n">
-        <v>16500</v>
+        <v>42000</v>
       </c>
       <c r="M62" t="n">
-        <v>16250</v>
+        <v>41500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="Q62" t="n">
         <v>70</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K63" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="L63" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M63" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q63" t="n">
         <v>70</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K64" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L64" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M64" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q64" t="n">
         <v>70</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L65" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K66" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,24 +5177,24 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K67" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M67" t="n">
-        <v>17500</v>
+        <v>60</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q67" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K68" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L68" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="M68" t="n">
-        <v>250</v>
+        <v>17500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5278,7 +5278,7 @@
         <v>250</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="K69" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L69" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M69" t="n">
-        <v>41000</v>
+        <v>250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K70" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L70" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M70" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L71" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M71" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M72" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5616,13 +5616,13 @@
         <v>32000</v>
       </c>
       <c r="K73" t="n">
+        <v>150</v>
+      </c>
+      <c r="L73" t="n">
         <v>200</v>
       </c>
-      <c r="L73" t="n">
-        <v>250</v>
-      </c>
       <c r="M73" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K74" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L74" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M74" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K75" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K76" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L76" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,24 +5897,24 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K77" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M77" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q77" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K80" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K81" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M81" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q81" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K82" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L82" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M82" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K84" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L84" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K88" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L88" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K89" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L89" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M89" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K90" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L90" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M90" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K91" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L91" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M91" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
+        <v>230</v>
+      </c>
+      <c r="L92" t="n">
         <v>250</v>
       </c>
-      <c r="L92" t="n">
-        <v>300</v>
-      </c>
       <c r="M92" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K93" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L93" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M93" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K94" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L94" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M94" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K95" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L95" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M95" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K96" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L96" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M96" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,24 +7337,24 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K97" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L97" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M97" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q97" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,58 +7389,130 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L98" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M98" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>60</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
         <v>30000</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K99" t="n">
         <v>200</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L99" t="n">
         <v>250</v>
       </c>
-      <c r="M98" t="n">
+      <c r="M99" t="n">
         <v>225</v>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>225</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q99" t="n">
         <v>1</v>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>325</v>
+        <v>13000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K45" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L45" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M45" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L46" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M46" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K47" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M47" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L48" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M48" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K49" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M49" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,24 +3953,24 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>900</v>
+        <v>50000</v>
       </c>
       <c r="K50" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L50" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="M50" t="n">
-        <v>10500</v>
+        <v>75</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q50" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K51" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>42000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>41500</v>
+        <v>10500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>593</v>
+        <v>150</v>
       </c>
       <c r="Q51" t="n">
         <v>70</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K52" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L52" t="n">
-        <v>230</v>
+        <v>42000</v>
       </c>
       <c r="M52" t="n">
-        <v>215</v>
+        <v>41500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1000</v>
+        <v>24000</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M53" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q53" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44280</v>
+        <v>44364</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
+        <v>200</v>
+      </c>
+      <c r="L55" t="n">
         <v>230</v>
       </c>
-      <c r="L55" t="n">
-        <v>250</v>
-      </c>
       <c r="M55" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K56" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L56" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M56" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K57" t="n">
         <v>120</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44370</v>
+        <v>44266</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K58" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="L58" t="n">
-        <v>13000</v>
+        <v>130</v>
       </c>
       <c r="M58" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q58" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M59" t="n">
-        <v>39500</v>
+        <v>12500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="Q59" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L60" t="n">
         <v>40000</v>
       </c>
-      <c r="L60" t="n">
-        <v>42000</v>
-      </c>
       <c r="M60" t="n">
-        <v>41000</v>
+        <v>39500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="Q60" t="n">
         <v>70</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K61" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="L61" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M61" t="n">
-        <v>185</v>
+        <v>41000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>185</v>
+        <v>586</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K62" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="L62" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M62" t="n">
-        <v>41500</v>
+        <v>185</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K63" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L63" t="n">
-        <v>16500</v>
+        <v>42000</v>
       </c>
       <c r="M63" t="n">
-        <v>16250</v>
+        <v>41500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="Q63" t="n">
         <v>70</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K64" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="L64" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M64" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q64" t="n">
         <v>70</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K65" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L65" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M65" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q65" t="n">
         <v>70</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K66" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L66" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K67" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,24 +5249,24 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K68" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M68" t="n">
-        <v>17500</v>
+        <v>60</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q68" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K69" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L69" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>17500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5350,7 +5350,7 @@
         <v>250</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="K70" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M70" t="n">
-        <v>41000</v>
+        <v>250</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q70" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L71" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M71" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L72" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M72" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K73" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M73" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5688,13 +5688,13 @@
         <v>32000</v>
       </c>
       <c r="K74" t="n">
+        <v>150</v>
+      </c>
+      <c r="L74" t="n">
         <v>200</v>
       </c>
-      <c r="L74" t="n">
-        <v>250</v>
-      </c>
       <c r="M74" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K75" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M75" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K76" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M76" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L77" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,24 +5969,24 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K78" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M78" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q78" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L79" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M79" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q79" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K82" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M82" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q82" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K83" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L83" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M84" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K85" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L85" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L86" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K87" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K88" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K89" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L89" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M89" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L90" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M90" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K91" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L91" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M91" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K92" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L92" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M92" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
+        <v>230</v>
+      </c>
+      <c r="L93" t="n">
         <v>250</v>
       </c>
-      <c r="L93" t="n">
-        <v>300</v>
-      </c>
       <c r="M93" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K94" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L94" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M94" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K95" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L95" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M95" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K96" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L96" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M96" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K97" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M97" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,24 +7409,24 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K98" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L98" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M98" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q98" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,58 +7461,130 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L99" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>60</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E99" t="n">
-        <v>4</v>
-      </c>
-      <c r="F99" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
         <v>30000</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K100" t="n">
         <v>200</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L100" t="n">
         <v>250</v>
       </c>
-      <c r="M99" t="n">
+      <c r="M100" t="n">
         <v>225</v>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>225</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q100" t="n">
         <v>1</v>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>10750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="Q11" t="n">
         <v>70</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44314</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44503</v>
+        <v>44314</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="K14" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L14" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="M14" t="n">
-        <v>39500</v>
+        <v>75</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>564</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1440,17 +1440,17 @@
         <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>39500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44293</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>44000</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>180</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>190</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K17" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K18" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44497</v>
+        <v>44293</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K19" t="n">
-        <v>39000</v>
+        <v>120</v>
       </c>
       <c r="L19" t="n">
-        <v>40000</v>
+        <v>140</v>
       </c>
       <c r="M19" t="n">
-        <v>39500</v>
+        <v>130</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>564</v>
+        <v>130</v>
       </c>
       <c r="Q19" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44356</v>
+        <v>44497</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K20" t="n">
-        <v>7500</v>
+        <v>39000</v>
       </c>
       <c r="L20" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="M20" t="n">
-        <v>7750</v>
+        <v>39500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>129</v>
+        <v>564</v>
       </c>
       <c r="Q20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K21" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="L21" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>7750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K22" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44356</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K23" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L23" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M23" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K24" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L24" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44336</v>
+        <v>44244</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K25" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K26" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L26" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L27" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K28" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M28" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K29" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L29" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="M29" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K30" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L30" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>28000</v>
       </c>
       <c r="K31" t="n">
-        <v>19000</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>180</v>
       </c>
       <c r="M31" t="n">
-        <v>19500</v>
+        <v>170</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="Q31" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44363</v>
+        <v>44524</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="Q32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="Q33" t="n">
         <v>60</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44517</v>
+        <v>44406</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2808,17 +2808,17 @@
         <v>1100</v>
       </c>
       <c r="K34" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L34" t="n">
         <v>20000</v>
       </c>
-      <c r="L34" t="n">
-        <v>22000</v>
-      </c>
       <c r="M34" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>40000</v>
+        <v>1100</v>
       </c>
       <c r="K35" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>220</v>
+        <v>22000</v>
       </c>
       <c r="M35" t="n">
-        <v>210</v>
+        <v>21000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L36" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M36" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K37" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M37" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q37" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K38" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K39" t="n">
         <v>200</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K40" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L40" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M40" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="K41" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L41" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M41" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K42" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44483</v>
+        <v>44315</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K43" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="L43" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="M43" t="n">
-        <v>40500</v>
+        <v>80</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Q43" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44546</v>
+        <v>44483</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>41000</v>
       </c>
       <c r="M44" t="n">
-        <v>13000</v>
+        <v>40500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>186</v>
+        <v>579</v>
       </c>
       <c r="Q44" t="n">
         <v>70</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>325</v>
+        <v>13000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L46" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L47" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M47" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K48" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L48" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M48" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L49" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M49" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K50" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M50" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>900</v>
+        <v>50000</v>
       </c>
       <c r="K51" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L51" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="M51" t="n">
-        <v>10500</v>
+        <v>75</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K52" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="L52" t="n">
-        <v>42000</v>
+        <v>11000</v>
       </c>
       <c r="M52" t="n">
-        <v>41500</v>
+        <v>10500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>593</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="n">
         <v>70</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L53" t="n">
-        <v>230</v>
+        <v>42000</v>
       </c>
       <c r="M53" t="n">
-        <v>215</v>
+        <v>41500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>24000</v>
       </c>
       <c r="K54" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M54" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q54" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44280</v>
+        <v>44364</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K55" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K56" t="n">
+        <v>200</v>
+      </c>
+      <c r="L56" t="n">
         <v>230</v>
       </c>
-      <c r="L56" t="n">
-        <v>250</v>
-      </c>
       <c r="M56" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K57" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L57" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M57" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K58" t="n">
         <v>120</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44370</v>
+        <v>44266</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>130</v>
       </c>
       <c r="M59" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q59" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K60" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L60" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M60" t="n">
-        <v>39500</v>
+        <v>12500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="Q60" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K61" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L61" t="n">
         <v>40000</v>
       </c>
-      <c r="L61" t="n">
-        <v>42000</v>
-      </c>
       <c r="M61" t="n">
-        <v>41000</v>
+        <v>39500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="Q61" t="n">
         <v>70</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="L62" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M62" t="n">
-        <v>185</v>
+        <v>41000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>185</v>
+        <v>586</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K63" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="L63" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>41500</v>
+        <v>185</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L64" t="n">
-        <v>16500</v>
+        <v>42000</v>
       </c>
       <c r="M64" t="n">
-        <v>16250</v>
+        <v>41500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="Q64" t="n">
         <v>70</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K65" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="L65" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M65" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q65" t="n">
         <v>70</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K66" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L66" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M66" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q66" t="n">
         <v>70</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L67" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M67" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K68" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L68" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,24 +5321,24 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K69" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="L69" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M69" t="n">
-        <v>17500</v>
+        <v>60</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L70" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>17500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5422,7 +5422,7 @@
         <v>250</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="K71" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M71" t="n">
-        <v>41000</v>
+        <v>250</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q71" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K72" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L72" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M72" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K73" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L73" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M73" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K74" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L74" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M74" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5760,13 +5760,13 @@
         <v>32000</v>
       </c>
       <c r="K75" t="n">
+        <v>150</v>
+      </c>
+      <c r="L75" t="n">
         <v>200</v>
       </c>
-      <c r="L75" t="n">
-        <v>250</v>
-      </c>
       <c r="M75" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K76" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L76" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M76" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K77" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M77" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K78" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L78" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,24 +6041,24 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K79" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M79" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q79" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K80" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L80" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M80" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L82" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,24 +6329,24 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K83" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M83" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q83" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K84" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L84" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M84" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K86" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L87" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K88" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K90" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L90" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K91" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M91" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L92" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M92" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K93" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L93" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M93" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
+        <v>230</v>
+      </c>
+      <c r="L94" t="n">
         <v>250</v>
       </c>
-      <c r="L94" t="n">
-        <v>300</v>
-      </c>
       <c r="M94" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K95" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L95" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M95" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K96" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L96" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K97" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L97" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M97" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K98" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L98" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M98" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7481,24 +7481,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K99" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,58 +7533,130 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L100" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>60</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E100" t="n">
-        <v>4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
         <v>30000</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K101" t="n">
         <v>200</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L101" t="n">
         <v>250</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M101" t="n">
         <v>225</v>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
         <v>225</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q101" t="n">
         <v>1</v>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>15750</v>
+        <v>14000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q66" t="n">
         <v>70</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K67" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L67" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M67" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q67" t="n">
         <v>70</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M68" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K69" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L69" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,24 +5393,24 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K70" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M70" t="n">
-        <v>17500</v>
+        <v>60</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q70" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L71" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="M71" t="n">
-        <v>250</v>
+        <v>17500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5494,7 +5494,7 @@
         <v>250</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="K72" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M72" t="n">
-        <v>41000</v>
+        <v>250</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q72" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K73" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L73" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M73" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K74" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L74" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M74" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K75" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M75" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,13 +5832,13 @@
         <v>32000</v>
       </c>
       <c r="K76" t="n">
+        <v>150</v>
+      </c>
+      <c r="L76" t="n">
         <v>200</v>
       </c>
-      <c r="L76" t="n">
-        <v>250</v>
-      </c>
       <c r="M76" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K77" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M77" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K78" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K79" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K80" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M80" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q80" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M81" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K82" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L82" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,24 +6401,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K84" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L84" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M84" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q84" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K85" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L85" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K87" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M87" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K88" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K89" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K91" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L91" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K92" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M92" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M93" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K94" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L94" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M94" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K95" t="n">
+        <v>230</v>
+      </c>
+      <c r="L95" t="n">
         <v>250</v>
       </c>
-      <c r="L95" t="n">
-        <v>300</v>
-      </c>
       <c r="M95" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K96" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L96" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M96" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K97" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L97" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M97" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K98" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L98" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M98" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K99" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L99" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M99" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,24 +7553,24 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K100" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L100" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M100" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q100" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,58 +7605,130 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L101" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M101" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>60</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E101" t="n">
-        <v>4</v>
-      </c>
-      <c r="F101" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
         <v>30000</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K102" t="n">
         <v>200</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L102" t="n">
         <v>250</v>
       </c>
-      <c r="M101" t="n">
+      <c r="M102" t="n">
         <v>225</v>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
         <v>225</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q102" t="n">
         <v>1</v>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="R102" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>36000</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L75" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M75" t="n">
-        <v>215</v>
+        <v>11500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K76" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L76" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M76" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5904,13 +5904,13 @@
         <v>32000</v>
       </c>
       <c r="K77" t="n">
+        <v>150</v>
+      </c>
+      <c r="L77" t="n">
         <v>200</v>
       </c>
-      <c r="L77" t="n">
-        <v>250</v>
-      </c>
       <c r="M77" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K78" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M78" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K79" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K80" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M81" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q81" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L82" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,24 +6473,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K85" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L85" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M85" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q85" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L86" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M86" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K88" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K89" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L89" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K90" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K91" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M91" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L92" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L93" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M93" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L94" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M94" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K95" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L95" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M95" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K96" t="n">
+        <v>230</v>
+      </c>
+      <c r="L96" t="n">
         <v>250</v>
       </c>
-      <c r="L96" t="n">
-        <v>300</v>
-      </c>
       <c r="M96" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K97" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L97" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M97" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K98" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L98" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M98" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K99" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L99" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M99" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K100" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L100" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M100" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7625,24 +7625,24 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K101" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L101" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M101" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q101" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,58 +7677,130 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K102" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L102" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M102" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>60</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
         <v>30000</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K103" t="n">
         <v>200</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L103" t="n">
         <v>250</v>
       </c>
-      <c r="M102" t="n">
+      <c r="M103" t="n">
         <v>225</v>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>225</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q103" t="n">
         <v>1</v>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44336</v>
+        <v>44560</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50000</v>
+        <v>720</v>
       </c>
       <c r="K26" t="n">
-        <v>80</v>
+        <v>11000</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>11500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K27" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L27" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,20 +2369,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L28" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M28" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K29" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44245</v>
+        <v>44343</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,25 +2508,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L30" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="M30" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K31" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L31" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M31" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524</v>
+        <v>44245</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>28000</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>160</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>180</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>170</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="Q32" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44363</v>
+        <v>44524</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M33" t="n">
-        <v>9000</v>
+        <v>19500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="Q33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K34" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M34" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="Q34" t="n">
         <v>60</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44517</v>
+        <v>44406</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2880,17 +2880,17 @@
         <v>1100</v>
       </c>
       <c r="K35" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L35" t="n">
         <v>20000</v>
       </c>
-      <c r="L35" t="n">
-        <v>22000</v>
-      </c>
       <c r="M35" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44300</v>
+        <v>44517</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>40000</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="L36" t="n">
-        <v>220</v>
+        <v>22000</v>
       </c>
       <c r="M36" t="n">
-        <v>210</v>
+        <v>21000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M37" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44384</v>
+        <v>44300</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q38" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L39" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M39" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44294</v>
+        <v>44384</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K40" t="n">
         <v>200</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K41" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L41" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M41" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L42" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M42" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K43" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44483</v>
+        <v>44315</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K44" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="L44" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="M44" t="n">
-        <v>40500</v>
+        <v>80</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Q44" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44546</v>
+        <v>44483</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3600,13 +3600,13 @@
         <v>600</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>41000</v>
       </c>
       <c r="M45" t="n">
-        <v>13000</v>
+        <v>40500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>186</v>
+        <v>579</v>
       </c>
       <c r="Q45" t="n">
         <v>70</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>325</v>
+        <v>13000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L47" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M47" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K48" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L48" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M48" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K49" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L49" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M49" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L50" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K51" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M51" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44181</v>
+        <v>44349</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,24 +4097,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>900</v>
+        <v>50000</v>
       </c>
       <c r="K52" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="L52" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="M52" t="n">
-        <v>10500</v>
+        <v>75</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44482</v>
+        <v>44181</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K53" t="n">
-        <v>41000</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>42000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>41500</v>
+        <v>10500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>593</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="n">
         <v>70</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44273</v>
+        <v>44482</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L54" t="n">
-        <v>230</v>
+        <v>42000</v>
       </c>
       <c r="M54" t="n">
-        <v>215</v>
+        <v>41500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44364</v>
+        <v>44273</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>24000</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M55" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44280</v>
+        <v>44364</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K56" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M56" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44209</v>
+        <v>44280</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K57" t="n">
+        <v>200</v>
+      </c>
+      <c r="L57" t="n">
         <v>230</v>
       </c>
-      <c r="L57" t="n">
-        <v>250</v>
-      </c>
       <c r="M57" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44266</v>
+        <v>44209</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K58" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="L58" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="M58" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K59" t="n">
         <v>120</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44370</v>
+        <v>44266</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K60" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="L60" t="n">
-        <v>13000</v>
+        <v>130</v>
       </c>
       <c r="M60" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q60" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44475</v>
+        <v>44370</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="M61" t="n">
-        <v>39500</v>
+        <v>12500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>564</v>
+        <v>208</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K62" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L62" t="n">
         <v>40000</v>
       </c>
-      <c r="L62" t="n">
-        <v>42000</v>
-      </c>
       <c r="M62" t="n">
-        <v>41000</v>
+        <v>39500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="Q62" t="n">
         <v>70</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44210</v>
+        <v>44489</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M63" t="n">
-        <v>185</v>
+        <v>41000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>185</v>
+        <v>586</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44476</v>
+        <v>44210</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K64" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="L64" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M64" t="n">
-        <v>41500</v>
+        <v>185</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="Q64" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44476</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K65" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="L65" t="n">
-        <v>16500</v>
+        <v>42000</v>
       </c>
       <c r="M65" t="n">
-        <v>16250</v>
+        <v>41500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="Q65" t="n">
         <v>70</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="M66" t="n">
-        <v>14000</v>
+        <v>16250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="Q66" t="n">
         <v>70</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K67" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="L67" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>15750</v>
+        <v>14000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q67" t="n">
         <v>70</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K68" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L68" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M68" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="Q68" t="n">
         <v>70</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K69" t="n">
-        <v>80</v>
+        <v>18500</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="M69" t="n">
-        <v>90</v>
+        <v>18750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K70" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L70" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>60000</v>
       </c>
       <c r="K71" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="L71" t="n">
-        <v>18000</v>
+        <v>70</v>
       </c>
       <c r="M71" t="n">
-        <v>17500</v>
+        <v>60</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="Q71" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L72" t="n">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="M72" t="n">
-        <v>250</v>
+        <v>17500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5566,7 +5566,7 @@
         <v>250</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="K73" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="M73" t="n">
-        <v>41000</v>
+        <v>250</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q73" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="K74" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L74" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M74" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44559</v>
+        <v>44259</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="K75" t="n">
-        <v>11000</v>
+        <v>230</v>
       </c>
       <c r="L75" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="M75" t="n">
-        <v>11500</v>
+        <v>240</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>36000</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L76" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M76" t="n">
-        <v>215</v>
+        <v>11500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M77" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5976,13 +5976,13 @@
         <v>32000</v>
       </c>
       <c r="K78" t="n">
+        <v>150</v>
+      </c>
+      <c r="L78" t="n">
         <v>200</v>
       </c>
-      <c r="L78" t="n">
-        <v>250</v>
-      </c>
       <c r="M78" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K79" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M79" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K82" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M82" t="n">
-        <v>13500</v>
+        <v>60</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q82" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L83" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M83" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q83" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44321</v>
+        <v>44510</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="n">
-        <v>80</v>
+        <v>28000</v>
       </c>
       <c r="L84" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>29000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,24 +6545,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K86" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M86" t="n">
-        <v>11750</v>
+        <v>60</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="Q86" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L87" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M87" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K89" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K90" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L90" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M90" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K91" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L91" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M92" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44238</v>
+        <v>44350</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="K93" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L93" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M93" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M94" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K95" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M95" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44258</v>
+        <v>44175</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K96" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L96" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M96" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K97" t="n">
+        <v>230</v>
+      </c>
+      <c r="L97" t="n">
         <v>250</v>
       </c>
-      <c r="L97" t="n">
-        <v>300</v>
-      </c>
       <c r="M97" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K98" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L98" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M98" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K99" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44357</v>
+        <v>44329</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K100" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L100" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M100" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K101" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L101" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M101" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,24 +7697,24 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K102" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L102" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M102" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q102" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,58 +7749,130 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
+        <v>44371</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K103" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L103" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M103" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>60</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Choclero</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
         <v>30000</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K104" t="n">
         <v>200</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L104" t="n">
         <v>250</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M104" t="n">
         <v>225</v>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>225</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q104" t="n">
         <v>1</v>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44224</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,13 +504,13 @@
         <v>80000</v>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,36 +569,36 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>50000</v>
+        <v>900</v>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="n">
         <v>70</v>
-      </c>
-      <c r="M3" t="n">
-        <v>60</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>37000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>39000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>38000</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>543</v>
+        <v>225</v>
       </c>
       <c r="Q4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>150</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>125</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44307</v>
+        <v>44252</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>50000</v>
       </c>
       <c r="K6" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44252</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K7" t="n">
         <v>150</v>
       </c>
       <c r="L7" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M7" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="K8" t="n">
         <v>80</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M9" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44230</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
         <v>300</v>
       </c>
       <c r="M10" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44552</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>660</v>
+        <v>30000</v>
       </c>
       <c r="K11" t="n">
-        <v>10500</v>
+        <v>200</v>
       </c>
       <c r="L11" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M11" t="n">
-        <v>10750</v>
+        <v>225</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="Q11" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44385</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>11750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44314</v>
+        <v>44245</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K13" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44314</v>
+        <v>44245</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100000</v>
+        <v>28000</v>
       </c>
       <c r="K14" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="L14" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
         <v>39000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44293</v>
+        <v>44363</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>44000</v>
+        <v>1200</v>
       </c>
       <c r="K17" t="n">
-        <v>180</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>190</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44293</v>
+        <v>44370</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30000</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>140</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>145</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
         <v>120</v>
       </c>
-      <c r="L19" t="n">
-        <v>140</v>
-      </c>
       <c r="M19" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44497</v>
+        <v>44315</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K20" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L20" t="n">
-        <v>40000</v>
+        <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>39500</v>
+        <v>80</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44406</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="K21" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>7750</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="Q21" t="n">
         <v>60</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44244</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="K22" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L23" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44244</v>
+        <v>44504</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110000</v>
+        <v>1200</v>
       </c>
       <c r="K24" t="n">
-        <v>200</v>
+        <v>37000</v>
       </c>
       <c r="L24" t="n">
-        <v>230</v>
+        <v>39000</v>
       </c>
       <c r="M24" t="n">
-        <v>215</v>
+        <v>38000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>215</v>
+        <v>543</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>30000</v>
       </c>
       <c r="K25" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L25" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44560</v>
+        <v>44321</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>720</v>
+        <v>50000</v>
       </c>
       <c r="K26" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="L26" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>11500</v>
+        <v>90</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K27" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44336</v>
+        <v>44371</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="K28" t="n">
-        <v>70</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
-        <v>70</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K29" t="n">
+        <v>80</v>
+      </c>
+      <c r="L29" t="n">
         <v>100</v>
       </c>
-      <c r="L29" t="n">
-        <v>120</v>
-      </c>
       <c r="M29" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K30" t="n">
         <v>70</v>
       </c>
       <c r="L30" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44245</v>
+        <v>44307</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M31" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44245</v>
+        <v>44307</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="K32" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L32" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44524</v>
+        <v>44231</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>600</v>
+        <v>120000</v>
       </c>
       <c r="K33" t="n">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
-        <v>19500</v>
+        <v>250</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Q33" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44363</v>
+        <v>44175</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1200</v>
+        <v>80000</v>
       </c>
       <c r="K34" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="L34" t="n">
-        <v>10000</v>
+        <v>180</v>
       </c>
       <c r="M34" t="n">
-        <v>9000</v>
+        <v>165</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Q34" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44406</v>
+        <v>44349</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1100</v>
+        <v>70000</v>
       </c>
       <c r="K35" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="M35" t="n">
-        <v>19500</v>
+        <v>110</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="Q35" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44517</v>
+        <v>44349</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2945,24 +2945,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K36" t="n">
-        <v>20000</v>
+        <v>70</v>
       </c>
       <c r="L36" t="n">
-        <v>22000</v>
+        <v>80</v>
       </c>
       <c r="M36" t="n">
-        <v>21000</v>
+        <v>75</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="Q36" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K37" t="n">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="L37" t="n">
-        <v>220</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>210</v>
+        <v>7750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K38" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L38" t="n">
         <v>150</v>
       </c>
       <c r="M38" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44384</v>
+        <v>44356</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3161,24 +3161,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>700</v>
+        <v>40000</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="L39" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M39" t="n">
-        <v>12500</v>
+        <v>90</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44384</v>
+        <v>44364</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>220</v>
+        <v>10000</v>
       </c>
       <c r="M40" t="n">
-        <v>210</v>
+        <v>9000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44294</v>
+        <v>44259</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K41" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L41" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M41" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44294</v>
+        <v>44391</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>36000</v>
+        <v>600</v>
       </c>
       <c r="K42" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="L42" t="n">
-        <v>140</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>130</v>
+        <v>13500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>44000</v>
+        <v>24000</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="K44" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="L44" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44483</v>
+        <v>44237</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K45" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="L45" t="n">
-        <v>41000</v>
+        <v>280</v>
       </c>
       <c r="M45" t="n">
-        <v>40500</v>
+        <v>265</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>579</v>
+        <v>265</v>
       </c>
       <c r="Q45" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44546</v>
+        <v>44300</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M46" t="n">
-        <v>13000</v>
+        <v>210</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q46" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44237</v>
+        <v>44300</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K47" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M47" t="n">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,29 +3804,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>80000</v>
+        <v>600</v>
       </c>
       <c r="K48" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>280</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>265</v>
+        <v>13000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44252</v>
+        <v>44350</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44252</v>
+        <v>44350</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="K50" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L50" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="M50" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44349</v>
+        <v>44524</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="L51" t="n">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="M51" t="n">
-        <v>110</v>
+        <v>19500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,36 +4097,36 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="K52" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>564</v>
+      </c>
+      <c r="Q52" t="n">
         <v>70</v>
-      </c>
-      <c r="L52" t="n">
-        <v>80</v>
-      </c>
-      <c r="M52" t="n">
-        <v>75</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44181</v>
+        <v>44573</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>900</v>
+        <v>40000</v>
       </c>
       <c r="K53" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L53" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M53" t="n">
-        <v>10500</v>
+        <v>225</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q53" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44482</v>
+        <v>44168</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K54" t="n">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="L54" t="n">
-        <v>42000</v>
+        <v>16500</v>
       </c>
       <c r="M54" t="n">
-        <v>41500</v>
+        <v>16250</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>593</v>
+        <v>232</v>
       </c>
       <c r="Q54" t="n">
         <v>70</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44273</v>
+        <v>44510</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>24000</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
-        <v>200</v>
+        <v>28000</v>
       </c>
       <c r="L55" t="n">
-        <v>230</v>
+        <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>215</v>
+        <v>29000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44364</v>
+        <v>44161</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="L56" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M56" t="n">
-        <v>9000</v>
+        <v>18750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="Q56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44280</v>
+        <v>44160</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>30000</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="L57" t="n">
-        <v>230</v>
+        <v>18000</v>
       </c>
       <c r="M57" t="n">
-        <v>215</v>
+        <v>17500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44209</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>100000</v>
+        <v>26000</v>
       </c>
       <c r="K58" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M58" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44266</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K59" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M59" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44266</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K60" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L60" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44370</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,24 +4745,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="L61" t="n">
-        <v>13000</v>
+        <v>60</v>
       </c>
       <c r="M61" t="n">
-        <v>12500</v>
+        <v>55</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="Q61" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44475</v>
+        <v>44357</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>500</v>
+        <v>90000</v>
       </c>
       <c r="K62" t="n">
-        <v>39000</v>
+        <v>130</v>
       </c>
       <c r="L62" t="n">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="M62" t="n">
-        <v>39500</v>
+        <v>140</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>564</v>
+        <v>140</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44489</v>
+        <v>44357</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,24 +4889,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K63" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L63" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44210</v>
+        <v>44335</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,13 +4968,13 @@
         <v>80000</v>
       </c>
       <c r="K64" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44476</v>
+        <v>44335</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,24 +5033,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>41000</v>
+        <v>50</v>
       </c>
       <c r="L65" t="n">
-        <v>42000</v>
+        <v>70</v>
       </c>
       <c r="M65" t="n">
-        <v>41500</v>
+        <v>60</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>593</v>
+        <v>60</v>
       </c>
       <c r="Q65" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44168</v>
+        <v>44210</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2000</v>
+        <v>80000</v>
       </c>
       <c r="K66" t="n">
-        <v>16000</v>
+        <v>170</v>
       </c>
       <c r="L66" t="n">
-        <v>16500</v>
+        <v>200</v>
       </c>
       <c r="M66" t="n">
-        <v>16250</v>
+        <v>185</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="Q66" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44553</v>
+        <v>44343</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K67" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>120</v>
       </c>
       <c r="M67" t="n">
-        <v>14000</v>
+        <v>110</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="Q67" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44167</v>
+        <v>44343</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,24 +5249,24 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2400</v>
+        <v>50000</v>
       </c>
       <c r="K68" t="n">
-        <v>15500</v>
+        <v>70</v>
       </c>
       <c r="L68" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="M68" t="n">
-        <v>15750</v>
+        <v>75</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Q68" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44161</v>
+        <v>44230</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>800</v>
+        <v>110000</v>
       </c>
       <c r="K69" t="n">
-        <v>18500</v>
+        <v>250</v>
       </c>
       <c r="L69" t="n">
-        <v>19000</v>
+        <v>300</v>
       </c>
       <c r="M69" t="n">
-        <v>18750</v>
+        <v>275</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q69" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="K70" t="n">
         <v>80</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L71" t="n">
         <v>70</v>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44160</v>
+        <v>44272</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="K72" t="n">
-        <v>17000</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>18000</v>
+        <v>250</v>
       </c>
       <c r="M72" t="n">
-        <v>17500</v>
+        <v>225</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q72" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44231</v>
+        <v>44167</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>120000</v>
+        <v>2400</v>
       </c>
       <c r="K73" t="n">
-        <v>200</v>
+        <v>15500</v>
       </c>
       <c r="L73" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M73" t="n">
-        <v>250</v>
+        <v>15750</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K74" t="n">
         <v>40000</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44259</v>
+        <v>44209</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>32000</v>
+        <v>100000</v>
       </c>
       <c r="K75" t="n">
         <v>230</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44559</v>
+        <v>44517</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L76" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M76" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="Q76" t="n">
         <v>70</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44286</v>
+        <v>44280</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K77" t="n">
         <v>200</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44286</v>
+        <v>44483</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K78" t="n">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="L78" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="M78" t="n">
-        <v>175</v>
+        <v>40500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>175</v>
+        <v>579</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44279</v>
+        <v>44476</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L79" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M79" t="n">
-        <v>225</v>
+        <v>41500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>225</v>
+        <v>593</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44279</v>
+        <v>44328</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K80" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="L80" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>60000</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44322</v>
+        <v>44560</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,36 +6257,36 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30000</v>
+        <v>720</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>11000</v>
       </c>
       <c r="L82" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M82" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q82" t="n">
         <v>70</v>
-      </c>
-      <c r="M82" t="n">
-        <v>60</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44391</v>
+        <v>44552</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K83" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L83" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M83" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="Q83" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44510</v>
+        <v>44286</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1100</v>
+        <v>36000</v>
       </c>
       <c r="K84" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="L84" t="n">
-        <v>30000</v>
+        <v>230</v>
       </c>
       <c r="M84" t="n">
-        <v>29000</v>
+        <v>215</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>414</v>
+        <v>215</v>
       </c>
       <c r="Q84" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44321</v>
+        <v>44286</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K85" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44321</v>
+        <v>44482</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,36 +6545,36 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>32000</v>
+        <v>700</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>41000</v>
       </c>
       <c r="L86" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M86" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q86" t="n">
         <v>70</v>
-      </c>
-      <c r="M86" t="n">
-        <v>60</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K87" t="n">
-        <v>11500</v>
+        <v>200</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>220</v>
       </c>
       <c r="M87" t="n">
-        <v>11750</v>
+        <v>210</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q87" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44308</v>
+        <v>44294</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="K88" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L88" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M88" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44308</v>
+        <v>44545</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,41 +6756,41 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>20000</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>50</v>
+        <v>13000</v>
       </c>
       <c r="L89" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M89" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q89" t="n">
         <v>70</v>
-      </c>
-      <c r="M89" t="n">
-        <v>60</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K90" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M90" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="K91" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L91" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M91" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44350</v>
+        <v>44301</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K92" t="n">
         <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="K93" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L93" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44238</v>
+        <v>44322</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="L94" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M94" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44238</v>
+        <v>44490</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L95" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M95" t="n">
-        <v>225</v>
+        <v>41000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>225</v>
+        <v>586</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44175</v>
+        <v>44293</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>80000</v>
+        <v>44000</v>
       </c>
       <c r="K96" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L96" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M96" t="n">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44258</v>
+        <v>44293</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>30000</v>
       </c>
       <c r="K97" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L97" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M97" t="n">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44224</v>
+        <v>44293</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K98" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="L98" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M98" t="n">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44329</v>
+        <v>44266</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K99" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L99" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M99" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44329</v>
+        <v>44266</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>40000</v>
       </c>
       <c r="K100" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L100" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M100" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44357</v>
+        <v>44279</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>90000</v>
+        <v>32000</v>
       </c>
       <c r="K101" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L101" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M101" t="n">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44357</v>
+        <v>44279</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>50000</v>
       </c>
       <c r="K102" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L102" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M102" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44371</v>
+        <v>44503</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>12500</v>
+        <v>39000</v>
       </c>
       <c r="L103" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M103" t="n">
-        <v>12750</v>
+        <v>39500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="Q103" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44272</v>
+        <v>44384</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,34 +7845,106 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>30000</v>
+        <v>700</v>
       </c>
       <c r="K104" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>60</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>40000</v>
+      </c>
+      <c r="K105" t="n">
         <v>200</v>
       </c>
-      <c r="L104" t="n">
-        <v>250</v>
-      </c>
-      <c r="M104" t="n">
-        <v>225</v>
-      </c>
-      <c r="N104" t="inlineStr">
+      <c r="L105" t="n">
+        <v>220</v>
+      </c>
+      <c r="M105" t="n">
+        <v>210</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>225</v>
-      </c>
-      <c r="Q104" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q105" t="n">
         <v>1</v>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2000</v>
+        <v>80000</v>
       </c>
       <c r="K54" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="L54" t="n">
-        <v>16500</v>
+        <v>250</v>
       </c>
       <c r="M54" t="n">
-        <v>16250</v>
+        <v>225</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q54" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44510</v>
+        <v>44168</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L55" t="n">
-        <v>30000</v>
+        <v>16500</v>
       </c>
       <c r="M55" t="n">
-        <v>29000</v>
+        <v>16250</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="Q55" t="n">
         <v>70</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K56" t="n">
-        <v>18500</v>
+        <v>28000</v>
       </c>
       <c r="L56" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M56" t="n">
-        <v>18750</v>
+        <v>29000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="n">
         <v>70</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K57" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="L57" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M57" t="n">
-        <v>17500</v>
+        <v>18750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q57" t="n">
         <v>70</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>26000</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>17000</v>
       </c>
       <c r="L58" t="n">
-        <v>150</v>
+        <v>18000</v>
       </c>
       <c r="M58" t="n">
-        <v>125</v>
+        <v>17500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K59" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K60" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L60" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M60" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K61" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L61" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="K62" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="L62" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="M62" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K63" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M63" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K64" t="n">
         <v>80</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K65" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L65" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44210</v>
+        <v>44335</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K66" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M66" t="n">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K67" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L67" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="M67" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K68" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M68" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K69" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="L69" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="M69" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44329</v>
+        <v>44230</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="K70" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M70" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K71" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L71" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M71" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L72" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M72" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K73" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M73" t="n">
-        <v>15750</v>
+        <v>225</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5638,7 +5638,7 @@
         <v>225</v>
       </c>
       <c r="Q73" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44489</v>
+        <v>44167</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K74" t="n">
-        <v>40000</v>
+        <v>15500</v>
       </c>
       <c r="L74" t="n">
-        <v>42000</v>
+        <v>16000</v>
       </c>
       <c r="M74" t="n">
-        <v>41000</v>
+        <v>15750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q74" t="n">
         <v>70</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44209</v>
+        <v>44489</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>100000</v>
+        <v>800</v>
       </c>
       <c r="K75" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L75" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M75" t="n">
-        <v>240</v>
+        <v>41000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>100000</v>
       </c>
       <c r="K76" t="n">
-        <v>20000</v>
+        <v>230</v>
       </c>
       <c r="L76" t="n">
-        <v>22000</v>
+        <v>250</v>
       </c>
       <c r="M76" t="n">
-        <v>21000</v>
+        <v>240</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="Q76" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44280</v>
+        <v>44517</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30000</v>
+        <v>1100</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="L77" t="n">
-        <v>230</v>
+        <v>22000</v>
       </c>
       <c r="M77" t="n">
-        <v>215</v>
+        <v>21000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44483</v>
+        <v>44280</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K78" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>41000</v>
+        <v>230</v>
       </c>
       <c r="M78" t="n">
-        <v>40500</v>
+        <v>215</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>579</v>
+        <v>215</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6048,13 +6048,13 @@
         <v>600</v>
       </c>
       <c r="K79" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L79" t="n">
         <v>41000</v>
       </c>
-      <c r="L79" t="n">
-        <v>42000</v>
-      </c>
       <c r="M79" t="n">
-        <v>41500</v>
+        <v>40500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Q79" t="n">
         <v>70</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44328</v>
+        <v>44476</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100000</v>
+        <v>600</v>
       </c>
       <c r="K80" t="n">
-        <v>80</v>
+        <v>41000</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>41500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>90</v>
+        <v>593</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K81" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L81" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44560</v>
+        <v>44328</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>720</v>
+        <v>60000</v>
       </c>
       <c r="K82" t="n">
-        <v>11000</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M82" t="n">
-        <v>11500</v>
+        <v>60</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="K83" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L83" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q83" t="n">
         <v>70</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>36000</v>
+        <v>660</v>
       </c>
       <c r="K84" t="n">
-        <v>200</v>
+        <v>10500</v>
       </c>
       <c r="L84" t="n">
-        <v>230</v>
+        <v>11000</v>
       </c>
       <c r="M84" t="n">
-        <v>215</v>
+        <v>10750</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K85" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M85" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44482</v>
+        <v>44286</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>700</v>
+        <v>32000</v>
       </c>
       <c r="K86" t="n">
-        <v>41000</v>
+        <v>150</v>
       </c>
       <c r="L86" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M86" t="n">
-        <v>41500</v>
+        <v>175</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>593</v>
+        <v>175</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44294</v>
+        <v>44482</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>30000</v>
+        <v>700</v>
       </c>
       <c r="K87" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L87" t="n">
-        <v>220</v>
+        <v>42000</v>
       </c>
       <c r="M87" t="n">
-        <v>210</v>
+        <v>41500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>210</v>
+        <v>593</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K88" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L88" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M88" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44545</v>
+        <v>44294</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>36000</v>
       </c>
       <c r="K89" t="n">
-        <v>13000</v>
+        <v>120</v>
       </c>
       <c r="L89" t="n">
-        <v>15000</v>
+        <v>140</v>
       </c>
       <c r="M89" t="n">
-        <v>14000</v>
+        <v>130</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,32 +6837,32 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>30000</v>
+        <v>700</v>
       </c>
       <c r="K90" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M90" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
         <v>200</v>
       </c>
-      <c r="M90" t="n">
-        <v>175</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>175</v>
-      </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K91" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L91" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M91" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K92" t="n">
+        <v>80</v>
+      </c>
+      <c r="L92" t="n">
         <v>100</v>
       </c>
-      <c r="L92" t="n">
-        <v>150</v>
-      </c>
       <c r="M92" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="K93" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M93" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L94" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M94" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44490</v>
+        <v>44322</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,24 +7193,24 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="K95" t="n">
-        <v>40000</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
-        <v>42000</v>
+        <v>70</v>
       </c>
       <c r="M95" t="n">
-        <v>41000</v>
+        <v>60</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>586</v>
+        <v>60</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44293</v>
+        <v>44490</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>44000</v>
+        <v>1000</v>
       </c>
       <c r="K96" t="n">
-        <v>180</v>
+        <v>40000</v>
       </c>
       <c r="L96" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M96" t="n">
-        <v>190</v>
+        <v>41000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>190</v>
+        <v>586</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K97" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L97" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M97" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K98" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L98" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M98" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,17 +7485,17 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K99" t="n">
         <v>120</v>
       </c>
       <c r="L99" t="n">
+        <v>140</v>
+      </c>
+      <c r="M99" t="n">
         <v>130</v>
       </c>
-      <c r="M99" t="n">
-        <v>125</v>
-      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K100" t="n">
         <v>120</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="K101" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L101" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="M101" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K102" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L102" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M102" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44503</v>
+        <v>44279</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K103" t="n">
-        <v>39000</v>
+        <v>180</v>
       </c>
       <c r="L103" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="M103" t="n">
-        <v>39500</v>
+        <v>190</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>564</v>
+        <v>190</v>
       </c>
       <c r="Q103" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44384</v>
+        <v>44503</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K104" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="L104" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M104" t="n">
-        <v>12500</v>
+        <v>39500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>208</v>
+        <v>564</v>
       </c>
       <c r="Q104" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7917,34 +7917,106 @@
         </is>
       </c>
       <c r="J105" t="n">
+        <v>700</v>
+      </c>
+      <c r="K105" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>60</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
         <v>40000</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K106" t="n">
         <v>200</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L106" t="n">
         <v>220</v>
       </c>
-      <c r="M105" t="n">
+      <c r="M106" t="n">
         <v>210</v>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
         <v>210</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q106" t="n">
         <v>1</v>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44175</v>
+        <v>44580</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K34" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L34" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M34" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44349</v>
+        <v>44580</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L35" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="M35" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44349</v>
+        <v>44175</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K36" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L36" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2000</v>
+        <v>70000</v>
       </c>
       <c r="K37" t="n">
-        <v>7500</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>120</v>
       </c>
       <c r="M37" t="n">
-        <v>7750</v>
+        <v>110</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q37" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K38" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L38" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M38" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3161,24 +3161,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K39" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>7750</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44364</v>
+        <v>44356</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>130</v>
       </c>
       <c r="L40" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="M40" t="n">
-        <v>9000</v>
+        <v>140</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q40" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44259</v>
+        <v>44356</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="K41" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="L41" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M41" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q42" t="n">
         <v>60</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="K43" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L43" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M43" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44237</v>
+        <v>44391</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,20 +3525,20 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>325</v>
+        <v>13500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="K45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="M45" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L46" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K47" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L47" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M47" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44546</v>
+        <v>44300</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M48" t="n">
-        <v>13000</v>
+        <v>210</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q48" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K49" t="n">
         <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44350</v>
+        <v>44546</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,36 +3953,36 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>25000</v>
+        <v>600</v>
       </c>
       <c r="K50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>186</v>
+      </c>
+      <c r="Q50" t="n">
         <v>70</v>
-      </c>
-      <c r="L50" t="n">
-        <v>70</v>
-      </c>
-      <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44524</v>
+        <v>44350</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K51" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>19500</v>
+        <v>100</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44475</v>
+        <v>44350</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,24 +4097,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="K52" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L52" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="M52" t="n">
-        <v>39500</v>
+        <v>70</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44573</v>
+        <v>44524</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="L53" t="n">
-        <v>250</v>
+        <v>20000</v>
       </c>
       <c r="M53" t="n">
-        <v>225</v>
+        <v>19500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44574</v>
+        <v>44475</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>80000</v>
+        <v>500</v>
       </c>
       <c r="K54" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L54" t="n">
-        <v>250</v>
+        <v>40000</v>
       </c>
       <c r="M54" t="n">
-        <v>225</v>
+        <v>39500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44168</v>
+        <v>44573</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K55" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="L55" t="n">
-        <v>16500</v>
+        <v>250</v>
       </c>
       <c r="M55" t="n">
-        <v>16250</v>
+        <v>225</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q55" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44510</v>
+        <v>44574</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1100</v>
+        <v>80000</v>
       </c>
       <c r="K56" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="L56" t="n">
-        <v>30000</v>
+        <v>250</v>
       </c>
       <c r="M56" t="n">
-        <v>29000</v>
+        <v>225</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K57" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="L57" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="M57" t="n">
-        <v>18750</v>
+        <v>16250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Q57" t="n">
         <v>70</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44510</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4536,13 +4536,13 @@
         <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L58" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>17500</v>
+        <v>29000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="Q58" t="n">
         <v>70</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44161</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>18500</v>
       </c>
       <c r="L59" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="M59" t="n">
-        <v>125</v>
+        <v>18750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,41 +4668,41 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>20000</v>
+        <v>1100</v>
       </c>
       <c r="K60" t="n">
-        <v>50</v>
+        <v>17000</v>
       </c>
       <c r="L60" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q60" t="n">
         <v>70</v>
-      </c>
-      <c r="M60" t="n">
-        <v>60</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>50000</v>
+        <v>26000</v>
       </c>
       <c r="K61" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,17 +4821,17 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K62" t="n">
         <v>50</v>
       </c>
       <c r="L62" t="n">
+        <v>70</v>
+      </c>
+      <c r="M62" t="n">
         <v>60</v>
       </c>
-      <c r="M62" t="n">
-        <v>55</v>
-      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K63" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L63" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K64" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M64" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="K65" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L65" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5112,13 +5112,13 @@
         <v>50000</v>
       </c>
       <c r="K66" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L66" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44210</v>
+        <v>44335</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5184,13 +5184,13 @@
         <v>80000</v>
       </c>
       <c r="K67" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44343</v>
+        <v>44335</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M68" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K69" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="L69" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M69" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K70" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="M70" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K71" t="n">
+        <v>70</v>
+      </c>
+      <c r="L71" t="n">
         <v>80</v>
       </c>
-      <c r="L71" t="n">
-        <v>100</v>
-      </c>
       <c r="M71" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44329</v>
+        <v>44230</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K72" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="L72" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="M72" t="n">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K73" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L73" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44167</v>
+        <v>44329</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,24 +5681,24 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="K74" t="n">
-        <v>15500</v>
+        <v>60</v>
       </c>
       <c r="L74" t="n">
-        <v>16000</v>
+        <v>70</v>
       </c>
       <c r="M74" t="n">
-        <v>15750</v>
+        <v>65</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q74" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44489</v>
+        <v>44272</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K75" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L75" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M75" t="n">
-        <v>41000</v>
+        <v>225</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44209</v>
+        <v>44167</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>100000</v>
+        <v>2400</v>
       </c>
       <c r="K76" t="n">
-        <v>230</v>
+        <v>15500</v>
       </c>
       <c r="L76" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M76" t="n">
-        <v>240</v>
+        <v>15750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K77" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L77" t="n">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="M77" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>300</v>
+        <v>586</v>
       </c>
       <c r="Q77" t="n">
         <v>70</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44280</v>
+        <v>44209</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K78" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L78" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M78" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44483</v>
+        <v>44517</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L79" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="M79" t="n">
-        <v>40500</v>
+        <v>21000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>579</v>
+        <v>300</v>
       </c>
       <c r="Q79" t="n">
         <v>70</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K80" t="n">
-        <v>41000</v>
+        <v>200</v>
       </c>
       <c r="L80" t="n">
-        <v>42000</v>
+        <v>230</v>
       </c>
       <c r="M80" t="n">
-        <v>41500</v>
+        <v>215</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44328</v>
+        <v>44483</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>100000</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
+        <v>41000</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>40500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>579</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44328</v>
+        <v>44476</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,36 +6257,36 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>60000</v>
+        <v>600</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>41000</v>
       </c>
       <c r="L82" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M82" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q82" t="n">
         <v>70</v>
-      </c>
-      <c r="M82" t="n">
-        <v>60</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44560</v>
+        <v>44328</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>720</v>
+        <v>100000</v>
       </c>
       <c r="K83" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>11500</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44552</v>
+        <v>44328</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,24 +6401,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>660</v>
+        <v>60000</v>
       </c>
       <c r="K84" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L84" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M84" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q84" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44286</v>
+        <v>44560</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>36000</v>
+        <v>720</v>
       </c>
       <c r="K85" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L85" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>215</v>
+        <v>11500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>32000</v>
+        <v>660</v>
       </c>
       <c r="K86" t="n">
-        <v>150</v>
+        <v>10500</v>
       </c>
       <c r="L86" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="M86" t="n">
-        <v>175</v>
+        <v>10750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44482</v>
+        <v>44286</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>700</v>
+        <v>36000</v>
       </c>
       <c r="K87" t="n">
-        <v>41000</v>
+        <v>200</v>
       </c>
       <c r="L87" t="n">
-        <v>42000</v>
+        <v>230</v>
       </c>
       <c r="M87" t="n">
-        <v>41500</v>
+        <v>215</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="Q87" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K88" t="n">
+        <v>150</v>
+      </c>
+      <c r="L88" t="n">
         <v>200</v>
       </c>
-      <c r="L88" t="n">
-        <v>220</v>
-      </c>
       <c r="M88" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44294</v>
+        <v>44482</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>36000</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>120</v>
+        <v>41000</v>
       </c>
       <c r="L89" t="n">
-        <v>140</v>
+        <v>42000</v>
       </c>
       <c r="M89" t="n">
-        <v>130</v>
+        <v>41500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>130</v>
+        <v>593</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44545</v>
+        <v>44294</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>700</v>
+        <v>30000</v>
       </c>
       <c r="K90" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>220</v>
       </c>
       <c r="M90" t="n">
-        <v>14000</v>
+        <v>210</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K91" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L91" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M91" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L92" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="M92" t="n">
-        <v>90</v>
+        <v>14000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L93" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M93" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,16 +7116,16 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="K94" t="n">
         <v>80</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K95" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M95" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44490</v>
+        <v>44322</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K96" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L96" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q96" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,25 +7332,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K97" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M97" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44293</v>
+        <v>44490</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,29 +7404,29 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>140</v>
+        <v>40000</v>
       </c>
       <c r="L98" t="n">
-        <v>150</v>
+        <v>42000</v>
       </c>
       <c r="M98" t="n">
-        <v>145</v>
+        <v>41000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K99" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L99" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M99" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>30000</v>
       </c>
       <c r="K100" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L100" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M100" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,17 +7629,17 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K101" t="n">
         <v>120</v>
       </c>
       <c r="L101" t="n">
+        <v>140</v>
+      </c>
+      <c r="M101" t="n">
         <v>130</v>
       </c>
-      <c r="M101" t="n">
-        <v>125</v>
-      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K102" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L102" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="M102" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K103" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L103" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M103" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44503</v>
+        <v>44279</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1000</v>
+        <v>32000</v>
       </c>
       <c r="K104" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L104" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="M104" t="n">
-        <v>39500</v>
+        <v>225</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>564</v>
+        <v>225</v>
       </c>
       <c r="Q104" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44384</v>
+        <v>44279</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K105" t="n">
-        <v>12000</v>
+        <v>180</v>
       </c>
       <c r="L105" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M105" t="n">
-        <v>12500</v>
+        <v>190</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="Q105" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,58 +7965,202 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M106" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>564</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>70</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
         <v>44384</v>
       </c>
-      <c r="E106" t="n">
-        <v>4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Dulce o Americano</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>700</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M107" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>60</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
         <v>40000</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K108" t="n">
         <v>200</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L108" t="n">
         <v>220</v>
       </c>
-      <c r="M106" t="n">
+      <c r="M108" t="n">
         <v>210</v>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>210</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q108" t="n">
         <v>1</v>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44321</v>
+        <v>44581</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K26" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44321</v>
+        <v>44581</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L27" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44371</v>
+        <v>44321</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>80</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>12750</v>
+        <v>90</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q28" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K29" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44336</v>
+        <v>44371</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,24 +2513,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="K30" t="n">
-        <v>70</v>
+        <v>12500</v>
       </c>
       <c r="L30" t="n">
-        <v>70</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>12750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44307</v>
+        <v>44336</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K31" t="n">
+        <v>80</v>
+      </c>
+      <c r="L31" t="n">
         <v>100</v>
       </c>
-      <c r="L31" t="n">
-        <v>150</v>
-      </c>
       <c r="M31" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44307</v>
+        <v>44336</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44231</v>
+        <v>44307</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="K33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44580</v>
+        <v>44307</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="K34" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44580</v>
+        <v>44231</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K35" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L35" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="M35" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44175</v>
+        <v>44580</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K36" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L36" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M36" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44580</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L37" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44175</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K38" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L38" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M38" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2000</v>
+        <v>70000</v>
       </c>
       <c r="K39" t="n">
-        <v>7500</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>8000</v>
+        <v>120</v>
       </c>
       <c r="M39" t="n">
-        <v>7750</v>
+        <v>110</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q39" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K40" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L40" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M40" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3305,24 +3305,24 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K41" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>7750</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44364</v>
+        <v>44356</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="K42" t="n">
-        <v>8000</v>
+        <v>130</v>
       </c>
       <c r="L42" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="M42" t="n">
-        <v>9000</v>
+        <v>140</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q42" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44259</v>
+        <v>44356</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,25 +3444,25 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="K43" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="L43" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M43" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M44" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q44" t="n">
         <v>60</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44273</v>
+        <v>44259</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L45" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M45" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44237</v>
+        <v>44391</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>110000</v>
+        <v>600</v>
       </c>
       <c r="K46" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>325</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="K47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="M47" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K48" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M48" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L49" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M49" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44546</v>
+        <v>44300</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L50" t="n">
-        <v>14000</v>
+        <v>220</v>
       </c>
       <c r="M50" t="n">
-        <v>13000</v>
+        <v>210</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q50" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,25 +4020,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K51" t="n">
         <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44350</v>
+        <v>44546</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4097,36 +4097,36 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>25000</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>186</v>
+      </c>
+      <c r="Q52" t="n">
         <v>70</v>
-      </c>
-      <c r="L52" t="n">
-        <v>70</v>
-      </c>
-      <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44524</v>
+        <v>44350</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K53" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>19500</v>
+        <v>100</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44475</v>
+        <v>44350</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,24 +4241,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="K54" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L54" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="M54" t="n">
-        <v>39500</v>
+        <v>70</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="Q54" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44573</v>
+        <v>44524</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="K55" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="L55" t="n">
-        <v>250</v>
+        <v>20000</v>
       </c>
       <c r="M55" t="n">
-        <v>225</v>
+        <v>19500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44574</v>
+        <v>44475</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>80000</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L56" t="n">
-        <v>250</v>
+        <v>40000</v>
       </c>
       <c r="M56" t="n">
-        <v>225</v>
+        <v>39500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44573</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K57" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="L57" t="n">
-        <v>16500</v>
+        <v>250</v>
       </c>
       <c r="M57" t="n">
-        <v>16250</v>
+        <v>225</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q57" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44510</v>
+        <v>44574</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>80000</v>
       </c>
       <c r="K58" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>250</v>
       </c>
       <c r="M58" t="n">
-        <v>29000</v>
+        <v>225</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Q58" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K59" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="L59" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="M59" t="n">
-        <v>18750</v>
+        <v>16250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Q59" t="n">
         <v>70</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44510</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4680,13 +4680,13 @@
         <v>1100</v>
       </c>
       <c r="K60" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L60" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>17500</v>
+        <v>29000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="Q60" t="n">
         <v>70</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44308</v>
+        <v>44161</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>26000</v>
+        <v>800</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>18500</v>
       </c>
       <c r="L61" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="M61" t="n">
-        <v>125</v>
+        <v>18750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,41 +4812,41 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>20000</v>
+        <v>1100</v>
       </c>
       <c r="K62" t="n">
-        <v>50</v>
+        <v>17000</v>
       </c>
       <c r="L62" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q62" t="n">
         <v>70</v>
-      </c>
-      <c r="M62" t="n">
-        <v>60</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>50000</v>
+        <v>26000</v>
       </c>
       <c r="K63" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M63" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,17 +4965,17 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K64" t="n">
         <v>50</v>
       </c>
       <c r="L64" t="n">
+        <v>70</v>
+      </c>
+      <c r="M64" t="n">
         <v>60</v>
       </c>
-      <c r="M64" t="n">
-        <v>55</v>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K65" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L65" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K66" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="K67" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L67" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M67" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5256,13 +5256,13 @@
         <v>50000</v>
       </c>
       <c r="K68" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L68" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44210</v>
+        <v>44335</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5328,13 +5328,13 @@
         <v>80000</v>
       </c>
       <c r="K69" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44343</v>
+        <v>44335</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L70" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M70" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K71" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="L71" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M71" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>110000</v>
+        <v>60000</v>
       </c>
       <c r="K72" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="M72" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K73" t="n">
+        <v>70</v>
+      </c>
+      <c r="L73" t="n">
         <v>80</v>
       </c>
-      <c r="L73" t="n">
-        <v>100</v>
-      </c>
       <c r="M73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44329</v>
+        <v>44230</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K74" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="L74" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="M74" t="n">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L75" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M75" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44167</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,24 +5825,24 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="K76" t="n">
-        <v>15500</v>
+        <v>60</v>
       </c>
       <c r="L76" t="n">
-        <v>16000</v>
+        <v>70</v>
       </c>
       <c r="M76" t="n">
-        <v>15750</v>
+        <v>65</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q76" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44489</v>
+        <v>44272</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K77" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M77" t="n">
-        <v>41000</v>
+        <v>225</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q77" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44209</v>
+        <v>44167</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>100000</v>
+        <v>2400</v>
       </c>
       <c r="K78" t="n">
-        <v>230</v>
+        <v>15500</v>
       </c>
       <c r="L78" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M78" t="n">
-        <v>240</v>
+        <v>15750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L79" t="n">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="M79" t="n">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>300</v>
+        <v>586</v>
       </c>
       <c r="Q79" t="n">
         <v>70</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44280</v>
+        <v>44209</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K80" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L80" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M80" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44483</v>
+        <v>44517</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K81" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L81" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="M81" t="n">
-        <v>40500</v>
+        <v>21000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>579</v>
+        <v>300</v>
       </c>
       <c r="Q81" t="n">
         <v>70</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K82" t="n">
-        <v>41000</v>
+        <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>42000</v>
+        <v>230</v>
       </c>
       <c r="M82" t="n">
-        <v>41500</v>
+        <v>215</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44328</v>
+        <v>44483</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>100000</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>41000</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>40500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>579</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44328</v>
+        <v>44476</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,36 +6401,36 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>60000</v>
+        <v>600</v>
       </c>
       <c r="K84" t="n">
-        <v>50</v>
+        <v>41000</v>
       </c>
       <c r="L84" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M84" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q84" t="n">
         <v>70</v>
-      </c>
-      <c r="M84" t="n">
-        <v>60</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44560</v>
+        <v>44328</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>720</v>
+        <v>100000</v>
       </c>
       <c r="K85" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>11500</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44552</v>
+        <v>44328</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,24 +6545,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>660</v>
+        <v>60000</v>
       </c>
       <c r="K86" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M86" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44286</v>
+        <v>44560</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>36000</v>
+        <v>720</v>
       </c>
       <c r="K87" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L87" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="M87" t="n">
-        <v>215</v>
+        <v>11500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44286</v>
+        <v>44552</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>32000</v>
+        <v>660</v>
       </c>
       <c r="K88" t="n">
-        <v>150</v>
+        <v>10500</v>
       </c>
       <c r="L88" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="M88" t="n">
-        <v>175</v>
+        <v>10750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44482</v>
+        <v>44286</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>36000</v>
       </c>
       <c r="K89" t="n">
-        <v>41000</v>
+        <v>200</v>
       </c>
       <c r="L89" t="n">
-        <v>42000</v>
+        <v>230</v>
       </c>
       <c r="M89" t="n">
-        <v>41500</v>
+        <v>215</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="K90" t="n">
+        <v>150</v>
+      </c>
+      <c r="L90" t="n">
         <v>200</v>
       </c>
-      <c r="L90" t="n">
-        <v>220</v>
-      </c>
       <c r="M90" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44294</v>
+        <v>44482</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>36000</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>120</v>
+        <v>41000</v>
       </c>
       <c r="L91" t="n">
-        <v>140</v>
+        <v>42000</v>
       </c>
       <c r="M91" t="n">
-        <v>130</v>
+        <v>41500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>130</v>
+        <v>593</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44545</v>
+        <v>44294</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L92" t="n">
-        <v>15000</v>
+        <v>220</v>
       </c>
       <c r="M92" t="n">
-        <v>14000</v>
+        <v>210</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K93" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L93" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M93" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="K94" t="n">
-        <v>80</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="M94" t="n">
-        <v>90</v>
+        <v>14000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L95" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M95" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="K96" t="n">
         <v>80</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M97" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44490</v>
+        <v>44322</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K98" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L98" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M98" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="K99" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="L99" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M99" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44293</v>
+        <v>44490</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>140</v>
+        <v>40000</v>
       </c>
       <c r="L100" t="n">
-        <v>150</v>
+        <v>42000</v>
       </c>
       <c r="M100" t="n">
-        <v>145</v>
+        <v>41000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>145</v>
+        <v>586</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K101" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L101" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M101" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>30000</v>
       </c>
       <c r="K102" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L102" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M102" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,17 +7773,17 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K103" t="n">
         <v>120</v>
       </c>
       <c r="L103" t="n">
+        <v>140</v>
+      </c>
+      <c r="M103" t="n">
         <v>130</v>
       </c>
-      <c r="M103" t="n">
-        <v>125</v>
-      </c>
       <c r="N103" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K104" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L104" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="M104" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44279</v>
+        <v>44266</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K105" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L105" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M105" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44503</v>
+        <v>44279</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1000</v>
+        <v>32000</v>
       </c>
       <c r="K106" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L106" t="n">
-        <v>40000</v>
+        <v>250</v>
       </c>
       <c r="M106" t="n">
-        <v>39500</v>
+        <v>225</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>564</v>
+        <v>225</v>
       </c>
       <c r="Q106" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44384</v>
+        <v>44279</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>700</v>
+        <v>50000</v>
       </c>
       <c r="K107" t="n">
-        <v>12000</v>
+        <v>180</v>
       </c>
       <c r="L107" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M107" t="n">
-        <v>12500</v>
+        <v>190</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="Q107" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,58 +8109,202 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K108" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M108" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>564</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>70</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
         <v>44384</v>
       </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Dulce o Americano</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>700</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M109" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>60</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
         <v>40000</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K110" t="n">
         <v>200</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L110" t="n">
         <v>220</v>
       </c>
-      <c r="M108" t="n">
+      <c r="M110" t="n">
         <v>210</v>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
         <v>210</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q110" t="n">
         <v>1</v>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="R110" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -504,13 +504,13 @@
         <v>80000</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M3" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q3" t="n">
         <v>70</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>90000</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>130</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>140</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44252</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>50000</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L6" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44252</v>
+        <v>44384</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K7" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>160</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>155</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44314</v>
+        <v>44384</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,13 +936,13 @@
         <v>40000</v>
       </c>
       <c r="K8" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44314</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100000</v>
+        <v>1100</v>
       </c>
       <c r="K9" t="n">
-        <v>70</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>75</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44363</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>60000</v>
+        <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="L10" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44385</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K12" t="n">
-        <v>11500</v>
+        <v>70</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>75</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44245</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L13" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44245</v>
+        <v>44307</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>28000</v>
+        <v>50000</v>
       </c>
       <c r="K14" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L14" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44497</v>
+        <v>44286</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="K15" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>40000</v>
+        <v>230</v>
       </c>
       <c r="M15" t="n">
-        <v>39500</v>
+        <v>215</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>564</v>
+        <v>215</v>
       </c>
       <c r="Q15" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44559</v>
+        <v>44286</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>150</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>175</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q16" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44363</v>
+        <v>44245</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1200</v>
+        <v>32000</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>215</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q17" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44370</v>
+        <v>44245</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>28000</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>160</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>170</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44315</v>
+        <v>44181</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>44000</v>
+        <v>900</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>120</v>
+        <v>11000</v>
       </c>
       <c r="M19" t="n">
-        <v>110</v>
+        <v>10500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44315</v>
+        <v>44490</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,32 +1797,32 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K20" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41000</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>586</v>
+      </c>
+      <c r="Q20" t="n">
         <v>70</v>
-      </c>
-      <c r="L20" t="n">
-        <v>90</v>
-      </c>
-      <c r="M20" t="n">
-        <v>80</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44406</v>
+        <v>44273</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>215</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="Q21" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44244</v>
+        <v>44503</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110000</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L22" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="M22" t="n">
-        <v>215</v>
+        <v>39500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>30000</v>
       </c>
       <c r="K23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L23" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44504</v>
+        <v>44301</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,29 +2076,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1200</v>
+        <v>24000</v>
       </c>
       <c r="K24" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
-        <v>39000</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>38000</v>
+        <v>90</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="Q24" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44258</v>
+        <v>44301</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K25" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M25" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44581</v>
+        <v>44294</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K26" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L26" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44581</v>
+        <v>44294</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="K27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L27" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M27" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44321</v>
+        <v>44497</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
-        <v>80</v>
+        <v>39000</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>39500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>90</v>
+        <v>564</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44321</v>
+        <v>44482</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2441,36 +2441,36 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>32000</v>
+        <v>700</v>
       </c>
       <c r="K29" t="n">
-        <v>50</v>
+        <v>41000</v>
       </c>
       <c r="L29" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>41500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q29" t="n">
         <v>70</v>
-      </c>
-      <c r="M29" t="n">
-        <v>60</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44371</v>
+        <v>44546</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M30" t="n">
         <v>13000</v>
       </c>
-      <c r="M30" t="n">
-        <v>12750</v>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="Q30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44336</v>
+        <v>44559</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>80</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44336</v>
+        <v>44483</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,36 +2657,36 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="K32" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>41000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>40500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>579</v>
+      </c>
+      <c r="Q32" t="n">
         <v>70</v>
-      </c>
-      <c r="L32" t="n">
-        <v>70</v>
-      </c>
-      <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M33" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,25 +2796,25 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K34" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44231</v>
+        <v>44370</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120000</v>
+        <v>1100</v>
       </c>
       <c r="K35" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L35" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44580</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="K36" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L36" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44580</v>
+        <v>44230</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K37" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L37" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="K38" t="n">
-        <v>150</v>
+        <v>16000</v>
       </c>
       <c r="L38" t="n">
-        <v>180</v>
+        <v>16500</v>
       </c>
       <c r="M38" t="n">
-        <v>165</v>
+        <v>16250</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44349</v>
+        <v>44308</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>70000</v>
+        <v>26000</v>
       </c>
       <c r="K39" t="n">
         <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M39" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44308</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K40" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" t="n">
         <v>70</v>
       </c>
-      <c r="L40" t="n">
-        <v>80</v>
-      </c>
       <c r="M40" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="K41" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="L41" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="M41" t="n">
-        <v>7750</v>
+        <v>90</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q41" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44356</v>
+        <v>44308</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K42" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="L42" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="M42" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44356</v>
+        <v>44349</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="K43" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M43" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,24 +3521,24 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="L44" t="n">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="M44" t="n">
-        <v>9000</v>
+        <v>75</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q44" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44259</v>
+        <v>44574</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="K45" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
         <v>250</v>
       </c>
       <c r="M45" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>600</v>
+        <v>120000</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q46" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44273</v>
+        <v>44293</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>24000</v>
+        <v>44000</v>
       </c>
       <c r="K47" t="n">
+        <v>180</v>
+      </c>
+      <c r="L47" t="n">
         <v>200</v>
       </c>
-      <c r="L47" t="n">
-        <v>230</v>
-      </c>
       <c r="M47" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44237</v>
+        <v>44293</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>110000</v>
+        <v>30000</v>
       </c>
       <c r="K48" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L48" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M48" t="n">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44237</v>
+        <v>44293</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K49" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="L49" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="M49" t="n">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="K50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L50" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="M50" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L51" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M51" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44546</v>
+        <v>44336</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>13000</v>
+        <v>90</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44350</v>
+        <v>44336</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44350</v>
+        <v>44258</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K54" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="L54" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44524</v>
+        <v>44350</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
-        <v>19000</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>19500</v>
+        <v>100</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="Q55" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44475</v>
+        <v>44350</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,24 +4385,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="K56" t="n">
-        <v>39000</v>
+        <v>70</v>
       </c>
       <c r="L56" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="M56" t="n">
-        <v>39500</v>
+        <v>70</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>564</v>
+        <v>70</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44573</v>
+        <v>44329</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K57" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L57" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44574</v>
+        <v>44329</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K58" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L58" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M58" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44553</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K59" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>16250</v>
+        <v>14000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="Q59" t="n">
         <v>70</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44510</v>
+        <v>44476</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K60" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M60" t="n">
-        <v>29000</v>
+        <v>41500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>414</v>
+        <v>593</v>
       </c>
       <c r="Q60" t="n">
         <v>70</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44161</v>
+        <v>44252</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K61" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="L61" t="n">
-        <v>19000</v>
+        <v>220</v>
       </c>
       <c r="M61" t="n">
-        <v>18750</v>
+        <v>210</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44160</v>
+        <v>44252</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K62" t="n">
-        <v>17000</v>
+        <v>150</v>
       </c>
       <c r="L62" t="n">
-        <v>18000</v>
+        <v>160</v>
       </c>
       <c r="M62" t="n">
-        <v>17500</v>
+        <v>155</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44308</v>
+        <v>44524</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>26000</v>
+        <v>600</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>19000</v>
       </c>
       <c r="L63" t="n">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="M63" t="n">
-        <v>125</v>
+        <v>19500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44308</v>
+        <v>44238</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="K64" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L64" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44308</v>
+        <v>44238</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K65" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L65" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44356</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,36 +5105,36 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K66" t="n">
-        <v>50</v>
+        <v>7500</v>
       </c>
       <c r="L66" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>$/malla 60 unidades</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q66" t="n">
         <v>60</v>
-      </c>
-      <c r="M66" t="n">
-        <v>55</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="K67" t="n">
         <v>130</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K68" t="n">
         <v>80</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44335</v>
+        <v>44580</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K69" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M69" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44335</v>
+        <v>44580</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K70" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L70" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44210</v>
+        <v>44510</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>80000</v>
+        <v>1100</v>
       </c>
       <c r="K71" t="n">
-        <v>170</v>
+        <v>28000</v>
       </c>
       <c r="L71" t="n">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="M71" t="n">
-        <v>185</v>
+        <v>29000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44343</v>
+        <v>44364</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="L72" t="n">
-        <v>120</v>
+        <v>10000</v>
       </c>
       <c r="M72" t="n">
-        <v>110</v>
+        <v>9000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44279</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K73" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="M73" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44230</v>
+        <v>44279</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K74" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="L74" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M74" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44329</v>
+        <v>44552</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>60000</v>
+        <v>660</v>
       </c>
       <c r="K75" t="n">
-        <v>80</v>
+        <v>10500</v>
       </c>
       <c r="L75" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>10750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44322</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K76" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L76" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
         <v>30000</v>
       </c>
       <c r="K77" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M77" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2400</v>
+        <v>80000</v>
       </c>
       <c r="K78" t="n">
-        <v>15500</v>
+        <v>150</v>
       </c>
       <c r="L78" t="n">
-        <v>16000</v>
+        <v>180</v>
       </c>
       <c r="M78" t="n">
-        <v>15750</v>
+        <v>165</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44489</v>
+        <v>44160</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="L79" t="n">
-        <v>42000</v>
+        <v>18000</v>
       </c>
       <c r="M79" t="n">
-        <v>41000</v>
+        <v>17500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
       <c r="Q79" t="n">
         <v>70</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44209</v>
+        <v>44545</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>100000</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>230</v>
+        <v>13000</v>
       </c>
       <c r="L80" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>240</v>
+        <v>14000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="L81" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M81" t="n">
-        <v>21000</v>
+        <v>18750</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Q81" t="n">
         <v>70</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44280</v>
+        <v>44581</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K82" t="n">
+        <v>170</v>
+      </c>
+      <c r="L82" t="n">
         <v>200</v>
       </c>
-      <c r="L82" t="n">
-        <v>230</v>
-      </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44483</v>
+        <v>44581</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K83" t="n">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="L83" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="M83" t="n">
-        <v>40500</v>
+        <v>160</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>579</v>
+        <v>160</v>
       </c>
       <c r="Q83" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44476</v>
+        <v>44504</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K84" t="n">
-        <v>41000</v>
+        <v>37000</v>
       </c>
       <c r="L84" t="n">
-        <v>42000</v>
+        <v>39000</v>
       </c>
       <c r="M84" t="n">
-        <v>41500</v>
+        <v>38000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="Q84" t="n">
         <v>70</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44328</v>
+        <v>44573</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K85" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44328</v>
+        <v>44280</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L86" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44560</v>
+        <v>44266</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>720</v>
+        <v>30000</v>
       </c>
       <c r="K87" t="n">
-        <v>11000</v>
+        <v>120</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>130</v>
       </c>
       <c r="M87" t="n">
-        <v>11500</v>
+        <v>125</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="Q87" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44552</v>
+        <v>44266</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>660</v>
+        <v>40000</v>
       </c>
       <c r="K88" t="n">
-        <v>10500</v>
+        <v>120</v>
       </c>
       <c r="L88" t="n">
-        <v>11000</v>
+        <v>130</v>
       </c>
       <c r="M88" t="n">
-        <v>10750</v>
+        <v>125</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="Q88" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44286</v>
+        <v>44391</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>36000</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="L89" t="n">
-        <v>230</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>215</v>
+        <v>13500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44286</v>
+        <v>44371</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>32000</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
-        <v>150</v>
+        <v>12500</v>
       </c>
       <c r="L90" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="M90" t="n">
-        <v>175</v>
+        <v>12750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44482</v>
+        <v>44259</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>700</v>
+        <v>32000</v>
       </c>
       <c r="K91" t="n">
-        <v>41000</v>
+        <v>230</v>
       </c>
       <c r="L91" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M91" t="n">
-        <v>41500</v>
+        <v>240</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>593</v>
+        <v>240</v>
       </c>
       <c r="Q91" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44294</v>
+        <v>44328</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K92" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L92" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M92" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44294</v>
+        <v>44328</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="K93" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L93" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="M93" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44545</v>
+        <v>44489</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="L94" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="M94" t="n">
-        <v>14000</v>
+        <v>41000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>200</v>
+        <v>586</v>
       </c>
       <c r="Q94" t="n">
         <v>70</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44301</v>
+        <v>44167</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K95" t="n">
-        <v>150</v>
+        <v>15500</v>
       </c>
       <c r="L95" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="M95" t="n">
-        <v>175</v>
+        <v>15750</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44301</v>
+        <v>44335</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="K96" t="n">
         <v>80</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44335</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M97" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44322</v>
+        <v>44475</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="K98" t="n">
-        <v>80</v>
+        <v>39000</v>
       </c>
       <c r="L98" t="n">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="M98" t="n">
-        <v>90</v>
+        <v>39500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>90</v>
+        <v>564</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K99" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M99" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44490</v>
+        <v>44315</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K100" t="n">
-        <v>40000</v>
+        <v>70</v>
       </c>
       <c r="L100" t="n">
-        <v>42000</v>
+        <v>90</v>
       </c>
       <c r="M100" t="n">
-        <v>41000</v>
+        <v>80</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="Q100" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="K101" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L101" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M101" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K102" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>150</v>
       </c>
       <c r="M102" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K103" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L103" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M103" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44266</v>
+        <v>44314</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K104" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L104" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="M104" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44266</v>
+        <v>44560</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>40000</v>
+        <v>720</v>
       </c>
       <c r="K105" t="n">
-        <v>120</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>130</v>
+        <v>12000</v>
       </c>
       <c r="M105" t="n">
-        <v>125</v>
+        <v>11500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44279</v>
+        <v>44272</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="K106" t="n">
         <v>200</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44279</v>
+        <v>44385</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>50000</v>
+        <v>800</v>
       </c>
       <c r="K107" t="n">
-        <v>180</v>
+        <v>11500</v>
       </c>
       <c r="L107" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>190</v>
+        <v>11750</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q107" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44503</v>
+        <v>44321</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>39000</v>
+        <v>80</v>
       </c>
       <c r="L108" t="n">
-        <v>40000</v>
+        <v>100</v>
       </c>
       <c r="M108" t="n">
-        <v>39500</v>
+        <v>90</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>564</v>
+        <v>90</v>
       </c>
       <c r="Q108" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44384</v>
+        <v>44321</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8201,24 +8201,24 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>700</v>
+        <v>32000</v>
       </c>
       <c r="K109" t="n">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>70</v>
       </c>
       <c r="M109" t="n">
-        <v>12500</v>
+        <v>60</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="Q109" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44384</v>
+        <v>44209</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K110" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L110" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M110" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44321</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44517</v>
+        <v>44321</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>32000</v>
       </c>
       <c r="K3" t="n">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>22000</v>
+        <v>70</v>
       </c>
       <c r="M3" t="n">
-        <v>21000</v>
+        <v>60</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>39500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>90000</v>
+        <v>2000</v>
       </c>
       <c r="K5" t="n">
-        <v>130</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>150</v>
+        <v>16500</v>
       </c>
       <c r="M5" t="n">
-        <v>140</v>
+        <v>16250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44503</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
-        <v>80</v>
+        <v>39000</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>39500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>90</v>
+        <v>564</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44384</v>
+        <v>44371</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L7" t="n">
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="n">
         <v>60</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44384</v>
+        <v>44364</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
-        <v>220</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44273</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>230</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>215</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44363</v>
+        <v>44293</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1200</v>
+        <v>44000</v>
       </c>
       <c r="K10" t="n">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>9000</v>
+        <v>190</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q10" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>50000</v>
       </c>
       <c r="K12" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="L12" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>18500</v>
       </c>
       <c r="L13" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="M13" t="n">
-        <v>125</v>
+        <v>18750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44307</v>
+        <v>44266</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K14" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44286</v>
+        <v>44266</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L15" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44286</v>
+        <v>44517</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>32000</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="L16" t="n">
-        <v>200</v>
+        <v>22000</v>
       </c>
       <c r="M16" t="n">
-        <v>175</v>
+        <v>21000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44245</v>
+        <v>44286</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K17" t="n">
         <v>200</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44245</v>
+        <v>44286</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L18" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44181</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L19" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Q19" t="n">
         <v>70</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44490</v>
+        <v>44259</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>32000</v>
       </c>
       <c r="K20" t="n">
-        <v>40000</v>
+        <v>230</v>
       </c>
       <c r="L20" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M20" t="n">
-        <v>41000</v>
+        <v>240</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>586</v>
+        <v>240</v>
       </c>
       <c r="Q20" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44273</v>
+        <v>44224</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L21" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M21" t="n">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44503</v>
+        <v>44308</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="K22" t="n">
-        <v>39000</v>
+        <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="M22" t="n">
-        <v>39500</v>
+        <v>125</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>564</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K23" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L23" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M23" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,16 +2076,16 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="K24" t="n">
         <v>80</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L25" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="M25" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44294</v>
+        <v>44476</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>41000</v>
       </c>
       <c r="L26" t="n">
-        <v>220</v>
+        <v>42000</v>
       </c>
       <c r="M26" t="n">
-        <v>210</v>
+        <v>41500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>210</v>
+        <v>593</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44294</v>
+        <v>44545</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>36000</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>120</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>140</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>130</v>
+        <v>14000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44497</v>
+        <v>44580</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>120000</v>
       </c>
       <c r="K28" t="n">
-        <v>39000</v>
+        <v>170</v>
       </c>
       <c r="L28" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="M28" t="n">
-        <v>39500</v>
+        <v>185</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>564</v>
+        <v>185</v>
       </c>
       <c r="Q28" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44482</v>
+        <v>44580</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>700</v>
+        <v>80000</v>
       </c>
       <c r="K29" t="n">
-        <v>41000</v>
+        <v>150</v>
       </c>
       <c r="L29" t="n">
-        <v>42000</v>
+        <v>170</v>
       </c>
       <c r="M29" t="n">
-        <v>41500</v>
+        <v>160</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>593</v>
+        <v>160</v>
       </c>
       <c r="Q29" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44546</v>
+        <v>44391</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,17 +2520,17 @@
         <v>600</v>
       </c>
       <c r="K30" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
         <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="Q30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44559</v>
+        <v>44307</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>12000</v>
+        <v>150</v>
       </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>125</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="Q31" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44483</v>
+        <v>44307</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="K32" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L32" t="n">
-        <v>41000</v>
+        <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>40500</v>
+        <v>90</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>579</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44244</v>
+        <v>44209</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="K33" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L33" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M33" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44181</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>30000</v>
+        <v>900</v>
       </c>
       <c r="K34" t="n">
-        <v>160</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>180</v>
+        <v>11000</v>
       </c>
       <c r="M34" t="n">
-        <v>170</v>
+        <v>10500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q35" t="n">
         <v>60</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44384</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80000</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>275</v>
+        <v>12500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44230</v>
+        <v>44384</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="K37" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="M37" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44168</v>
+        <v>44594</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K38" t="n">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="L38" t="n">
-        <v>16500</v>
+        <v>180</v>
       </c>
       <c r="M38" t="n">
-        <v>16250</v>
+        <v>165</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="Q38" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="K39" t="n">
+        <v>80</v>
+      </c>
+      <c r="L39" t="n">
         <v>100</v>
       </c>
-      <c r="L39" t="n">
-        <v>150</v>
-      </c>
       <c r="M39" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,25 +3228,25 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="K40" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44308</v>
+        <v>44406</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K41" t="n">
-        <v>80</v>
+        <v>19000</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>19500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44308</v>
+        <v>44245</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,25 +3372,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K42" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L42" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44349</v>
+        <v>44245</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,25 +3444,25 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>70000</v>
+        <v>28000</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="L43" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44349</v>
+        <v>44510</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,36 +3521,36 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50000</v>
+        <v>1100</v>
       </c>
       <c r="K44" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q44" t="n">
         <v>70</v>
-      </c>
-      <c r="L44" t="n">
-        <v>80</v>
-      </c>
-      <c r="M44" t="n">
-        <v>75</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44231</v>
+        <v>44350</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,25 +3660,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="K46" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L46" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44293</v>
+        <v>44574</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="K47" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M47" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44293</v>
+        <v>44328</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K48" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="L48" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M48" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44293</v>
+        <v>44328</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K49" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L49" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="M49" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44237</v>
+        <v>44230</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3960,13 +3960,13 @@
         <v>110000</v>
       </c>
       <c r="K50" t="n">
+        <v>250</v>
+      </c>
+      <c r="L50" t="n">
         <v>300</v>
       </c>
-      <c r="L50" t="n">
-        <v>350</v>
-      </c>
       <c r="M50" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44237</v>
+        <v>44546</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80000</v>
+        <v>600</v>
       </c>
       <c r="K51" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="L51" t="n">
-        <v>280</v>
+        <v>14000</v>
       </c>
       <c r="M51" t="n">
-        <v>265</v>
+        <v>13000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K52" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44336</v>
+        <v>44322</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="K53" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L53" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44258</v>
+        <v>44322</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,25 +4236,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>30000</v>
       </c>
       <c r="K54" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="L54" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M54" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44350</v>
+        <v>44560</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>720</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>11000</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44350</v>
+        <v>44475</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,36 +4385,36 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>564</v>
+      </c>
+      <c r="Q56" t="n">
         <v>70</v>
-      </c>
-      <c r="L56" t="n">
-        <v>70</v>
-      </c>
-      <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44329</v>
+        <v>44244</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="K57" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="M57" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44329</v>
+        <v>44244</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K58" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="L58" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M58" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44553</v>
+        <v>44356</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L59" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M59" t="n">
-        <v>14000</v>
+        <v>7750</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="Q59" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44476</v>
+        <v>44356</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>100000</v>
       </c>
       <c r="K60" t="n">
-        <v>41000</v>
+        <v>130</v>
       </c>
       <c r="L60" t="n">
-        <v>42000</v>
+        <v>150</v>
       </c>
       <c r="M60" t="n">
-        <v>41500</v>
+        <v>140</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>593</v>
+        <v>140</v>
       </c>
       <c r="Q60" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44252</v>
+        <v>44356</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K61" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L61" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44252</v>
+        <v>44482</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K62" t="n">
-        <v>150</v>
+        <v>41000</v>
       </c>
       <c r="L62" t="n">
-        <v>160</v>
+        <v>42000</v>
       </c>
       <c r="M62" t="n">
-        <v>155</v>
+        <v>41500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>155</v>
+        <v>593</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44524</v>
+        <v>44210</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K63" t="n">
-        <v>19000</v>
+        <v>170</v>
       </c>
       <c r="L63" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>19500</v>
+        <v>185</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44356</v>
+        <v>44175</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2000</v>
+        <v>80000</v>
       </c>
       <c r="K66" t="n">
-        <v>7500</v>
+        <v>150</v>
       </c>
       <c r="L66" t="n">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="M66" t="n">
-        <v>7750</v>
+        <v>165</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="Q66" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44356</v>
+        <v>44237</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="K67" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="L67" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M67" t="n">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44356</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K68" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="M68" t="n">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44580</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="K69" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L69" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M69" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44580</v>
+        <v>44300</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K70" t="n">
+        <v>100</v>
+      </c>
+      <c r="L70" t="n">
         <v>150</v>
       </c>
-      <c r="L70" t="n">
-        <v>170</v>
-      </c>
       <c r="M70" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44510</v>
+        <v>44252</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>28000</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>30000</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>29000</v>
+        <v>210</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>414</v>
+        <v>210</v>
       </c>
       <c r="Q71" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44364</v>
+        <v>44252</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,29 +5532,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="K72" t="n">
-        <v>8000</v>
+        <v>150</v>
       </c>
       <c r="L72" t="n">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="M72" t="n">
-        <v>9000</v>
+        <v>155</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q72" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44279</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="K73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M73" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44279</v>
+        <v>44343</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>50000</v>
       </c>
       <c r="K74" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="L74" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M74" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44552</v>
+        <v>44315</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>660</v>
+        <v>44000</v>
       </c>
       <c r="K75" t="n">
-        <v>10500</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>11000</v>
+        <v>120</v>
       </c>
       <c r="M75" t="n">
-        <v>10750</v>
+        <v>110</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,17 +5829,17 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K76" t="n">
+        <v>70</v>
+      </c>
+      <c r="L76" t="n">
+        <v>90</v>
+      </c>
+      <c r="M76" t="n">
         <v>80</v>
       </c>
-      <c r="L76" t="n">
-        <v>100</v>
-      </c>
-      <c r="M76" t="n">
-        <v>90</v>
-      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44322</v>
+        <v>44336</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="K77" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L77" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44175</v>
+        <v>44336</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="K78" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L78" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="M78" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>120000</v>
       </c>
       <c r="K79" t="n">
-        <v>17000</v>
+        <v>200</v>
       </c>
       <c r="L79" t="n">
-        <v>18000</v>
+        <v>300</v>
       </c>
       <c r="M79" t="n">
-        <v>17500</v>
+        <v>250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6070,7 +6070,7 @@
         <v>250</v>
       </c>
       <c r="Q79" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44545</v>
+        <v>44573</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>40000</v>
       </c>
       <c r="K80" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L80" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M80" t="n">
-        <v>14000</v>
+        <v>225</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44161</v>
+        <v>44280</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K81" t="n">
-        <v>18500</v>
+        <v>200</v>
       </c>
       <c r="L81" t="n">
-        <v>19000</v>
+        <v>230</v>
       </c>
       <c r="M81" t="n">
-        <v>18750</v>
+        <v>215</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="K82" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L82" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M82" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K83" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44504</v>
+        <v>44581</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="K84" t="n">
-        <v>37000</v>
+        <v>170</v>
       </c>
       <c r="L84" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M84" t="n">
-        <v>38000</v>
+        <v>185</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>543</v>
+        <v>185</v>
       </c>
       <c r="Q84" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44573</v>
+        <v>44581</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K85" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L85" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="M85" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44553</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,32 +6549,32 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M86" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>200</v>
       </c>
-      <c r="L86" t="n">
-        <v>230</v>
-      </c>
-      <c r="M86" t="n">
-        <v>215</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>215</v>
-      </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44266</v>
+        <v>44490</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="L87" t="n">
-        <v>130</v>
+        <v>42000</v>
       </c>
       <c r="M87" t="n">
-        <v>125</v>
+        <v>41000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>125</v>
+        <v>586</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44266</v>
+        <v>44329</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K88" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44391</v>
+        <v>44329</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K89" t="n">
-        <v>13000</v>
+        <v>60</v>
       </c>
       <c r="L89" t="n">
-        <v>14000</v>
+        <v>70</v>
       </c>
       <c r="M89" t="n">
-        <v>13500</v>
+        <v>65</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="Q89" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44371</v>
+        <v>44524</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L90" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M90" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="Q90" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44259</v>
+        <v>44483</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="L91" t="n">
-        <v>250</v>
+        <v>41000</v>
       </c>
       <c r="M91" t="n">
-        <v>240</v>
+        <v>40500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>240</v>
+        <v>579</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L92" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M92" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="K93" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L93" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M93" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44167</v>
+        <v>44279</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2400</v>
+        <v>32000</v>
       </c>
       <c r="K95" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M95" t="n">
-        <v>15750</v>
+        <v>225</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7222,7 +7222,7 @@
         <v>225</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44335</v>
+        <v>44279</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K96" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="L96" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M96" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44335</v>
+        <v>44504</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7337,36 +7337,36 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>37000</v>
       </c>
       <c r="L97" t="n">
+        <v>39000</v>
+      </c>
+      <c r="M97" t="n">
+        <v>38000</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>543</v>
+      </c>
+      <c r="Q97" t="n">
         <v>70</v>
-      </c>
-      <c r="M97" t="n">
-        <v>60</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44475</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="K98" t="n">
-        <v>39000</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>39500</v>
+        <v>175</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>564</v>
+        <v>175</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>44000</v>
+        <v>24000</v>
       </c>
       <c r="K99" t="n">
+        <v>80</v>
+      </c>
+      <c r="L99" t="n">
         <v>100</v>
       </c>
-      <c r="L99" t="n">
-        <v>120</v>
-      </c>
       <c r="M99" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K100" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M100" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44300</v>
+        <v>44370</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>40000</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L101" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M101" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>50000</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L102" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M102" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44314</v>
+        <v>44272</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K103" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L103" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M103" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44314</v>
+        <v>44167</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,32 +7845,32 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>100000</v>
+        <v>2400</v>
       </c>
       <c r="K104" t="n">
+        <v>15500</v>
+      </c>
+      <c r="L104" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>15750</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q104" t="n">
         <v>70</v>
-      </c>
-      <c r="L104" t="n">
-        <v>80</v>
-      </c>
-      <c r="M104" t="n">
-        <v>75</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44560</v>
+        <v>44258</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>720</v>
+        <v>30000</v>
       </c>
       <c r="K105" t="n">
-        <v>11000</v>
+        <v>230</v>
       </c>
       <c r="L105" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="M105" t="n">
-        <v>11500</v>
+        <v>240</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="Q105" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44272</v>
+        <v>44349</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M106" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8057,24 +8057,24 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K107" t="n">
-        <v>11500</v>
+        <v>70</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="M107" t="n">
-        <v>11750</v>
+        <v>75</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Q107" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44321</v>
+        <v>44335</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K108" t="n">
         <v>80</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44321</v>
+        <v>44335</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K109" t="n">
         <v>50</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44209</v>
+        <v>44552</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,34 +8277,106 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>100000</v>
+        <v>660</v>
       </c>
       <c r="K110" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L110" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M110" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>70</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K111" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M111" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>250</v>
       </c>
-      <c r="M110" t="n">
-        <v>240</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>240</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" t="inlineStr">
+      <c r="Q111" t="n">
+        <v>70</v>
+      </c>
+      <c r="R111" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L108" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M108" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K109" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L109" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M109" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8273,24 +8273,24 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>660</v>
+        <v>50000</v>
       </c>
       <c r="K110" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M110" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q110" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1100</v>
+        <v>660</v>
       </c>
       <c r="K111" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="L111" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M111" t="n">
-        <v>17500</v>
+        <v>10750</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,12 +8371,84 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="Q111" t="n">
         <v>70</v>
       </c>
       <c r="R111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K112" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M112" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>70</v>
+      </c>
+      <c r="R112" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44230</v>
+        <v>44601</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K50" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M50" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44546</v>
+        <v>44230</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>600</v>
+        <v>110000</v>
       </c>
       <c r="K51" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L51" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M51" t="n">
-        <v>13000</v>
+        <v>275</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44363</v>
+        <v>44546</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Q52" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44322</v>
+        <v>44363</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60000</v>
+        <v>1200</v>
       </c>
       <c r="K53" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K54" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L54" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44560</v>
+        <v>44322</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,24 +4313,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>720</v>
+        <v>30000</v>
       </c>
       <c r="K55" t="n">
-        <v>11000</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M55" t="n">
-        <v>11500</v>
+        <v>60</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="Q55" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44475</v>
+        <v>44560</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K56" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="L56" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M56" t="n">
-        <v>39500</v>
+        <v>11500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>564</v>
+        <v>164</v>
       </c>
       <c r="Q56" t="n">
         <v>70</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44244</v>
+        <v>44475</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>110000</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L57" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="M57" t="n">
-        <v>215</v>
+        <v>39500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K58" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L58" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M58" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44356</v>
+        <v>44244</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K59" t="n">
-        <v>7500</v>
+        <v>160</v>
       </c>
       <c r="L59" t="n">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="M59" t="n">
-        <v>7750</v>
+        <v>170</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="Q59" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K60" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="L60" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>7750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K61" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44482</v>
+        <v>44356</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,24 +4817,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>700</v>
+        <v>40000</v>
       </c>
       <c r="K62" t="n">
-        <v>41000</v>
+        <v>80</v>
       </c>
       <c r="L62" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>41500</v>
+        <v>90</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>593</v>
+        <v>90</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44210</v>
+        <v>44482</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80000</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>170</v>
+        <v>41000</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="M63" t="n">
-        <v>185</v>
+        <v>41500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>185</v>
+        <v>593</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44238</v>
+        <v>44210</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K64" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="L64" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M64" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K65" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L65" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M65" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K66" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M66" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44237</v>
+        <v>44175</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K67" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L67" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="M67" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K68" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M68" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L69" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M69" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M70" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44252</v>
+        <v>44300</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M71" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M72" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44252</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L73" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M73" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K74" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M74" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L75" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M75" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K76" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44336</v>
+        <v>44315</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,14 +5904,14 @@
         <v>50000</v>
       </c>
       <c r="K77" t="n">
+        <v>70</v>
+      </c>
+      <c r="L77" t="n">
+        <v>90</v>
+      </c>
+      <c r="M77" t="n">
         <v>80</v>
       </c>
-      <c r="L77" t="n">
-        <v>100</v>
-      </c>
-      <c r="M77" t="n">
-        <v>90</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K78" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L78" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="K79" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L79" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M79" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44573</v>
+        <v>44231</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,17 +6117,17 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K80" t="n">
         <v>200</v>
       </c>
       <c r="L80" t="n">
+        <v>300</v>
+      </c>
+      <c r="M80" t="n">
         <v>250</v>
       </c>
-      <c r="M80" t="n">
-        <v>225</v>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K81" t="n">
         <v>200</v>
       </c>
       <c r="L81" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M81" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44357</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="K82" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M82" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K85" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L85" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M85" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K86" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L86" t="n">
-        <v>15000</v>
+        <v>170</v>
       </c>
       <c r="M86" t="n">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>41000</v>
+        <v>14000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>586</v>
+        <v>200</v>
       </c>
       <c r="Q87" t="n">
         <v>70</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44329</v>
+        <v>44490</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>41000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K89" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44524</v>
+        <v>44329</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,24 +6833,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K90" t="n">
-        <v>19000</v>
+        <v>60</v>
       </c>
       <c r="L90" t="n">
-        <v>20000</v>
+        <v>70</v>
       </c>
       <c r="M90" t="n">
-        <v>19500</v>
+        <v>65</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44483</v>
+        <v>44524</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6912,13 +6912,13 @@
         <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="L91" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="M91" t="n">
-        <v>40500</v>
+        <v>19500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>579</v>
+        <v>279</v>
       </c>
       <c r="Q91" t="n">
         <v>70</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44294</v>
+        <v>44483</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L92" t="n">
-        <v>220</v>
+        <v>41000</v>
       </c>
       <c r="M92" t="n">
-        <v>210</v>
+        <v>40500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>210</v>
+        <v>579</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M93" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44489</v>
+        <v>44294</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>36000</v>
       </c>
       <c r="K94" t="n">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="L94" t="n">
-        <v>42000</v>
+        <v>140</v>
       </c>
       <c r="M94" t="n">
-        <v>41000</v>
+        <v>130</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>586</v>
+        <v>130</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44279</v>
+        <v>44489</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>32000</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L95" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M95" t="n">
-        <v>225</v>
+        <v>41000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>225</v>
+        <v>586</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K96" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L96" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M96" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K97" t="n">
-        <v>37000</v>
+        <v>180</v>
       </c>
       <c r="L97" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M97" t="n">
-        <v>38000</v>
+        <v>190</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="Q97" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44301</v>
+        <v>44504</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K98" t="n">
-        <v>150</v>
+        <v>37000</v>
       </c>
       <c r="L98" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="M98" t="n">
-        <v>175</v>
+        <v>38000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K99" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L99" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M99" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K100" t="n">
+        <v>80</v>
+      </c>
+      <c r="L100" t="n">
         <v>100</v>
       </c>
-      <c r="L100" t="n">
-        <v>150</v>
-      </c>
       <c r="M100" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>70000</v>
       </c>
       <c r="K101" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M101" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q101" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L102" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M102" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q102" t="n">
         <v>60</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L103" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>225</v>
+        <v>11750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K104" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L104" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M104" t="n">
-        <v>15750</v>
+        <v>225</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7870,7 +7870,7 @@
         <v>225</v>
       </c>
       <c r="Q104" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K105" t="n">
-        <v>230</v>
+        <v>15500</v>
       </c>
       <c r="L105" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>240</v>
+        <v>15750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K106" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L106" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M106" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K107" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M107" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L108" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="M108" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K109" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L109" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M109" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K110" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L110" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M110" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>660</v>
+        <v>50000</v>
       </c>
       <c r="K111" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L111" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M111" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q111" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1100</v>
+        <v>660</v>
       </c>
       <c r="K112" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="L112" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>17500</v>
+        <v>10750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,12 +8443,84 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="Q112" t="n">
         <v>70</v>
       </c>
       <c r="R112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K113" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M113" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>70</v>
+      </c>
+      <c r="R113" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44293</v>
+        <v>44602</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>44000</v>
+        <v>70000</v>
       </c>
       <c r="K10" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="L10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="K11" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L12" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44161</v>
+        <v>44293</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K13" t="n">
-        <v>18500</v>
+        <v>120</v>
       </c>
       <c r="L13" t="n">
-        <v>19000</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>18750</v>
+        <v>130</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44266</v>
+        <v>44161</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>120</v>
+        <v>18500</v>
       </c>
       <c r="L14" t="n">
-        <v>130</v>
+        <v>19000</v>
       </c>
       <c r="M14" t="n">
-        <v>125</v>
+        <v>18750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K15" t="n">
         <v>120</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44517</v>
+        <v>44266</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="K16" t="n">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="L16" t="n">
-        <v>22000</v>
+        <v>130</v>
       </c>
       <c r="M16" t="n">
-        <v>21000</v>
+        <v>125</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44286</v>
+        <v>44517</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>36000</v>
+        <v>1100</v>
       </c>
       <c r="K17" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="L17" t="n">
-        <v>230</v>
+        <v>22000</v>
       </c>
       <c r="M17" t="n">
-        <v>215</v>
+        <v>21000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="K18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L18" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M18" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44559</v>
+        <v>44286</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>32000</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>150</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
-        <v>11500</v>
+        <v>175</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44259</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>32000</v>
+        <v>600</v>
       </c>
       <c r="K20" t="n">
-        <v>230</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>240</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44224</v>
+        <v>44259</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="K21" t="n">
+        <v>230</v>
+      </c>
+      <c r="L21" t="n">
         <v>250</v>
       </c>
-      <c r="L21" t="n">
-        <v>300</v>
-      </c>
       <c r="M21" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44308</v>
+        <v>44224</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>26000</v>
+        <v>80000</v>
       </c>
       <c r="K22" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L22" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M22" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44476</v>
+        <v>44308</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2225,24 +2225,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K26" t="n">
-        <v>41000</v>
+        <v>50</v>
       </c>
       <c r="L26" t="n">
-        <v>42000</v>
+        <v>60</v>
       </c>
       <c r="M26" t="n">
-        <v>41500</v>
+        <v>55</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="Q26" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44482</v>
+        <v>44210</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>80000</v>
       </c>
       <c r="K63" t="n">
-        <v>41000</v>
+        <v>170</v>
       </c>
       <c r="L63" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>41500</v>
+        <v>185</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44210</v>
+        <v>44238</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="K64" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="L64" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M64" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K65" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L65" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44238</v>
+        <v>44175</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="K66" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L66" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="M66" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44175</v>
+        <v>44237</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K67" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L67" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="M67" t="n">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K68" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L68" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M68" t="n">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L69" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M69" t="n">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M70" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L72" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="M72" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44252</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K73" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M73" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K74" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L74" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M74" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K75" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M75" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="K76" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L76" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44315</v>
+        <v>44336</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,14 +5904,14 @@
         <v>50000</v>
       </c>
       <c r="K77" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L77" t="n">
+        <v>100</v>
+      </c>
+      <c r="M77" t="n">
         <v>90</v>
       </c>
-      <c r="M77" t="n">
-        <v>80</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K78" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L78" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="K79" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L79" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44231</v>
+        <v>44573</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="K80" t="n">
         <v>200</v>
       </c>
       <c r="L80" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44573</v>
+        <v>44280</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="K81" t="n">
         <v>200</v>
       </c>
       <c r="L81" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M81" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44280</v>
+        <v>44357</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="K82" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="L82" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K83" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44357</v>
+        <v>44581</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K84" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L84" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="K85" t="n">
+        <v>150</v>
+      </c>
+      <c r="L85" t="n">
         <v>170</v>
       </c>
-      <c r="L85" t="n">
-        <v>200</v>
-      </c>
       <c r="M85" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44581</v>
+        <v>44553</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>60000</v>
+        <v>600</v>
       </c>
       <c r="K86" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="L86" t="n">
-        <v>170</v>
+        <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>160</v>
+        <v>14000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44553</v>
+        <v>44490</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="L87" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="M87" t="n">
-        <v>14000</v>
+        <v>41000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>200</v>
+        <v>586</v>
       </c>
       <c r="Q87" t="n">
         <v>70</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44490</v>
+        <v>44329</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K88" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q88" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K89" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44329</v>
+        <v>44524</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,36 +6833,36 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>60</v>
+        <v>19000</v>
       </c>
       <c r="L90" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M90" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q90" t="n">
         <v>70</v>
-      </c>
-      <c r="M90" t="n">
-        <v>65</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44524</v>
+        <v>44483</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6912,13 +6912,13 @@
         <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L91" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="M91" t="n">
-        <v>19500</v>
+        <v>40500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>279</v>
+        <v>579</v>
       </c>
       <c r="Q91" t="n">
         <v>70</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44483</v>
+        <v>44294</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K92" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L92" t="n">
-        <v>41000</v>
+        <v>220</v>
       </c>
       <c r="M92" t="n">
-        <v>40500</v>
+        <v>210</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>579</v>
+        <v>210</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L93" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M93" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44294</v>
+        <v>44489</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>36000</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>120</v>
+        <v>40000</v>
       </c>
       <c r="L94" t="n">
-        <v>140</v>
+        <v>42000</v>
       </c>
       <c r="M94" t="n">
-        <v>130</v>
+        <v>41000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>130</v>
+        <v>586</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44489</v>
+        <v>44279</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>32000</v>
       </c>
       <c r="K95" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>42000</v>
+        <v>250</v>
       </c>
       <c r="M95" t="n">
-        <v>41000</v>
+        <v>225</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="K96" t="n">
+        <v>180</v>
+      </c>
+      <c r="L96" t="n">
         <v>200</v>
       </c>
-      <c r="L96" t="n">
-        <v>250</v>
-      </c>
       <c r="M96" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44279</v>
+        <v>44504</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>180</v>
+        <v>37000</v>
       </c>
       <c r="L97" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="M97" t="n">
-        <v>190</v>
+        <v>38000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>190</v>
+        <v>543</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44504</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="K98" t="n">
-        <v>37000</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>38000</v>
+        <v>175</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>543</v>
+        <v>175</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K99" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>24000</v>
+        <v>70000</v>
       </c>
       <c r="K100" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M100" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44301</v>
+        <v>44370</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>70000</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="L101" t="n">
-        <v>150</v>
+        <v>13000</v>
       </c>
       <c r="M101" t="n">
-        <v>125</v>
+        <v>12500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44370</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L102" t="n">
         <v>12000</v>
       </c>
-      <c r="L102" t="n">
-        <v>13000</v>
-      </c>
       <c r="M102" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="Q102" t="n">
         <v>60</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="K103" t="n">
-        <v>11500</v>
+        <v>200</v>
       </c>
       <c r="L103" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="M103" t="n">
-        <v>11750</v>
+        <v>225</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="Q103" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44272</v>
+        <v>44167</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K104" t="n">
-        <v>200</v>
+        <v>15500</v>
       </c>
       <c r="L104" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M104" t="n">
-        <v>225</v>
+        <v>15750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7870,7 +7870,7 @@
         <v>225</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44167</v>
+        <v>44258</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K105" t="n">
-        <v>15500</v>
+        <v>230</v>
       </c>
       <c r="L105" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M105" t="n">
-        <v>15750</v>
+        <v>240</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q105" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K106" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M106" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K107" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L107" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M107" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44349</v>
+        <v>44595</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L108" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M108" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44595</v>
+        <v>44335</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K109" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L109" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M109" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K110" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M110" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44335</v>
+        <v>44552</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,36 +8345,36 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50000</v>
+        <v>660</v>
       </c>
       <c r="K111" t="n">
-        <v>50</v>
+        <v>10500</v>
       </c>
       <c r="L111" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M111" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q111" t="n">
         <v>70</v>
-      </c>
-      <c r="M111" t="n">
-        <v>60</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44552</v>
+        <v>44160</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>660</v>
+        <v>1100</v>
       </c>
       <c r="K112" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M112" t="n">
-        <v>10750</v>
+        <v>17500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,84 +8443,12 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="Q112" t="n">
         <v>70</v>
       </c>
       <c r="R112" t="inlineStr">
-        <is>
-          <t>Hortaliza</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Comercializadora del Agro de Limarí</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>44160</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Dulce o Americano</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>1100</v>
-      </c>
-      <c r="K113" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L113" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M113" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>250</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>70</v>
-      </c>
-      <c r="R113" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44308</v>
+        <v>44608</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>26000</v>
+        <v>70000</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L23" t="n">
         <v>150</v>
       </c>
       <c r="M23" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="K25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44545</v>
+        <v>44308</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,24 +2297,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>40000</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>60</v>
       </c>
       <c r="M27" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="Q27" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44580</v>
+        <v>44545</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,32 +2373,32 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120000</v>
+        <v>700</v>
       </c>
       <c r="K28" t="n">
-        <v>170</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>200</v>
       </c>
-      <c r="M28" t="n">
-        <v>185</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>185</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="K29" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L29" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44391</v>
+        <v>44580</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>600</v>
+        <v>80000</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>170</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>160</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="Q30" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44307</v>
+        <v>44391</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2589,20 +2589,20 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>150</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>125</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44209</v>
+        <v>44307</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K33" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="L33" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="M33" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44181</v>
+        <v>44209</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>900</v>
+        <v>100000</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="L34" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M34" t="n">
-        <v>10500</v>
+        <v>240</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="Q34" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44377</v>
+        <v>44181</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44384</v>
+        <v>44377</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q36" t="n">
         <v>60</v>
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>220</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>210</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44594</v>
+        <v>44384</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3096,13 +3096,13 @@
         <v>40000</v>
       </c>
       <c r="K38" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L38" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M38" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44314</v>
+        <v>44594</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3168,13 +3168,13 @@
         <v>40000</v>
       </c>
       <c r="K39" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="K40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M40" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44406</v>
+        <v>44314</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1100</v>
+        <v>100000</v>
       </c>
       <c r="K41" t="n">
-        <v>19000</v>
+        <v>70</v>
       </c>
       <c r="L41" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="M41" t="n">
-        <v>19500</v>
+        <v>75</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="Q41" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44245</v>
+        <v>44406</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>32000</v>
+        <v>1100</v>
       </c>
       <c r="K42" t="n">
-        <v>200</v>
+        <v>19000</v>
       </c>
       <c r="L42" t="n">
-        <v>230</v>
+        <v>20000</v>
       </c>
       <c r="M42" t="n">
-        <v>215</v>
+        <v>19500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="K43" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L43" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M43" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44510</v>
+        <v>44245</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1100</v>
+        <v>28000</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>160</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>180</v>
       </c>
       <c r="M44" t="n">
-        <v>29000</v>
+        <v>170</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>414</v>
+        <v>170</v>
       </c>
       <c r="Q44" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44350</v>
+        <v>44510</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K45" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L45" t="n">
         <v>30000</v>
       </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>100</v>
-      </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>29000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K46" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="K47" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L47" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="M47" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44328</v>
+        <v>44574</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="K48" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L48" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M48" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K49" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L49" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44601</v>
+        <v>44328</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L50" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M50" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44230</v>
+        <v>44601</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="K51" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M51" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44546</v>
+        <v>44230</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>110000</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M52" t="n">
-        <v>13000</v>
+        <v>275</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44363</v>
+        <v>44546</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Q53" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44322</v>
+        <v>44363</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60000</v>
+        <v>1200</v>
       </c>
       <c r="K54" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L55" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44560</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,24 +4385,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>720</v>
+        <v>30000</v>
       </c>
       <c r="K56" t="n">
-        <v>11000</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
-        <v>12000</v>
+        <v>70</v>
       </c>
       <c r="M56" t="n">
-        <v>11500</v>
+        <v>60</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44475</v>
+        <v>44560</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="K57" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="L57" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M57" t="n">
-        <v>39500</v>
+        <v>11500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>564</v>
+        <v>164</v>
       </c>
       <c r="Q57" t="n">
         <v>70</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44244</v>
+        <v>44475</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>110000</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="L58" t="n">
-        <v>230</v>
+        <v>40000</v>
       </c>
       <c r="M58" t="n">
-        <v>215</v>
+        <v>39500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="K59" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L59" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M59" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44356</v>
+        <v>44244</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K60" t="n">
-        <v>7500</v>
+        <v>160</v>
       </c>
       <c r="L60" t="n">
-        <v>8000</v>
+        <v>180</v>
       </c>
       <c r="M60" t="n">
-        <v>7750</v>
+        <v>170</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="Q60" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K61" t="n">
-        <v>130</v>
+        <v>7500</v>
       </c>
       <c r="L61" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>140</v>
+        <v>7750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="K62" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L62" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44210</v>
+        <v>44356</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="K63" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44238</v>
+        <v>44210</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="K64" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="L64" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M64" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K65" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L65" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M65" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K66" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M66" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44237</v>
+        <v>44175</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="K67" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L67" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="M67" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="K68" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M68" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="K69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L69" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M69" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M70" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44252</v>
+        <v>44300</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>50000</v>
       </c>
       <c r="K71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M71" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L72" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M72" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44252</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,25 +5604,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L73" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M73" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K74" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M74" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L75" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M75" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K76" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44336</v>
+        <v>44315</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,14 +5904,14 @@
         <v>50000</v>
       </c>
       <c r="K77" t="n">
+        <v>70</v>
+      </c>
+      <c r="L77" t="n">
+        <v>90</v>
+      </c>
+      <c r="M77" t="n">
         <v>80</v>
       </c>
-      <c r="L77" t="n">
-        <v>100</v>
-      </c>
-      <c r="M77" t="n">
-        <v>90</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K78" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L78" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="K79" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L79" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M79" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44573</v>
+        <v>44231</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,17 +6117,17 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K80" t="n">
         <v>200</v>
       </c>
       <c r="L80" t="n">
+        <v>300</v>
+      </c>
+      <c r="M80" t="n">
         <v>250</v>
       </c>
-      <c r="M80" t="n">
-        <v>225</v>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K81" t="n">
         <v>200</v>
       </c>
       <c r="L81" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M81" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44357</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="K82" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M82" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,25 +6396,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K84" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K85" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L85" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M85" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K86" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L86" t="n">
-        <v>15000</v>
+        <v>170</v>
       </c>
       <c r="M86" t="n">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>41000</v>
+        <v>14000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>586</v>
+        <v>200</v>
       </c>
       <c r="Q87" t="n">
         <v>70</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44329</v>
+        <v>44490</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>41000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K89" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44524</v>
+        <v>44329</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,24 +6833,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K90" t="n">
-        <v>19000</v>
+        <v>60</v>
       </c>
       <c r="L90" t="n">
-        <v>20000</v>
+        <v>70</v>
       </c>
       <c r="M90" t="n">
-        <v>19500</v>
+        <v>65</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44483</v>
+        <v>44524</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6912,13 +6912,13 @@
         <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="L91" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="M91" t="n">
-        <v>40500</v>
+        <v>19500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>579</v>
+        <v>279</v>
       </c>
       <c r="Q91" t="n">
         <v>70</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44294</v>
+        <v>44483</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L92" t="n">
-        <v>220</v>
+        <v>41000</v>
       </c>
       <c r="M92" t="n">
-        <v>210</v>
+        <v>40500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>210</v>
+        <v>579</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M93" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44489</v>
+        <v>44294</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>36000</v>
       </c>
       <c r="K94" t="n">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="L94" t="n">
-        <v>42000</v>
+        <v>140</v>
       </c>
       <c r="M94" t="n">
-        <v>41000</v>
+        <v>130</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>586</v>
+        <v>130</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44279</v>
+        <v>44489</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>32000</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L95" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M95" t="n">
-        <v>225</v>
+        <v>41000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>225</v>
+        <v>586</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K96" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L96" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M96" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K97" t="n">
-        <v>37000</v>
+        <v>180</v>
       </c>
       <c r="L97" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M97" t="n">
-        <v>38000</v>
+        <v>190</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="Q97" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44301</v>
+        <v>44504</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K98" t="n">
-        <v>150</v>
+        <v>37000</v>
       </c>
       <c r="L98" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="M98" t="n">
-        <v>175</v>
+        <v>38000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K99" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L99" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M99" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K100" t="n">
+        <v>80</v>
+      </c>
+      <c r="L100" t="n">
         <v>100</v>
       </c>
-      <c r="L100" t="n">
-        <v>150</v>
-      </c>
       <c r="M100" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>70000</v>
       </c>
       <c r="K101" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M101" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q101" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L102" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M102" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q102" t="n">
         <v>60</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L103" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>225</v>
+        <v>11750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K104" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L104" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M104" t="n">
-        <v>15750</v>
+        <v>225</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7870,7 +7870,7 @@
         <v>225</v>
       </c>
       <c r="Q104" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K105" t="n">
-        <v>230</v>
+        <v>15500</v>
       </c>
       <c r="L105" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>240</v>
+        <v>15750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K106" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L106" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M106" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K107" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M107" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L108" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="M108" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K109" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L109" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M109" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K110" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L110" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M110" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>660</v>
+        <v>50000</v>
       </c>
       <c r="K111" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L111" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M111" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q111" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1100</v>
+        <v>660</v>
       </c>
       <c r="K112" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="L112" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>17500</v>
+        <v>10750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,12 +8443,84 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="Q112" t="n">
         <v>70</v>
       </c>
       <c r="R112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K113" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M113" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>70</v>
+      </c>
+      <c r="R113" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44300</v>
+        <v>44609</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="L70" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M70" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L71" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44252</v>
+        <v>44300</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
         <v>50000</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="M72" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="K73" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L73" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="M73" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44343</v>
+        <v>44252</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K74" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L74" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M74" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K75" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M75" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="K76" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L76" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50000</v>
+        <v>44000</v>
       </c>
       <c r="K77" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44336</v>
+        <v>44315</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5976,14 +5976,14 @@
         <v>50000</v>
       </c>
       <c r="K78" t="n">
+        <v>70</v>
+      </c>
+      <c r="L78" t="n">
+        <v>90</v>
+      </c>
+      <c r="M78" t="n">
         <v>80</v>
       </c>
-      <c r="L78" t="n">
-        <v>100</v>
-      </c>
-      <c r="M78" t="n">
-        <v>90</v>
-      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K79" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L79" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,25 +6108,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="K80" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L80" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44573</v>
+        <v>44231</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,17 +6189,17 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="K81" t="n">
         <v>200</v>
       </c>
       <c r="L81" t="n">
+        <v>300</v>
+      </c>
+      <c r="M81" t="n">
         <v>250</v>
       </c>
-      <c r="M81" t="n">
-        <v>225</v>
-      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="K82" t="n">
         <v>200</v>
       </c>
       <c r="L82" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="M82" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44357</v>
+        <v>44280</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="K83" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L83" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="M83" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="K84" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L84" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K85" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="K86" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L86" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M86" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>60000</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="L87" t="n">
-        <v>15000</v>
+        <v>170</v>
       </c>
       <c r="M87" t="n">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q87" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K88" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="L88" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>41000</v>
+        <v>14000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>586</v>
+        <v>200</v>
       </c>
       <c r="Q88" t="n">
         <v>70</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44329</v>
+        <v>44490</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="K89" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="L89" t="n">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>41000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>90</v>
+        <v>586</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="K90" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M90" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44524</v>
+        <v>44329</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,24 +6905,24 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>40000</v>
       </c>
       <c r="K91" t="n">
-        <v>19000</v>
+        <v>60</v>
       </c>
       <c r="L91" t="n">
-        <v>20000</v>
+        <v>70</v>
       </c>
       <c r="M91" t="n">
-        <v>19500</v>
+        <v>65</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="Q91" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44483</v>
+        <v>44524</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6984,13 +6984,13 @@
         <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="L92" t="n">
-        <v>41000</v>
+        <v>20000</v>
       </c>
       <c r="M92" t="n">
-        <v>40500</v>
+        <v>19500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>579</v>
+        <v>279</v>
       </c>
       <c r="Q92" t="n">
         <v>70</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44294</v>
+        <v>44483</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L93" t="n">
-        <v>220</v>
+        <v>41000</v>
       </c>
       <c r="M93" t="n">
-        <v>210</v>
+        <v>40500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>210</v>
+        <v>579</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="K94" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L94" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="M94" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44489</v>
+        <v>44294</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>36000</v>
       </c>
       <c r="K95" t="n">
-        <v>40000</v>
+        <v>120</v>
       </c>
       <c r="L95" t="n">
-        <v>42000</v>
+        <v>140</v>
       </c>
       <c r="M95" t="n">
-        <v>41000</v>
+        <v>130</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>586</v>
+        <v>130</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44279</v>
+        <v>44489</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>32000</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="L96" t="n">
-        <v>250</v>
+        <v>42000</v>
       </c>
       <c r="M96" t="n">
-        <v>225</v>
+        <v>41000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>225</v>
+        <v>586</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="K97" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L97" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M97" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="K98" t="n">
-        <v>37000</v>
+        <v>180</v>
       </c>
       <c r="L98" t="n">
-        <v>39000</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>38000</v>
+        <v>190</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44301</v>
+        <v>44504</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="K99" t="n">
-        <v>150</v>
+        <v>37000</v>
       </c>
       <c r="L99" t="n">
-        <v>200</v>
+        <v>39000</v>
       </c>
       <c r="M99" t="n">
-        <v>175</v>
+        <v>38000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="K100" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L100" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M100" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>70000</v>
+        <v>24000</v>
       </c>
       <c r="K101" t="n">
+        <v>80</v>
+      </c>
+      <c r="L101" t="n">
         <v>100</v>
       </c>
-      <c r="L101" t="n">
-        <v>150</v>
-      </c>
       <c r="M101" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>70000</v>
       </c>
       <c r="K102" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
-        <v>13000</v>
+        <v>150</v>
       </c>
       <c r="M102" t="n">
-        <v>12500</v>
+        <v>125</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q102" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M103" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q103" t="n">
         <v>60</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>30000</v>
+        <v>800</v>
       </c>
       <c r="K104" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L104" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>225</v>
+        <v>11750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K105" t="n">
-        <v>15500</v>
+        <v>200</v>
       </c>
       <c r="L105" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M105" t="n">
-        <v>15750</v>
+        <v>225</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7942,7 +7942,7 @@
         <v>225</v>
       </c>
       <c r="Q105" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K106" t="n">
-        <v>230</v>
+        <v>15500</v>
       </c>
       <c r="L106" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M106" t="n">
-        <v>240</v>
+        <v>15750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K107" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L107" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M107" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="K108" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M108" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>50000</v>
       </c>
       <c r="K109" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L109" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="M109" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K110" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L110" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M110" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K111" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L111" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M111" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,24 +8417,24 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>660</v>
+        <v>50000</v>
       </c>
       <c r="K112" t="n">
-        <v>10500</v>
+        <v>50</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>70</v>
       </c>
       <c r="M112" t="n">
-        <v>10750</v>
+        <v>60</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="Q112" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1100</v>
+        <v>660</v>
       </c>
       <c r="K113" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="L113" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M113" t="n">
-        <v>17500</v>
+        <v>10750</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,12 +8515,84 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="Q113" t="n">
         <v>70</v>
       </c>
       <c r="R113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K114" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M114" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>70</v>
+      </c>
+      <c r="R114" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44490</v>
+        <v>44329</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K89" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="L89" t="n">
-        <v>42000</v>
+        <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>41000</v>
+        <v>90</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="K90" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M90" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44329</v>
+        <v>44524</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,36 +6905,36 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>60</v>
+        <v>19000</v>
       </c>
       <c r="L91" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M91" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>279</v>
+      </c>
+      <c r="Q91" t="n">
         <v>70</v>
-      </c>
-      <c r="M91" t="n">
-        <v>65</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44524</v>
+        <v>44483</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6984,13 +6984,13 @@
         <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L92" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="M92" t="n">
-        <v>19500</v>
+        <v>40500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>279</v>
+        <v>579</v>
       </c>
       <c r="Q92" t="n">
         <v>70</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44483</v>
+        <v>44294</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="K93" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>41000</v>
+        <v>220</v>
       </c>
       <c r="M93" t="n">
-        <v>40500</v>
+        <v>210</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>579</v>
+        <v>210</v>
       </c>
       <c r="Q93" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L94" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M94" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44294</v>
+        <v>44279</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="K95" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M95" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44489</v>
+        <v>44279</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="K96" t="n">
-        <v>40000</v>
+        <v>180</v>
       </c>
       <c r="L96" t="n">
-        <v>42000</v>
+        <v>200</v>
       </c>
       <c r="M96" t="n">
-        <v>41000</v>
+        <v>190</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>586</v>
+        <v>190</v>
       </c>
       <c r="Q96" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44279</v>
+        <v>44504</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>32000</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>200</v>
+        <v>37000</v>
       </c>
       <c r="L97" t="n">
-        <v>250</v>
+        <v>39000</v>
       </c>
       <c r="M97" t="n">
-        <v>225</v>
+        <v>38000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>225</v>
+        <v>543</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K98" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
         <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44504</v>
+        <v>44301</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1200</v>
+        <v>24000</v>
       </c>
       <c r="K99" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
-        <v>39000</v>
+        <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>38000</v>
+        <v>90</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="Q99" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K100" t="n">
+        <v>100</v>
+      </c>
+      <c r="L100" t="n">
         <v>150</v>
       </c>
-      <c r="L100" t="n">
-        <v>200</v>
-      </c>
       <c r="M100" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44301</v>
+        <v>44370</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>24000</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="L101" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="M101" t="n">
-        <v>90</v>
+        <v>12500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44301</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>70000</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="L102" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="M102" t="n">
-        <v>125</v>
+        <v>11750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 60 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="K103" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L103" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M103" t="n">
-        <v>12500</v>
+        <v>225</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q103" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44385</v>
+        <v>44615</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>800</v>
+        <v>70000</v>
       </c>
       <c r="K104" t="n">
-        <v>11500</v>
+        <v>150</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>180</v>
       </c>
       <c r="M104" t="n">
-        <v>11750</v>
+        <v>165</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="Q104" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44272</v>
+        <v>44167</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="K105" t="n">
-        <v>200</v>
+        <v>15500</v>
       </c>
       <c r="L105" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>225</v>
+        <v>15750</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7942,7 +7942,7 @@
         <v>225</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44167</v>
+        <v>44258</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2400</v>
+        <v>30000</v>
       </c>
       <c r="K106" t="n">
-        <v>15500</v>
+        <v>230</v>
       </c>
       <c r="L106" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M106" t="n">
-        <v>15750</v>
+        <v>240</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q106" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="K107" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M107" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="K108" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L108" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M108" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44349</v>
+        <v>44595</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>50000</v>
       </c>
       <c r="K109" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L109" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M109" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44595</v>
+        <v>44335</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="K110" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L110" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="M110" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="K111" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L111" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M111" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44335</v>
+        <v>44552</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,36 +8417,36 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>50000</v>
+        <v>660</v>
       </c>
       <c r="K112" t="n">
-        <v>50</v>
+        <v>10500</v>
       </c>
       <c r="L112" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M112" t="n">
+        <v>10750</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q112" t="n">
         <v>70</v>
-      </c>
-      <c r="M112" t="n">
-        <v>60</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>1</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44552</v>
+        <v>44160</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>660</v>
+        <v>1100</v>
       </c>
       <c r="K113" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="L113" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>10750</v>
+        <v>17500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,84 +8515,12 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="Q113" t="n">
         <v>70</v>
       </c>
       <c r="R113" t="inlineStr">
-        <is>
-          <t>Hortaliza</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Comercializadora del Agro de Limarí</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Coquimbo</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>44160</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Dulce o Americano</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>1100</v>
-      </c>
-      <c r="K114" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L114" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M114" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>250</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>70</v>
-      </c>
-      <c r="R114" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44503</v>
+        <v>44616</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="K6" t="n">
-        <v>39000</v>
+        <v>150</v>
       </c>
       <c r="L6" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>39500</v>
+        <v>175</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>564</v>
+        <v>175</v>
       </c>
       <c r="Q6" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44371</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
-        <v>12500</v>
+        <v>39000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>39500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/malla 60 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K8" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>9000</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q8" t="n">
         <v>60</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44273</v>
+        <v>44364</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>24000</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>230</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>215</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
